--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-14.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="I2" t="n">
         <v>3.7</v>
       </c>
-      <c r="G2" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.32</v>
-      </c>
       <c r="J2" t="n">
-        <v>3.25</v>
+        <v>1.94</v>
       </c>
       <c r="K2" t="n">
         <v>3.55</v>
@@ -688,91 +688,91 @@
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.35</v>
+        <v>1.75</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.06</v>
+        <v>1.89</v>
       </c>
       <c r="R2" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>3.75</v>
+        <v>1.89</v>
       </c>
       <c r="T2" t="n">
-        <v>1.81</v>
+        <v>1.01</v>
       </c>
       <c r="U2" t="n">
-        <v>2.04</v>
+        <v>1.86</v>
       </c>
       <c r="V2" t="n">
-        <v>1.76</v>
+        <v>1.37</v>
       </c>
       <c r="W2" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="X2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.44</v>
+        <v>1.04</v>
       </c>
       <c r="G3" t="n">
-        <v>1.66</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>2.52</v>
+        <v>1.04</v>
       </c>
       <c r="I3" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
         <v>4</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="G4" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="H4" t="n">
         <v>4.2</v>
@@ -949,7 +949,7 @@
         <v>4.5</v>
       </c>
       <c r="J4" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K4" t="n">
         <v>4.1</v>
@@ -961,7 +961,7 @@
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O4" t="n">
         <v>1.29</v>
@@ -973,16 +973,16 @@
         <v>1.86</v>
       </c>
       <c r="R4" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S4" t="n">
         <v>3.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U4" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -997,7 +997,7 @@
         <v>17</v>
       </c>
       <c r="Z4" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA4" t="n">
         <v>95</v>
@@ -1006,19 +1006,19 @@
         <v>10</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD4" t="n">
         <v>18</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AF4" t="n">
         <v>12.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH4" t="n">
         <v>19</v>
@@ -1027,10 +1027,10 @@
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL4" t="n">
         <v>36</v>
@@ -1078,13 +1078,13 @@
         <v>1.36</v>
       </c>
       <c r="H5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" t="n">
         <v>13</v>
       </c>
       <c r="J5" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="K5" t="n">
         <v>5.8</v>
@@ -1099,16 +1099,16 @@
         <v>3.9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P5" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="R5" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="S5" t="n">
         <v>3.45</v>
@@ -1117,7 +1117,7 @@
         <v>2.48</v>
       </c>
       <c r="U5" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1126,55 +1126,55 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="Z5" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>150</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>430</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN5" t="n">
         <v>7</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>360</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>340</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>6.6</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="G6" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="H6" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I6" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K6" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="G7" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="H7" t="n">
-        <v>3.8</v>
+        <v>2.04</v>
       </c>
       <c r="I7" t="n">
-        <v>7.2</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K7" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1366,22 +1366,22 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="O7" t="n">
         <v>1.27</v>
       </c>
       <c r="P7" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="Q7" t="n">
         <v>1.63</v>
       </c>
       <c r="R7" t="n">
-        <v>1.35</v>
+        <v>1.08</v>
       </c>
       <c r="S7" t="n">
-        <v>2.58</v>
+        <v>1.63</v>
       </c>
       <c r="T7" t="n">
         <v>1.01</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G8" t="n">
         <v>11</v>
       </c>
       <c r="H8" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="I8" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="J8" t="n">
         <v>7</v>
       </c>
       <c r="K8" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1510,19 +1510,19 @@
         <v>4.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="R8" t="n">
         <v>2.28</v>
       </c>
       <c r="S8" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="T8" t="n">
         <v>1.61</v>
       </c>
       <c r="U8" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>65</v>
       </c>
       <c r="Y8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z8" t="n">
         <v>13.5</v>
@@ -1543,7 +1543,7 @@
         <v>13.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AC8" t="n">
         <v>19.5</v>
@@ -1552,25 +1552,25 @@
         <v>12.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AG8" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AH8" t="n">
         <v>25</v>
       </c>
       <c r="AI8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AL8" t="n">
         <v>80</v>
@@ -1582,7 +1582,7 @@
         <v>75</v>
       </c>
       <c r="AO8" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="9">
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="G9" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="H9" t="n">
         <v>4.1</v>
@@ -1624,10 +1624,10 @@
         <v>4.4</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K9" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,13 +1642,13 @@
         <v>1.22</v>
       </c>
       <c r="P9" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="Q9" t="n">
         <v>1.65</v>
       </c>
       <c r="R9" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S9" t="n">
         <v>2.62</v>
@@ -1657,7 +1657,7 @@
         <v>1.64</v>
       </c>
       <c r="U9" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1786,13 +1786,13 @@
         <v>1.57</v>
       </c>
       <c r="S10" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="T10" t="n">
         <v>1.65</v>
       </c>
       <c r="U10" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1888,7 +1888,7 @@
         <v>1.16</v>
       </c>
       <c r="H11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I11" t="n">
         <v>30</v>
@@ -1924,10 +1924,10 @@
         <v>2.44</v>
       </c>
       <c r="T11" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="U11" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y11" t="n">
         <v>70</v>
@@ -1969,7 +1969,7 @@
         <v>65</v>
       </c>
       <c r="AI11" t="n">
-        <v>490</v>
+        <v>510</v>
       </c>
       <c r="AJ11" t="n">
         <v>7.4</v>
@@ -1984,7 +1984,7 @@
         <v>510</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2020,10 +2020,10 @@
         <v>1.43</v>
       </c>
       <c r="G12" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="H12" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="I12" t="n">
         <v>9.199999999999999</v>
@@ -2161,7 +2161,7 @@
         <v>1.53</v>
       </c>
       <c r="I13" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="J13" t="n">
         <v>4.5</v>
@@ -2179,10 +2179,10 @@
         <v>4.6</v>
       </c>
       <c r="O13" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q13" t="n">
         <v>1.66</v>
@@ -2206,28 +2206,28 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z13" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA13" t="n">
         <v>17.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC13" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AD13" t="n">
         <v>12</v>
       </c>
       <c r="AE13" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF13" t="n">
         <v>60</v>
@@ -2236,7 +2236,7 @@
         <v>28</v>
       </c>
       <c r="AH13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI13" t="n">
         <v>980</v>
@@ -2257,7 +2257,7 @@
         <v>110</v>
       </c>
       <c r="AO13" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="14">
@@ -2290,19 +2290,19 @@
         <v>1.32</v>
       </c>
       <c r="G14" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="H14" t="n">
-        <v>6.4</v>
+        <v>1.04</v>
       </c>
       <c r="I14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J14" t="n">
         <v>4.5</v>
       </c>
       <c r="K14" t="n">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2311,22 +2311,22 @@
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>2.22</v>
+        <v>1.26</v>
       </c>
       <c r="O14" t="n">
         <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>2.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.55</v>
+        <v>1.18</v>
       </c>
       <c r="R14" t="n">
-        <v>1.5</v>
+        <v>1.18</v>
       </c>
       <c r="S14" t="n">
-        <v>2.22</v>
+        <v>1.18</v>
       </c>
       <c r="T14" t="n">
         <v>1.01</v>
@@ -2335,7 +2335,7 @@
         <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="W14" t="n">
         <v>2.84</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-14.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="G2" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="H2" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="I2" t="n">
-        <v>3.7</v>
+        <v>2.44</v>
       </c>
       <c r="J2" t="n">
-        <v>1.94</v>
+        <v>3.3</v>
       </c>
       <c r="K2" t="n">
         <v>3.55</v>
@@ -688,25 +688,25 @@
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R2" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="S2" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="T2" t="n">
         <v>1.01</v>
@@ -715,10 +715,10 @@
         <v>1.86</v>
       </c>
       <c r="V2" t="n">
-        <v>1.37</v>
+        <v>1.73</v>
       </c>
       <c r="W2" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -805,10 +805,10 @@
         <v>1.04</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>1.69</v>
       </c>
       <c r="H3" t="n">
-        <v>1.04</v>
+        <v>2.44</v>
       </c>
       <c r="I3" t="n">
         <v>1000</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="G4" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="H4" t="n">
         <v>4.2</v>
       </c>
       <c r="I4" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J4" t="n">
         <v>3.8</v>
       </c>
       <c r="K4" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>2.06</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R4" t="n">
         <v>1.42</v>
@@ -979,7 +979,7 @@
         <v>3.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U4" t="n">
         <v>2.18</v>
@@ -1012,7 +1012,7 @@
         <v>18</v>
       </c>
       <c r="AE4" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AF4" t="n">
         <v>12.5</v>
@@ -1078,13 +1078,13 @@
         <v>1.36</v>
       </c>
       <c r="H5" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="I5" t="n">
         <v>13</v>
       </c>
       <c r="J5" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="K5" t="n">
         <v>5.8</v>
@@ -1099,16 +1099,16 @@
         <v>3.9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P5" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="R5" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S5" t="n">
         <v>3.45</v>
@@ -1126,55 +1126,55 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y5" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH5" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AL5" t="n">
-        <v>430</v>
+        <v>60</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AN5" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G6" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="H6" t="n">
-        <v>2.26</v>
+        <v>2.42</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K6" t="n">
         <v>4.8</v>
@@ -1240,7 +1240,7 @@
         <v>1.84</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="G7" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="H7" t="n">
-        <v>2.04</v>
+        <v>3.75</v>
       </c>
       <c r="I7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J7" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K7" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1366,22 +1366,22 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="O7" t="n">
         <v>1.27</v>
       </c>
       <c r="P7" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="Q7" t="n">
         <v>1.63</v>
       </c>
       <c r="R7" t="n">
-        <v>1.08</v>
+        <v>1.38</v>
       </c>
       <c r="S7" t="n">
-        <v>1.63</v>
+        <v>2.52</v>
       </c>
       <c r="T7" t="n">
         <v>1.01</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="G8" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="H8" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="I8" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="J8" t="n">
         <v>7</v>
@@ -1510,7 +1510,7 @@
         <v>4.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="R8" t="n">
         <v>2.28</v>
@@ -1519,10 +1519,10 @@
         <v>1.74</v>
       </c>
       <c r="T8" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U8" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Y8" t="n">
         <v>20</v>
@@ -1546,10 +1546,10 @@
         <v>70</v>
       </c>
       <c r="AC8" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE8" t="n">
         <v>12.5</v>
@@ -1612,13 +1612,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="G9" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="H9" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I9" t="n">
         <v>4.4</v>
@@ -1642,22 +1642,22 @@
         <v>1.22</v>
       </c>
       <c r="P9" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q9" t="n">
         <v>1.65</v>
       </c>
       <c r="R9" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="S9" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="T9" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="U9" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1693,7 +1693,7 @@
         <v>14</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH9" t="n">
         <v>16.5</v>
@@ -1714,7 +1714,7 @@
         <v>70</v>
       </c>
       <c r="AN9" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AO9" t="n">
         <v>36</v>
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="G10" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="H10" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I10" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J10" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K10" t="n">
         <v>4.3</v>
@@ -1801,13 +1801,13 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z10" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AA10" t="n">
         <v>90</v>
@@ -1819,7 +1819,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD10" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AE10" t="n">
         <v>50</v>
@@ -1831,7 +1831,7 @@
         <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
         <v>50</v>
@@ -1840,19 +1840,19 @@
         <v>22</v>
       </c>
       <c r="AK10" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AL10" t="n">
         <v>29</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN10" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AO10" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
@@ -1894,10 +1894,10 @@
         <v>30</v>
       </c>
       <c r="J11" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="K11" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -2290,19 +2290,19 @@
         <v>1.32</v>
       </c>
       <c r="G14" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="H14" t="n">
-        <v>1.04</v>
+        <v>6.4</v>
       </c>
       <c r="I14" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="J14" t="n">
         <v>4.5</v>
       </c>
       <c r="K14" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2311,22 +2311,22 @@
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>1.26</v>
+        <v>2.14</v>
       </c>
       <c r="O14" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P14" t="n">
-        <v>1.25</v>
+        <v>2.14</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.18</v>
+        <v>1.56</v>
       </c>
       <c r="R14" t="n">
-        <v>1.18</v>
+        <v>1.46</v>
       </c>
       <c r="S14" t="n">
-        <v>1.18</v>
+        <v>2.3</v>
       </c>
       <c r="T14" t="n">
         <v>1.01</v>
@@ -2338,7 +2338,7 @@
         <v>1.07</v>
       </c>
       <c r="W14" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-14.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="G2" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="H2" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="I2" t="n">
-        <v>2.44</v>
+        <v>2.26</v>
       </c>
       <c r="J2" t="n">
         <v>3.3</v>
@@ -688,91 +688,91 @@
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>1.76</v>
+        <v>3.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="R2" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="S2" t="n">
-        <v>1.9</v>
+        <v>3.7</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="U2" t="n">
-        <v>1.86</v>
+        <v>2.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="W2" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="3">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.04</v>
+        <v>1.44</v>
       </c>
       <c r="G3" t="n">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="H3" t="n">
-        <v>2.44</v>
+        <v>7.4</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="K3" t="n">
-        <v>950</v>
+        <v>5.2</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.81</v>
+        <v>2.02</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="G4" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="H4" t="n">
         <v>4.2</v>
       </c>
       <c r="I4" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J4" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K4" t="n">
         <v>3.9</v>
@@ -1006,13 +1006,13 @@
         <v>10</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD4" t="n">
         <v>18</v>
       </c>
       <c r="AE4" t="n">
-        <v>180</v>
+        <v>55</v>
       </c>
       <c r="AF4" t="n">
         <v>12.5</v>
@@ -1042,7 +1042,7 @@
         <v>12.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="G5" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="H5" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="I5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J5" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="K5" t="n">
         <v>5.8</v>
@@ -1114,7 +1114,7 @@
         <v>3.45</v>
       </c>
       <c r="T5" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="U5" t="n">
         <v>1.63</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="G6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H6" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="I6" t="n">
-        <v>3.1</v>
+        <v>2.82</v>
       </c>
       <c r="J6" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K6" t="n">
-        <v>4.8</v>
+        <v>3.95</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1342,52 +1342,52 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="G7" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="H7" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
         <v>7</v>
       </c>
       <c r="J7" t="n">
-        <v>3.85</v>
+        <v>3.45</v>
       </c>
       <c r="K7" t="n">
-        <v>11</v>
+        <v>4.6</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>1.93</v>
+        <v>3.65</v>
       </c>
       <c r="O7" t="n">
         <v>1.27</v>
       </c>
       <c r="P7" t="n">
-        <v>1.92</v>
+        <v>2.06</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="R7" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="S7" t="n">
-        <v>2.52</v>
+        <v>2.88</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="U7" t="n">
-        <v>1.71</v>
+        <v>2.04</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1396,10 +1396,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
@@ -1408,43 +1408,43 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="G8" t="n">
         <v>11.5</v>
@@ -1492,7 +1492,7 @@
         <v>7</v>
       </c>
       <c r="K8" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,16 +1507,16 @@
         <v>1.09</v>
       </c>
       <c r="P8" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q8" t="n">
         <v>1.29</v>
       </c>
       <c r="R8" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="S8" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="T8" t="n">
         <v>1.62</v>
@@ -1534,10 +1534,10 @@
         <v>60</v>
       </c>
       <c r="Y8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z8" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA8" t="n">
         <v>13.5</v>
@@ -1546,10 +1546,10 @@
         <v>70</v>
       </c>
       <c r="AC8" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE8" t="n">
         <v>12.5</v>
@@ -1558,13 +1558,13 @@
         <v>140</v>
       </c>
       <c r="AG8" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AH8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI8" t="n">
         <v>25</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>26</v>
       </c>
       <c r="AJ8" t="n">
         <v>340</v>
@@ -1579,10 +1579,10 @@
         <v>75</v>
       </c>
       <c r="AN8" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AO8" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="9">
@@ -1615,7 +1615,7 @@
         <v>1.9</v>
       </c>
       <c r="G9" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="H9" t="n">
         <v>4.2</v>
@@ -1627,7 +1627,7 @@
         <v>4.1</v>
       </c>
       <c r="K9" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1636,28 +1636,28 @@
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P9" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="R9" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="S9" t="n">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="T9" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="U9" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1699,22 +1699,22 @@
         <v>16.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ9" t="n">
         <v>22</v>
       </c>
       <c r="AK9" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL9" t="n">
         <v>28</v>
       </c>
       <c r="AM9" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO9" t="n">
         <v>36</v>
@@ -1771,7 +1771,7 @@
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O10" t="n">
         <v>1.22</v>
@@ -1786,13 +1786,13 @@
         <v>1.57</v>
       </c>
       <c r="S10" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="T10" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U10" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1804,7 +1804,7 @@
         <v>24</v>
       </c>
       <c r="Y10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z10" t="n">
         <v>38</v>
@@ -1819,7 +1819,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD10" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE10" t="n">
         <v>50</v>
@@ -1828,7 +1828,7 @@
         <v>13.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH10" t="n">
         <v>17</v>
@@ -1840,7 +1840,7 @@
         <v>22</v>
       </c>
       <c r="AK10" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL10" t="n">
         <v>29</v>
@@ -1849,7 +1849,7 @@
         <v>75</v>
       </c>
       <c r="AN10" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO10" t="n">
         <v>42</v>
@@ -1894,10 +1894,10 @@
         <v>30</v>
       </c>
       <c r="J11" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="K11" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1915,19 +1915,19 @@
         <v>2.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="R11" t="n">
         <v>1.66</v>
       </c>
       <c r="S11" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="T11" t="n">
         <v>2.78</v>
       </c>
       <c r="U11" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="G12" t="n">
         <v>1.46</v>
@@ -2029,10 +2029,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="J12" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2155,16 +2155,16 @@
         <v>6.4</v>
       </c>
       <c r="G13" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="H13" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="I13" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="J13" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="K13" t="n">
         <v>5.2</v>
@@ -2176,28 +2176,28 @@
         <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P13" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="R13" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="S13" t="n">
-        <v>2.68</v>
+        <v>2.54</v>
       </c>
       <c r="T13" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="U13" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2206,58 +2206,58 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="Y13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Z13" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AB13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG13" t="n">
         <v>27</v>
       </c>
-      <c r="AC13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>28</v>
-      </c>
       <c r="AH13" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI13" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AJ13" t="n">
         <v>200</v>
       </c>
       <c r="AK13" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL13" t="n">
         <v>90</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>80</v>
       </c>
       <c r="AM13" t="n">
         <v>120</v>
       </c>
       <c r="AN13" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AO13" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="14">
@@ -2287,109 +2287,109 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="G14" t="n">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
       <c r="H14" t="n">
-        <v>6.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="J14" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K14" t="n">
-        <v>11</v>
+        <v>5.9</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>2.14</v>
+        <v>4.8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P14" t="n">
-        <v>2.14</v>
+        <v>2.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="R14" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="S14" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="T14" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="U14" t="n">
-        <v>1.01</v>
+        <v>1.88</v>
       </c>
       <c r="V14" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="W14" t="n">
-        <v>2.82</v>
+        <v>3.25</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-14.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="H2" t="n">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="I2" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="J2" t="n">
         <v>3.3</v>
@@ -697,61 +697,61 @@
         <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R2" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S2" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T2" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U2" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="W2" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="X2" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AB2" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.8</v>
+        <v>9.4</v>
       </c>
       <c r="AD2" t="n">
         <v>13</v>
       </c>
       <c r="AE2" t="n">
-        <v>970</v>
+        <v>29</v>
       </c>
       <c r="AF2" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AG2" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AH2" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
         <v>970</v>
@@ -760,19 +760,19 @@
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AL2" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AM2" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN2" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AO2" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="G3" t="n">
         <v>1.59</v>
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="G4" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="H4" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="I4" t="n">
         <v>4.5</v>
       </c>
       <c r="J4" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K4" t="n">
         <v>3.9</v>
@@ -964,25 +964,25 @@
         <v>4.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
         <v>2.06</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="R4" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S4" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T4" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U4" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>95</v>
       </c>
       <c r="AB4" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AC4" t="n">
         <v>8.4</v>
@@ -1024,7 +1024,7 @@
         <v>19</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ4" t="n">
         <v>22</v>
@@ -1036,7 +1036,7 @@
         <v>36</v>
       </c>
       <c r="AM4" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN4" t="n">
         <v>12.5</v>
@@ -1078,16 +1078,16 @@
         <v>1.35</v>
       </c>
       <c r="H5" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="I5" t="n">
         <v>14</v>
       </c>
       <c r="J5" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="K5" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>1.95</v>
       </c>
       <c r="R5" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S5" t="n">
         <v>3.45</v>
@@ -1117,7 +1117,7 @@
         <v>2.46</v>
       </c>
       <c r="U5" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y5" t="n">
         <v>34</v>
@@ -1138,7 +1138,7 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AC5" t="n">
         <v>12.5</v>
@@ -1150,7 +1150,7 @@
         <v>370</v>
       </c>
       <c r="AF5" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AG5" t="n">
         <v>11</v>
@@ -1165,7 +1165,7 @@
         <v>10</v>
       </c>
       <c r="AK5" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AL5" t="n">
         <v>60</v>
@@ -1210,13 +1210,13 @@
         <v>2.7</v>
       </c>
       <c r="G6" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="H6" t="n">
         <v>2.48</v>
       </c>
       <c r="I6" t="n">
-        <v>2.82</v>
+        <v>3.05</v>
       </c>
       <c r="J6" t="n">
         <v>3.35</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="G7" t="n">
-        <v>1.94</v>
+        <v>1.7</v>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="I7" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="J7" t="n">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1366,28 +1366,28 @@
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="R7" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="S7" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="T7" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U7" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1396,10 +1396,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y7" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
@@ -1411,28 +1411,28 @@
         <v>11.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG7" t="n">
         <v>12.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK7" t="n">
         <v>21</v>
@@ -1444,7 +1444,7 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="G8" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="H8" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="I8" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="J8" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="K8" t="n">
         <v>7.6</v>
@@ -1507,7 +1507,7 @@
         <v>1.09</v>
       </c>
       <c r="P8" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Q8" t="n">
         <v>1.29</v>
@@ -1516,13 +1516,13 @@
         <v>2.3</v>
       </c>
       <c r="S8" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="T8" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U8" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1531,19 +1531,19 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Y8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z8" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA8" t="n">
         <v>13.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AC8" t="n">
         <v>19.5</v>
@@ -1555,10 +1555,10 @@
         <v>12.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AG8" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AH8" t="n">
         <v>24</v>
@@ -1567,19 +1567,19 @@
         <v>25</v>
       </c>
       <c r="AJ8" t="n">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="AK8" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AL8" t="n">
         <v>80</v>
       </c>
       <c r="AM8" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN8" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AO8" t="n">
         <v>2.94</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G9" t="n">
         <v>1.92</v>
@@ -1621,13 +1621,13 @@
         <v>4.2</v>
       </c>
       <c r="I9" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J9" t="n">
         <v>4.1</v>
       </c>
       <c r="K9" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1645,7 +1645,7 @@
         <v>2.48</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R9" t="n">
         <v>1.59</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Y9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z9" t="n">
         <v>34</v>
       </c>
       <c r="AA9" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AB9" t="n">
         <v>12.5</v>
@@ -1693,31 +1693,31 @@
         <v>14</v>
       </c>
       <c r="AG9" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH9" t="n">
         <v>16.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AJ9" t="n">
         <v>22</v>
       </c>
       <c r="AK9" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AL9" t="n">
         <v>28</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AN9" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AO9" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="G10" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="H10" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I10" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="J10" t="n">
         <v>4.2</v>
@@ -1777,7 +1777,7 @@
         <v>1.22</v>
       </c>
       <c r="P10" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q10" t="n">
         <v>1.68</v>
@@ -1789,7 +1789,7 @@
         <v>2.64</v>
       </c>
       <c r="T10" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U10" t="n">
         <v>2.44</v>
@@ -1825,7 +1825,7 @@
         <v>50</v>
       </c>
       <c r="AF10" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG10" t="n">
         <v>10.5</v>
@@ -1837,10 +1837,10 @@
         <v>50</v>
       </c>
       <c r="AJ10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK10" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL10" t="n">
         <v>29</v>
@@ -1849,7 +1849,7 @@
         <v>75</v>
       </c>
       <c r="AN10" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AO10" t="n">
         <v>42</v>
@@ -1927,7 +1927,7 @@
         <v>2.78</v>
       </c>
       <c r="U11" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1942,7 +1942,7 @@
         <v>70</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
@@ -2023,7 +2023,7 @@
         <v>1.46</v>
       </c>
       <c r="H12" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I12" t="n">
         <v>9.199999999999999</v>
@@ -2050,7 +2050,7 @@
         <v>2</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="G13" t="n">
         <v>7.6</v>
@@ -2164,7 +2164,7 @@
         <v>1.54</v>
       </c>
       <c r="J13" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="K13" t="n">
         <v>5.2</v>
@@ -2176,28 +2176,28 @@
         <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P13" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R13" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S13" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="T13" t="n">
         <v>1.76</v>
       </c>
       <c r="U13" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2206,10 +2206,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y13" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z13" t="n">
         <v>12.5</v>
@@ -2218,16 +2218,16 @@
         <v>17</v>
       </c>
       <c r="AB13" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC13" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE13" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF13" t="n">
         <v>65</v>
@@ -2236,10 +2236,10 @@
         <v>27</v>
       </c>
       <c r="AH13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI13" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AJ13" t="n">
         <v>200</v>
@@ -2287,79 +2287,79 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="G14" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H14" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="I14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J14" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="K14" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="O14" t="n">
         <v>1.21</v>
       </c>
       <c r="P14" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="R14" t="n">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="S14" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="U14" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="V14" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W14" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="X14" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Y14" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Z14" t="n">
         <v>110</v>
       </c>
       <c r="AA14" t="n">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="AB14" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC14" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AE14" t="n">
         <v>170</v>
@@ -2368,7 +2368,7 @@
         <v>11</v>
       </c>
       <c r="AG14" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH14" t="n">
         <v>32</v>
@@ -2380,16 +2380,16 @@
         <v>14</v>
       </c>
       <c r="AK14" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL14" t="n">
         <v>42</v>
       </c>
       <c r="AM14" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AN14" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-14.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="G2" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="H2" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="I2" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="J2" t="n">
         <v>3.3</v>
@@ -697,7 +697,7 @@
         <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Q2" t="n">
         <v>2.04</v>
@@ -706,49 +706,49 @@
         <v>1.3</v>
       </c>
       <c r="S2" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="T2" t="n">
         <v>1.84</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V2" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="W2" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="X2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y2" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AA2" t="n">
         <v>32</v>
       </c>
       <c r="AB2" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC2" t="n">
         <v>9.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF2" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH2" t="n">
         <v>23</v>
@@ -772,7 +772,7 @@
         <v>80</v>
       </c>
       <c r="AO2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="G3" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="H3" t="n">
         <v>7.4</v>
@@ -814,100 +814,100 @@
         <v>10.5</v>
       </c>
       <c r="J3" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K3" t="n">
         <v>5.2</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P3" t="n">
         <v>2.02</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -949,7 +949,7 @@
         <v>4.5</v>
       </c>
       <c r="J4" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K4" t="n">
         <v>3.9</v>
@@ -964,22 +964,22 @@
         <v>4.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P4" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.89</v>
+        <v>1.96</v>
       </c>
       <c r="R4" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="S4" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="T4" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="U4" t="n">
         <v>2.16</v>
@@ -991,10 +991,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y4" t="n">
         <v>16.5</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>17</v>
       </c>
       <c r="Z4" t="n">
         <v>34</v>
@@ -1006,7 +1006,7 @@
         <v>9.6</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD4" t="n">
         <v>18</v>
@@ -1039,10 +1039,10 @@
         <v>120</v>
       </c>
       <c r="AN4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AO4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="G5" t="n">
         <v>1.35</v>
@@ -1087,7 +1087,7 @@
         <v>5.5</v>
       </c>
       <c r="K5" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="O5" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P5" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="R5" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S5" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="T5" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="U5" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1213,10 +1213,10 @@
         <v>3.15</v>
       </c>
       <c r="H6" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="I6" t="n">
-        <v>3.05</v>
+        <v>2.82</v>
       </c>
       <c r="J6" t="n">
         <v>3.35</v>
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="G7" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="H7" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="I7" t="n">
         <v>7.6</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K7" t="n">
         <v>4.8</v>
@@ -1372,22 +1372,22 @@
         <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="R7" t="n">
         <v>1.44</v>
       </c>
       <c r="S7" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="T7" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1411,7 +1411,7 @@
         <v>11.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD7" t="n">
         <v>29</v>
@@ -1438,13 +1438,13 @@
         <v>21</v>
       </c>
       <c r="AL7" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1516,7 +1516,7 @@
         <v>2.3</v>
       </c>
       <c r="S8" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="T8" t="n">
         <v>1.63</v>
@@ -1540,7 +1540,7 @@
         <v>13.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB8" t="n">
         <v>75</v>
@@ -1549,7 +1549,7 @@
         <v>19.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE8" t="n">
         <v>12.5</v>
@@ -1582,7 +1582,7 @@
         <v>85</v>
       </c>
       <c r="AO8" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="9">
@@ -1750,13 +1750,13 @@
         <v>1.81</v>
       </c>
       <c r="G10" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="H10" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I10" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="J10" t="n">
         <v>4.2</v>
@@ -1783,16 +1783,16 @@
         <v>1.68</v>
       </c>
       <c r="R10" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S10" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="T10" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U10" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1801,28 +1801,28 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z10" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AA10" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AB10" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC10" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AD10" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AF10" t="n">
         <v>13</v>
@@ -1831,13 +1831,13 @@
         <v>10.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK10" t="n">
         <v>17.5</v>
@@ -1849,10 +1849,10 @@
         <v>75</v>
       </c>
       <c r="AN10" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO10" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
@@ -1912,19 +1912,19 @@
         <v>1.18</v>
       </c>
       <c r="P11" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R11" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="S11" t="n">
         <v>2.42</v>
       </c>
       <c r="T11" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="U11" t="n">
         <v>1.52</v>
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Y11" t="n">
         <v>70</v>
@@ -1972,7 +1972,7 @@
         <v>510</v>
       </c>
       <c r="AJ11" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AK11" t="n">
         <v>16</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G12" t="n">
         <v>1.44</v>
       </c>
-      <c r="G12" t="n">
-        <v>1.46</v>
-      </c>
       <c r="H12" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
@@ -2176,7 +2176,7 @@
         <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O13" t="n">
         <v>1.19</v>
@@ -2188,16 +2188,16 @@
         <v>1.61</v>
       </c>
       <c r="R13" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S13" t="n">
         <v>2.52</v>
       </c>
       <c r="T13" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="U13" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2206,25 +2206,25 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Y13" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z13" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AA13" t="n">
         <v>17</v>
       </c>
       <c r="AB13" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC13" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD13" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE13" t="n">
         <v>18</v>
@@ -2257,7 +2257,7 @@
         <v>95</v>
       </c>
       <c r="AO13" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="14">
@@ -2290,10 +2290,10 @@
         <v>1.35</v>
       </c>
       <c r="G14" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="H14" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="I14" t="n">
         <v>12</v>
@@ -2320,37 +2320,37 @@
         <v>2.36</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R14" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="S14" t="n">
         <v>2.4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="U14" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V14" t="n">
         <v>1.09</v>
       </c>
       <c r="W14" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="X14" t="n">
         <v>29</v>
       </c>
       <c r="Y14" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Z14" t="n">
         <v>110</v>
       </c>
       <c r="AA14" t="n">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="AB14" t="n">
         <v>12</v>
@@ -2359,7 +2359,7 @@
         <v>15.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AE14" t="n">
         <v>170</v>
@@ -2377,7 +2377,7 @@
         <v>140</v>
       </c>
       <c r="AJ14" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AK14" t="n">
         <v>17.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-14.xlsx
@@ -667,19 +667,19 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
         <v>4.4</v>
       </c>
       <c r="H2" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="I2" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="J2" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K2" t="n">
         <v>3.55</v>
@@ -691,58 +691,58 @@
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P2" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="R2" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S2" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="T2" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U2" t="n">
         <v>2.02</v>
       </c>
       <c r="V2" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="W2" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
         <v>16</v>
       </c>
       <c r="AA2" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="AB2" t="n">
         <v>17</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF2" t="n">
         <v>36</v>
@@ -751,7 +751,7 @@
         <v>21</v>
       </c>
       <c r="AH2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI2" t="n">
         <v>970</v>
@@ -763,16 +763,16 @@
         <v>70</v>
       </c>
       <c r="AL2" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AM2" t="n">
         <v>140</v>
       </c>
       <c r="AN2" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AO2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -820,13 +820,13 @@
         <v>5.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="O3" t="n">
         <v>1.28</v>
@@ -835,19 +835,19 @@
         <v>2.02</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R3" t="n">
         <v>1.31</v>
       </c>
       <c r="S3" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="U3" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="V3" t="n">
         <v>1.1</v>
@@ -859,7 +859,7 @@
         <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -868,34 +868,34 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="G4" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I4" t="n">
         <v>4.4</v>
       </c>
-      <c r="I4" t="n">
-        <v>4.5</v>
-      </c>
       <c r="J4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K4" t="n">
         <v>3.85</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.9</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -961,28 +961,28 @@
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P4" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R4" t="n">
         <v>1.39</v>
       </c>
       <c r="S4" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="T4" t="n">
         <v>1.82</v>
       </c>
       <c r="U4" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -991,16 +991,16 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA4" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AB4" t="n">
         <v>9.6</v>
@@ -1027,10 +1027,10 @@
         <v>60</v>
       </c>
       <c r="AJ4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
         <v>36</v>
@@ -1039,7 +1039,7 @@
         <v>120</v>
       </c>
       <c r="AN4" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1075,7 +1075,7 @@
         <v>1.34</v>
       </c>
       <c r="G5" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="H5" t="n">
         <v>12.5</v>
@@ -1096,28 +1096,28 @@
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O5" t="n">
         <v>1.32</v>
       </c>
       <c r="P5" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="R5" t="n">
         <v>1.37</v>
       </c>
       <c r="S5" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T5" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="U5" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         <v>34</v>
       </c>
       <c r="Z5" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
@@ -1144,13 +1144,13 @@
         <v>12.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AE5" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AG5" t="n">
         <v>11</v>
@@ -1174,7 +1174,7 @@
         <v>350</v>
       </c>
       <c r="AN5" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1213,10 +1213,10 @@
         <v>3.15</v>
       </c>
       <c r="H6" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="I6" t="n">
-        <v>2.82</v>
+        <v>3.05</v>
       </c>
       <c r="J6" t="n">
         <v>3.35</v>
@@ -1240,7 +1240,7 @@
         <v>1.98</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="G7" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="H7" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="I7" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="J7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K7" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1372,16 +1372,16 @@
         <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q7" t="n">
         <v>1.73</v>
       </c>
       <c r="R7" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S7" t="n">
-        <v>2.86</v>
+        <v>2.6</v>
       </c>
       <c r="T7" t="n">
         <v>1.81</v>
@@ -1399,7 +1399,7 @@
         <v>23</v>
       </c>
       <c r="Y7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
@@ -1414,7 +1414,7 @@
         <v>12.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
@@ -1438,13 +1438,13 @@
         <v>21</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1486,13 +1486,13 @@
         <v>1.27</v>
       </c>
       <c r="I8" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="J8" t="n">
         <v>7.4</v>
       </c>
       <c r="K8" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,7 +1507,7 @@
         <v>1.09</v>
       </c>
       <c r="P8" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q8" t="n">
         <v>1.29</v>
@@ -1516,13 +1516,13 @@
         <v>2.3</v>
       </c>
       <c r="S8" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="T8" t="n">
         <v>1.63</v>
       </c>
       <c r="U8" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>13.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AB8" t="n">
         <v>75</v>
       </c>
       <c r="AC8" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AD8" t="n">
         <v>12</v>
@@ -1561,28 +1561,28 @@
         <v>44</v>
       </c>
       <c r="AH8" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AI8" t="n">
         <v>25</v>
       </c>
       <c r="AJ8" t="n">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="AK8" t="n">
         <v>150</v>
       </c>
       <c r="AL8" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM8" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN8" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AO8" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="9">
@@ -1615,13 +1615,13 @@
         <v>1.91</v>
       </c>
       <c r="G9" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="H9" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I9" t="n">
         <v>4.2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4.3</v>
       </c>
       <c r="J9" t="n">
         <v>4.1</v>
@@ -1645,13 +1645,13 @@
         <v>2.48</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R9" t="n">
         <v>1.59</v>
       </c>
       <c r="S9" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="T9" t="n">
         <v>1.63</v>
@@ -1675,7 +1675,7 @@
         <v>34</v>
       </c>
       <c r="AA9" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AB9" t="n">
         <v>12.5</v>
@@ -1684,13 +1684,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD9" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE9" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF9" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AG9" t="n">
         <v>11</v>
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="G10" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="H10" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I10" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J10" t="n">
         <v>4.2</v>
@@ -1786,13 +1786,13 @@
         <v>1.58</v>
       </c>
       <c r="S10" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="T10" t="n">
         <v>1.66</v>
       </c>
       <c r="U10" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>120</v>
       </c>
       <c r="AB10" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC10" t="n">
         <v>9.800000000000001</v>
@@ -1849,10 +1849,10 @@
         <v>75</v>
       </c>
       <c r="AN10" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AO10" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
@@ -1897,7 +1897,7 @@
         <v>9.6</v>
       </c>
       <c r="K11" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,16 +1912,16 @@
         <v>1.18</v>
       </c>
       <c r="P11" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R11" t="n">
         <v>1.67</v>
       </c>
       <c r="S11" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="T11" t="n">
         <v>2.8</v>
@@ -1954,7 +1954,7 @@
         <v>22</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AE11" t="n">
         <v>1000</v>
@@ -1963,16 +1963,16 @@
         <v>7</v>
       </c>
       <c r="AG11" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH11" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AI11" t="n">
-        <v>510</v>
+        <v>490</v>
       </c>
       <c r="AJ11" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AK11" t="n">
         <v>16</v>
@@ -1981,7 +1981,7 @@
         <v>65</v>
       </c>
       <c r="AM11" t="n">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="AN11" t="n">
         <v>3.4</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="G12" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="H12" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
@@ -2152,19 +2152,19 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="G13" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="H13" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="I13" t="n">
         <v>1.54</v>
       </c>
       <c r="J13" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K13" t="n">
         <v>5.2</v>
@@ -2179,13 +2179,13 @@
         <v>5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P13" t="n">
         <v>2.38</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="R13" t="n">
         <v>1.55</v>
@@ -2194,7 +2194,7 @@
         <v>2.52</v>
       </c>
       <c r="T13" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="U13" t="n">
         <v>2.06</v>
@@ -2287,109 +2287,109 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
       <c r="G14" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="H14" t="n">
-        <v>8.6</v>
+        <v>1.04</v>
       </c>
       <c r="I14" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J14" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="K14" t="n">
-        <v>6.2</v>
+        <v>980</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>5.1</v>
+        <v>1.04</v>
       </c>
       <c r="O14" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P14" t="n">
-        <v>2.36</v>
+        <v>1.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.61</v>
+        <v>1.2</v>
       </c>
       <c r="R14" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="S14" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="U14" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="V14" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="W14" t="n">
-        <v>3.3</v>
+        <v>2.96</v>
       </c>
       <c r="X14" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>370</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-14.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="G2" t="n">
         <v>4.4</v>
@@ -823,7 +823,7 @@
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
         <v>2.02</v>
@@ -844,10 +844,10 @@
         <v>2.78</v>
       </c>
       <c r="T3" t="n">
-        <v>1.65</v>
+        <v>1.86</v>
       </c>
       <c r="U3" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V3" t="n">
         <v>1.1</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="G4" t="n">
         <v>2</v>
@@ -949,34 +949,34 @@
         <v>4.4</v>
       </c>
       <c r="J4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K4" t="n">
         <v>3.8</v>
       </c>
-      <c r="K4" t="n">
-        <v>3.85</v>
-      </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P4" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="R4" t="n">
         <v>1.39</v>
       </c>
       <c r="S4" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T4" t="n">
         <v>1.82</v>
@@ -985,13 +985,13 @@
         <v>2.14</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X4" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y4" t="n">
         <v>15.5</v>
@@ -1009,19 +1009,19 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD4" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AE4" t="n">
         <v>55</v>
       </c>
       <c r="AF4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG4" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH4" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI4" t="n">
         <v>60</v>
@@ -1030,19 +1030,19 @@
         <v>23</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL4" t="n">
         <v>36</v>
       </c>
       <c r="AM4" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN4" t="n">
         <v>13.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
@@ -1078,19 +1078,19 @@
         <v>1.36</v>
       </c>
       <c r="H5" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="I5" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="J5" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="K5" t="n">
         <v>5.7</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
@@ -1102,7 +1102,7 @@
         <v>1.32</v>
       </c>
       <c r="P5" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="n">
         <v>1.96</v>
@@ -1120,64 +1120,64 @@
         <v>1.64</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="X5" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y5" t="n">
         <v>34</v>
       </c>
       <c r="Z5" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>740</v>
       </c>
       <c r="AB5" t="n">
         <v>6.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD5" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AE5" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="AF5" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AG5" t="n">
         <v>11</v>
       </c>
       <c r="AH5" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK5" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL5" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM5" t="n">
-        <v>350</v>
+        <v>290</v>
       </c>
       <c r="AN5" t="n">
         <v>6.8</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6">
@@ -1213,10 +1213,10 @@
         <v>3.15</v>
       </c>
       <c r="H6" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="I6" t="n">
-        <v>3.05</v>
+        <v>2.82</v>
       </c>
       <c r="J6" t="n">
         <v>3.35</v>
@@ -1225,16 +1225,16 @@
         <v>3.95</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P6" t="n">
         <v>1.98</v>
@@ -1243,76 +1243,76 @@
         <v>1.82</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1351,7 +1351,7 @@
         <v>5.4</v>
       </c>
       <c r="I7" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="J7" t="n">
         <v>4.2</v>
@@ -1360,7 +1360,7 @@
         <v>5</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
@@ -1381,7 +1381,7 @@
         <v>1.43</v>
       </c>
       <c r="S7" t="n">
-        <v>2.6</v>
+        <v>2.84</v>
       </c>
       <c r="T7" t="n">
         <v>1.81</v>
@@ -1390,10 +1390,10 @@
         <v>1.99</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="X7" t="n">
         <v>23</v>
@@ -1486,10 +1486,10 @@
         <v>1.27</v>
       </c>
       <c r="I8" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="J8" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="K8" t="n">
         <v>7.8</v>
@@ -1519,7 +1519,7 @@
         <v>1.73</v>
       </c>
       <c r="T8" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U8" t="n">
         <v>2.5</v>
@@ -1576,7 +1576,7 @@
         <v>85</v>
       </c>
       <c r="AM8" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN8" t="n">
         <v>100</v>
@@ -1621,7 +1621,7 @@
         <v>4.1</v>
       </c>
       <c r="I9" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J9" t="n">
         <v>4.1</v>
@@ -1645,13 +1645,13 @@
         <v>2.48</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="R9" t="n">
         <v>1.59</v>
       </c>
       <c r="S9" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="T9" t="n">
         <v>1.63</v>
@@ -1681,7 +1681,7 @@
         <v>12.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD9" t="n">
         <v>17</v>
@@ -1750,10 +1750,10 @@
         <v>1.8</v>
       </c>
       <c r="G10" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="H10" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="I10" t="n">
         <v>4.9</v>
@@ -1888,7 +1888,7 @@
         <v>1.16</v>
       </c>
       <c r="H11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I11" t="n">
         <v>30</v>
@@ -1897,7 +1897,7 @@
         <v>9.6</v>
       </c>
       <c r="K11" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1918,13 +1918,13 @@
         <v>1.57</v>
       </c>
       <c r="R11" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="S11" t="n">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="T11" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="U11" t="n">
         <v>1.52</v>
@@ -1942,7 +1942,7 @@
         <v>70</v>
       </c>
       <c r="Z11" t="n">
-        <v>310</v>
+        <v>410</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
@@ -1951,7 +1951,7 @@
         <v>9.4</v>
       </c>
       <c r="AC11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AD11" t="n">
         <v>100</v>
@@ -1963,10 +1963,10 @@
         <v>7</v>
       </c>
       <c r="AG11" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI11" t="n">
         <v>490</v>
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="G12" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="H12" t="n">
         <v>8.800000000000001</v>
@@ -2029,10 +2029,10 @@
         <v>9.4</v>
       </c>
       <c r="J12" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="K12" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2155,13 +2155,13 @@
         <v>6.8</v>
       </c>
       <c r="G13" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="H13" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="I13" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="J13" t="n">
         <v>4.7</v>
@@ -2287,13 +2287,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="G14" t="n">
         <v>1.5</v>
       </c>
       <c r="H14" t="n">
-        <v>1.04</v>
+        <v>7.4</v>
       </c>
       <c r="I14" t="n">
         <v>16</v>
@@ -2302,7 +2302,7 @@
         <v>4.5</v>
       </c>
       <c r="K14" t="n">
-        <v>980</v>
+        <v>10</v>
       </c>
       <c r="L14" t="n">
         <v>1.01</v>
@@ -2311,28 +2311,28 @@
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>1.04</v>
+        <v>2.16</v>
       </c>
       <c r="O14" t="n">
         <v>1.2</v>
       </c>
       <c r="P14" t="n">
-        <v>1.5</v>
+        <v>2.16</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.2</v>
+        <v>1.56</v>
       </c>
       <c r="R14" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S14" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="T14" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="U14" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="V14" t="n">
         <v>1.06</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO14"/>
+  <dimension ref="A1:AO16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -697,13 +697,13 @@
         <v>1.37</v>
       </c>
       <c r="P2" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q2" t="n">
         <v>2.08</v>
       </c>
       <c r="R2" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S2" t="n">
         <v>3.8</v>
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="F4" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G4" t="n">
         <v>1.99</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2</v>
       </c>
       <c r="H4" t="n">
         <v>4.2</v>
@@ -949,10 +949,10 @@
         <v>4.4</v>
       </c>
       <c r="J4" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K4" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L4" t="n">
         <v>1.36</v>
@@ -994,7 +994,7 @@
         <v>15</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Z4" t="n">
         <v>32</v>
@@ -1042,7 +1042,7 @@
         <v>13.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -1102,7 +1102,7 @@
         <v>1.32</v>
       </c>
       <c r="P5" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="Q5" t="n">
         <v>1.96</v>
@@ -1117,7 +1117,7 @@
         <v>2.46</v>
       </c>
       <c r="U5" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="V5" t="n">
         <v>1.08</v>
@@ -1144,7 +1144,7 @@
         <v>12</v>
       </c>
       <c r="AD5" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AE5" t="n">
         <v>300</v>
@@ -1156,10 +1156,10 @@
         <v>11</v>
       </c>
       <c r="AH5" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AI5" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
         <v>9.800000000000001</v>
@@ -1219,7 +1219,7 @@
         <v>2.82</v>
       </c>
       <c r="J6" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
         <v>3.95</v>
@@ -1252,7 +1252,7 @@
         <v>1.56</v>
       </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
         <v>1.54</v>
@@ -1294,7 +1294,7 @@
         <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
         <v>1000</v>
@@ -1351,7 +1351,7 @@
         <v>5.4</v>
       </c>
       <c r="I7" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="J7" t="n">
         <v>4.2</v>
@@ -1375,7 +1375,7 @@
         <v>2.16</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.73</v>
+        <v>1.64</v>
       </c>
       <c r="R7" t="n">
         <v>1.43</v>
@@ -1477,25 +1477,25 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="G8" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="H8" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="I8" t="n">
         <v>1.27</v>
       </c>
-      <c r="I8" t="n">
-        <v>1.28</v>
-      </c>
       <c r="J8" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="K8" t="n">
         <v>7.8</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="M8" t="n">
         <v>1.01</v>
@@ -1516,73 +1516,73 @@
         <v>2.3</v>
       </c>
       <c r="S8" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="T8" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="U8" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="X8" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Y8" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA8" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AC8" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AD8" t="n">
         <v>12</v>
       </c>
       <c r="AE8" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF8" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AH8" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ8" t="n">
-        <v>390</v>
+        <v>500</v>
       </c>
       <c r="AK8" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AL8" t="n">
         <v>85</v>
       </c>
       <c r="AM8" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AN8" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AO8" t="n">
-        <v>2.94</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="9">
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="G9" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="H9" t="n">
         <v>4.1</v>
@@ -1630,7 +1630,7 @@
         <v>4.2</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
@@ -1645,7 +1645,7 @@
         <v>2.48</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R9" t="n">
         <v>1.59</v>
@@ -1660,10 +1660,10 @@
         <v>2.48</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="X9" t="n">
         <v>23</v>
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="G10" t="n">
         <v>1.81</v>
       </c>
       <c r="H10" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="I10" t="n">
         <v>4.9</v>
@@ -1765,7 +1765,7 @@
         <v>4.3</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
@@ -1774,16 +1774,16 @@
         <v>5.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P10" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="R10" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="S10" t="n">
         <v>2.62</v>
@@ -1792,16 +1792,16 @@
         <v>1.66</v>
       </c>
       <c r="U10" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="X10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y10" t="n">
         <v>22</v>
@@ -1810,55 +1810,55 @@
         <v>40</v>
       </c>
       <c r="AA10" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AB10" t="n">
         <v>12</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>19.5</v>
       </c>
-      <c r="AE10" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>20</v>
-      </c>
       <c r="AK10" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM10" t="n">
         <v>75</v>
       </c>
       <c r="AN10" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO10" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,123 +1868,123 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.15</v>
+        <v>2.14</v>
       </c>
       <c r="G11" t="n">
-        <v>1.16</v>
+        <v>2.3</v>
       </c>
       <c r="H11" t="n">
-        <v>27</v>
+        <v>3.2</v>
       </c>
       <c r="I11" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK11" t="n">
         <v>30</v>
       </c>
-      <c r="J11" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="K11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N11" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>70</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>410</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>100</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>65</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>490</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AK11" t="n">
+      <c r="AL11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN11" t="n">
         <v>16</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>500</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>3.4</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -1993,7 +1993,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="G12" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="H12" t="n">
-        <v>8.800000000000001</v>
+        <v>7</v>
       </c>
       <c r="I12" t="n">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="J12" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="P12" t="n">
-        <v>2</v>
+        <v>2.46</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,255 +2143,525 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>6.8</v>
+        <v>1.15</v>
       </c>
       <c r="G13" t="n">
-        <v>7.6</v>
+        <v>1.16</v>
       </c>
       <c r="H13" t="n">
-        <v>1.5</v>
+        <v>27</v>
       </c>
       <c r="I13" t="n">
-        <v>1.53</v>
+        <v>30</v>
       </c>
       <c r="J13" t="n">
-        <v>4.7</v>
+        <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>5.2</v>
+        <v>10.5</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>5</v>
+        <v>5.9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P13" t="n">
-        <v>2.38</v>
+        <v>2.7</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R13" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="S13" t="n">
-        <v>2.52</v>
+        <v>2.4</v>
       </c>
       <c r="T13" t="n">
-        <v>1.79</v>
+        <v>2.82</v>
       </c>
       <c r="U13" t="n">
-        <v>2.06</v>
+        <v>1.51</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="X13" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Y13" t="n">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="Z13" t="n">
-        <v>11</v>
+        <v>400</v>
       </c>
       <c r="AA13" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>32</v>
+        <v>9.4</v>
       </c>
       <c r="AC13" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AD13" t="n">
-        <v>12.5</v>
+        <v>110</v>
       </c>
       <c r="AE13" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="AG13" t="n">
-        <v>27</v>
+        <v>14.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="AI13" t="n">
-        <v>32</v>
+        <v>490</v>
       </c>
       <c r="AJ13" t="n">
-        <v>200</v>
+        <v>7.4</v>
       </c>
       <c r="AK13" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="AL13" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AM13" t="n">
-        <v>120</v>
+        <v>500</v>
       </c>
       <c r="AN13" t="n">
-        <v>95</v>
+        <v>3.35</v>
       </c>
       <c r="AO13" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>Scottish Premiership</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2026-01-14</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Hearts</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>St Mirren</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="H14" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="I14" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K14" t="n">
+        <v>5</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W14" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="X14" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>350</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>160</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Scottish Premiership</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2026-01-14</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Falkirk</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G15" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K15" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N15" t="n">
+        <v>5</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="X15" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>27</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>200</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>95</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>Mexican Liga MX</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>2026-01-14</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>20:00:00</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Cruz Azul</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>Atlas</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="F16" t="n">
         <v>1.31</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G16" t="n">
         <v>1.5</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H16" t="n">
         <v>7.4</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I16" t="n">
         <v>16</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J16" t="n">
         <v>4.5</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K16" t="n">
         <v>10</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L16" t="n">
         <v>1.01</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M16" t="n">
         <v>1.01</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N16" t="n">
         <v>2.16</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O16" t="n">
         <v>1.2</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P16" t="n">
         <v>2.16</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q16" t="n">
         <v>1.56</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R16" t="n">
         <v>1.52</v>
       </c>
-      <c r="S14" t="n">
+      <c r="S16" t="n">
         <v>2.32</v>
       </c>
-      <c r="T14" t="n">
+      <c r="T16" t="n">
         <v>1.9</v>
       </c>
-      <c r="U14" t="n">
+      <c r="U16" t="n">
         <v>1.94</v>
       </c>
-      <c r="V14" t="n">
+      <c r="V16" t="n">
         <v>1.06</v>
       </c>
-      <c r="W14" t="n">
+      <c r="W16" t="n">
         <v>2.96</v>
       </c>
-      <c r="X14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO14" t="n">
+      <c r="X16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO16" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-14.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="G2" t="n">
         <v>4.4</v>
       </c>
       <c r="H2" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="I2" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="J2" t="n">
         <v>3.35</v>
@@ -691,13 +691,13 @@
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O2" t="n">
         <v>1.37</v>
       </c>
       <c r="P2" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="Q2" t="n">
         <v>2.08</v>
@@ -715,31 +715,31 @@
         <v>2.02</v>
       </c>
       <c r="V2" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="W2" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X2" t="n">
         <v>13</v>
       </c>
       <c r="Y2" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC2" t="n">
         <v>9</v>
       </c>
-      <c r="Z2" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>970</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE2" t="n">
         <v>29</v>
@@ -751,10 +751,10 @@
         <v>21</v>
       </c>
       <c r="AH2" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AI2" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="G3" t="n">
         <v>1.6</v>
@@ -844,7 +844,7 @@
         <v>2.78</v>
       </c>
       <c r="T3" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="U3" t="n">
         <v>1.7</v>
@@ -859,7 +859,7 @@
         <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -874,7 +874,7 @@
         <v>15.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
@@ -886,7 +886,7 @@
         <v>15</v>
       </c>
       <c r="AH3" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -895,7 +895,7 @@
         <v>19</v>
       </c>
       <c r="AK3" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -979,7 +979,7 @@
         <v>3.4</v>
       </c>
       <c r="T4" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="U4" t="n">
         <v>2.14</v>
@@ -1042,7 +1042,7 @@
         <v>13.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
@@ -1075,10 +1075,10 @@
         <v>1.34</v>
       </c>
       <c r="G5" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="H5" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="I5" t="n">
         <v>13.5</v>
@@ -1102,7 +1102,7 @@
         <v>1.32</v>
       </c>
       <c r="P5" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="n">
         <v>1.96</v>
@@ -1114,16 +1114,16 @@
         <v>3.5</v>
       </c>
       <c r="T5" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="U5" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="V5" t="n">
         <v>1.08</v>
       </c>
       <c r="W5" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="X5" t="n">
         <v>16</v>
@@ -1135,7 +1135,7 @@
         <v>120</v>
       </c>
       <c r="AA5" t="n">
-        <v>740</v>
+        <v>590</v>
       </c>
       <c r="AB5" t="n">
         <v>6.8</v>
@@ -1147,7 +1147,7 @@
         <v>50</v>
       </c>
       <c r="AE5" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="AF5" t="n">
         <v>6.8</v>
@@ -1162,7 +1162,7 @@
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AK5" t="n">
         <v>16</v>
@@ -1177,7 +1177,7 @@
         <v>6.8</v>
       </c>
       <c r="AO5" t="n">
-        <v>500</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6">
@@ -1222,7 +1222,7 @@
         <v>3.4</v>
       </c>
       <c r="K6" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1249,7 +1249,7 @@
         <v>2.74</v>
       </c>
       <c r="T6" t="n">
-        <v>1.56</v>
+        <v>1.01</v>
       </c>
       <c r="U6" t="n">
         <v>2</v>
@@ -1357,7 +1357,7 @@
         <v>4.2</v>
       </c>
       <c r="K7" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1375,7 +1375,7 @@
         <v>2.16</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="R7" t="n">
         <v>1.43</v>
@@ -1477,31 +1477,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="G8" t="n">
         <v>12.5</v>
       </c>
       <c r="H8" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="I8" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="J8" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="K8" t="n">
         <v>7.8</v>
       </c>
       <c r="L8" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="M8" t="n">
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
         <v>1.09</v>
@@ -1510,7 +1510,7 @@
         <v>4.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="R8" t="n">
         <v>2.3</v>
@@ -1525,10 +1525,10 @@
         <v>2.44</v>
       </c>
       <c r="V8" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="W8" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="X8" t="n">
         <v>60</v>
@@ -1555,7 +1555,7 @@
         <v>12</v>
       </c>
       <c r="AF8" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AG8" t="n">
         <v>46</v>
@@ -1570,16 +1570,16 @@
         <v>500</v>
       </c>
       <c r="AK8" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AL8" t="n">
         <v>85</v>
       </c>
       <c r="AM8" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN8" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AO8" t="n">
         <v>2.86</v>
@@ -1636,7 +1636,7 @@
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O9" t="n">
         <v>1.21</v>
@@ -1645,13 +1645,13 @@
         <v>2.48</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R9" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S9" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="T9" t="n">
         <v>1.63</v>
@@ -1681,7 +1681,7 @@
         <v>12.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD9" t="n">
         <v>17</v>
@@ -1690,7 +1690,7 @@
         <v>42</v>
       </c>
       <c r="AF9" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG9" t="n">
         <v>11</v>
@@ -1765,7 +1765,7 @@
         <v>4.3</v>
       </c>
       <c r="L10" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
@@ -1777,7 +1777,7 @@
         <v>1.21</v>
       </c>
       <c r="P10" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q10" t="n">
         <v>1.65</v>
@@ -1786,7 +1786,7 @@
         <v>1.59</v>
       </c>
       <c r="S10" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="T10" t="n">
         <v>1.66</v>
@@ -2020,19 +2020,19 @@
         <v>1.48</v>
       </c>
       <c r="G12" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="I12" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
@@ -2041,7 +2041,7 @@
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>2.46</v>
+        <v>1.03</v>
       </c>
       <c r="O12" t="n">
         <v>1.18</v>
@@ -2065,16 +2065,16 @@
         <v>1.79</v>
       </c>
       <c r="V12" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W12" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="Z12" t="n">
         <v>95</v>
@@ -2089,7 +2089,7 @@
         <v>17</v>
       </c>
       <c r="AD12" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
@@ -2113,7 +2113,7 @@
         <v>21</v>
       </c>
       <c r="AL12" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
@@ -2158,10 +2158,10 @@
         <v>1.16</v>
       </c>
       <c r="H13" t="n">
+        <v>26</v>
+      </c>
+      <c r="I13" t="n">
         <v>27</v>
-      </c>
-      <c r="I13" t="n">
-        <v>30</v>
       </c>
       <c r="J13" t="n">
         <v>10</v>
@@ -2182,10 +2182,10 @@
         <v>1.18</v>
       </c>
       <c r="P13" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="R13" t="n">
         <v>1.67</v>
@@ -2212,13 +2212,13 @@
         <v>75</v>
       </c>
       <c r="Z13" t="n">
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="AA13" t="n">
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC13" t="n">
         <v>23</v>
@@ -2296,7 +2296,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="J14" t="n">
         <v>4.8</v>
@@ -2362,7 +2362,7 @@
         <v>36</v>
       </c>
       <c r="AE14" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AF14" t="n">
         <v>8</v>
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="G15" t="n">
         <v>7.6</v>
       </c>
       <c r="H15" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="I15" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="J15" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="K15" t="n">
         <v>5.2</v>
@@ -2452,10 +2452,10 @@
         <v>1.2</v>
       </c>
       <c r="P15" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="R15" t="n">
         <v>1.55</v>
@@ -2470,7 +2470,7 @@
         <v>2.06</v>
       </c>
       <c r="V15" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="W15" t="n">
         <v>1.15</v>
@@ -2512,13 +2512,13 @@
         <v>30</v>
       </c>
       <c r="AJ15" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AK15" t="n">
         <v>100</v>
       </c>
       <c r="AL15" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AM15" t="n">
         <v>110</v>
@@ -2527,7 +2527,7 @@
         <v>95</v>
       </c>
       <c r="AO15" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="16">
@@ -2563,7 +2563,7 @@
         <v>1.5</v>
       </c>
       <c r="H16" t="n">
-        <v>7.4</v>
+        <v>1.04</v>
       </c>
       <c r="I16" t="n">
         <v>16</v>
@@ -2572,7 +2572,7 @@
         <v>4.5</v>
       </c>
       <c r="K16" t="n">
-        <v>10</v>
+        <v>980</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2608,7 +2608,7 @@
         <v>1.06</v>
       </c>
       <c r="W16" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-14.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
         <v>4.4</v>
@@ -676,7 +676,7 @@
         <v>2.06</v>
       </c>
       <c r="I2" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="J2" t="n">
         <v>3.35</v>
@@ -691,7 +691,7 @@
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O2" t="n">
         <v>1.37</v>
@@ -703,7 +703,7 @@
         <v>2.08</v>
       </c>
       <c r="R2" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S2" t="n">
         <v>3.8</v>
@@ -712,22 +712,22 @@
         <v>1.85</v>
       </c>
       <c r="U2" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="W2" t="n">
         <v>1.29</v>
       </c>
       <c r="X2" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="Y2" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Z2" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AA2" t="n">
         <v>980</v>
@@ -736,19 +736,19 @@
         <v>14.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AF2" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AH2" t="n">
         <v>970</v>
@@ -760,7 +760,7 @@
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AL2" t="n">
         <v>65</v>
@@ -772,7 +772,7 @@
         <v>65</v>
       </c>
       <c r="AO2" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="G3" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="H3" t="n">
-        <v>7.4</v>
+        <v>5.4</v>
       </c>
       <c r="I3" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="J3" t="n">
         <v>4.2</v>
       </c>
       <c r="K3" t="n">
-        <v>5.2</v>
+        <v>980</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -826,40 +826,40 @@
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="O3" t="n">
         <v>1.28</v>
       </c>
       <c r="P3" t="n">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="R3" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="S3" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="T3" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="U3" t="n">
         <v>1.7</v>
       </c>
       <c r="V3" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="W3" t="n">
-        <v>2.66</v>
+        <v>2.52</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -868,34 +868,34 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -958,7 +958,7 @@
         <v>1.36</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
         <v>4</v>
@@ -970,7 +970,7 @@
         <v>2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="R4" t="n">
         <v>1.39</v>
@@ -1003,7 +1003,7 @@
         <v>90</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC4" t="n">
         <v>8.199999999999999</v>
@@ -1036,10 +1036,10 @@
         <v>36</v>
       </c>
       <c r="AM4" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN4" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AO4" t="n">
         <v>55</v>
@@ -1102,7 +1102,7 @@
         <v>1.32</v>
       </c>
       <c r="P5" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="Q5" t="n">
         <v>1.96</v>
@@ -1138,7 +1138,7 @@
         <v>590</v>
       </c>
       <c r="AB5" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AC5" t="n">
         <v>12</v>
@@ -1159,7 +1159,7 @@
         <v>40</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AJ5" t="n">
         <v>9.6</v>
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.7</v>
+        <v>2.46</v>
       </c>
       <c r="G6" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I6" t="n">
         <v>3.15</v>
       </c>
-      <c r="H6" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.82</v>
-      </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K6" t="n">
         <v>3.9</v>
@@ -1243,55 +1243,55 @@
         <v>1.82</v>
       </c>
       <c r="R6" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="S6" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="U6" t="n">
         <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
       <c r="W6" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
@@ -1300,7 +1300,7 @@
         <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
         <v>1000</v>
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="G7" t="n">
-        <v>1.71</v>
+        <v>1.82</v>
       </c>
       <c r="H7" t="n">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="I7" t="n">
         <v>7.4</v>
       </c>
       <c r="J7" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
         <v>4.9</v>
@@ -1375,7 +1375,7 @@
         <v>2.16</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="R7" t="n">
         <v>1.43</v>
@@ -1390,7 +1390,7 @@
         <v>1.99</v>
       </c>
       <c r="V7" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="W7" t="n">
         <v>2.4</v>
@@ -1525,7 +1525,7 @@
         <v>2.44</v>
       </c>
       <c r="V8" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="W8" t="n">
         <v>1.09</v>
@@ -1543,7 +1543,7 @@
         <v>12.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AC8" t="n">
         <v>19.5</v>
@@ -1558,7 +1558,7 @@
         <v>140</v>
       </c>
       <c r="AG8" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AH8" t="n">
         <v>25</v>
@@ -1567,7 +1567,7 @@
         <v>24</v>
       </c>
       <c r="AJ8" t="n">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="AK8" t="n">
         <v>130</v>
@@ -1615,7 +1615,7 @@
         <v>1.92</v>
       </c>
       <c r="G9" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="H9" t="n">
         <v>4.1</v>
@@ -1636,7 +1636,7 @@
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O9" t="n">
         <v>1.21</v>
@@ -1657,16 +1657,16 @@
         <v>1.63</v>
       </c>
       <c r="U9" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="V9" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W9" t="n">
         <v>2.06</v>
       </c>
       <c r="X9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y9" t="n">
         <v>21</v>
@@ -1675,16 +1675,16 @@
         <v>34</v>
       </c>
       <c r="AA9" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AB9" t="n">
         <v>12.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE9" t="n">
         <v>42</v>
@@ -1693,31 +1693,31 @@
         <v>14</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI9" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AJ9" t="n">
         <v>22</v>
       </c>
       <c r="AK9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL9" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AM9" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AN9" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO9" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -1750,7 +1750,7 @@
         <v>1.79</v>
       </c>
       <c r="G10" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="H10" t="n">
         <v>4.8</v>
@@ -1810,7 +1810,7 @@
         <v>40</v>
       </c>
       <c r="AA10" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AB10" t="n">
         <v>12</v>
@@ -1846,7 +1846,7 @@
         <v>28</v>
       </c>
       <c r="AM10" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN10" t="n">
         <v>8.199999999999999</v>
@@ -1912,22 +1912,22 @@
         <v>1.19</v>
       </c>
       <c r="P11" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q11" t="n">
         <v>1.61</v>
       </c>
       <c r="R11" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="S11" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="T11" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="U11" t="n">
-        <v>2.02</v>
+        <v>2.28</v>
       </c>
       <c r="V11" t="n">
         <v>1.4</v>
@@ -1939,52 +1939,52 @@
         <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
         <v>1000</v>
@@ -2020,7 +2020,7 @@
         <v>1.48</v>
       </c>
       <c r="G12" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="H12" t="n">
         <v>6.8</v>
@@ -2041,10 +2041,10 @@
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>1.03</v>
+        <v>5.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P12" t="n">
         <v>2.46</v>
@@ -2053,76 +2053,76 @@
         <v>1.62</v>
       </c>
       <c r="R12" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="S12" t="n">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
       <c r="T12" t="n">
-        <v>1.51</v>
+        <v>1.72</v>
       </c>
       <c r="U12" t="n">
-        <v>1.79</v>
+        <v>2.1</v>
       </c>
       <c r="V12" t="n">
         <v>1.15</v>
       </c>
       <c r="W12" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Y12" t="n">
         <v>970</v>
       </c>
       <c r="Z12" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AB12" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AD12" t="n">
         <v>970</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF12" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AH12" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="AI12" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ12" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AK12" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AL12" t="n">
         <v>970</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN12" t="n">
-        <v>8.199999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
@@ -2176,19 +2176,19 @@
         <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="O13" t="n">
         <v>1.18</v>
       </c>
       <c r="P13" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="Q13" t="n">
         <v>1.56</v>
       </c>
       <c r="R13" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="S13" t="n">
         <v>2.4</v>
@@ -2233,28 +2233,28 @@
         <v>7</v>
       </c>
       <c r="AG13" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AI13" t="n">
-        <v>490</v>
+        <v>520</v>
       </c>
       <c r="AJ13" t="n">
         <v>7.4</v>
       </c>
       <c r="AK13" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AL13" t="n">
         <v>70</v>
       </c>
       <c r="AM13" t="n">
-        <v>500</v>
+        <v>580</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="G14" t="n">
         <v>1.46</v>
@@ -2344,7 +2344,7 @@
         <v>17.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Z14" t="n">
         <v>80</v>
@@ -2377,7 +2377,7 @@
         <v>170</v>
       </c>
       <c r="AJ14" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AK14" t="n">
         <v>16</v>
@@ -2461,7 +2461,7 @@
         <v>1.55</v>
       </c>
       <c r="S15" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="T15" t="n">
         <v>1.79</v>
@@ -2476,16 +2476,16 @@
         <v>1.15</v>
       </c>
       <c r="X15" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Y15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z15" t="n">
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB15" t="n">
         <v>32</v>
@@ -2494,10 +2494,10 @@
         <v>12</v>
       </c>
       <c r="AD15" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF15" t="n">
         <v>65</v>
@@ -2512,13 +2512,13 @@
         <v>30</v>
       </c>
       <c r="AJ15" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AK15" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AL15" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AM15" t="n">
         <v>110</v>
@@ -2527,7 +2527,7 @@
         <v>95</v>
       </c>
       <c r="AO15" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="16">
@@ -2557,19 +2557,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="G16" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="H16" t="n">
         <v>1.04</v>
       </c>
       <c r="I16" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="J16" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="K16" t="n">
         <v>980</v>
@@ -2581,34 +2581,34 @@
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>2.16</v>
+        <v>1.04</v>
       </c>
       <c r="O16" t="n">
         <v>1.2</v>
       </c>
       <c r="P16" t="n">
-        <v>2.16</v>
+        <v>1.45</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.56</v>
+        <v>1.2</v>
       </c>
       <c r="R16" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="S16" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="T16" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U16" t="n">
         <v>1.94</v>
       </c>
       <c r="V16" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="W16" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO16"/>
+  <dimension ref="A1:AO18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="G2" t="n">
         <v>4.4</v>
       </c>
       <c r="H2" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="I2" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="J2" t="n">
         <v>3.35</v>
@@ -697,13 +697,13 @@
         <v>1.37</v>
       </c>
       <c r="P2" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="Q2" t="n">
         <v>2.08</v>
       </c>
       <c r="R2" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S2" t="n">
         <v>3.8</v>
@@ -712,13 +712,13 @@
         <v>1.85</v>
       </c>
       <c r="U2" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="W2" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X2" t="n">
         <v>970</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="G3" t="n">
         <v>1.65</v>
@@ -811,13 +811,13 @@
         <v>5.4</v>
       </c>
       <c r="I3" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="J3" t="n">
         <v>4.2</v>
       </c>
       <c r="K3" t="n">
-        <v>980</v>
+        <v>7.2</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -826,7 +826,7 @@
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>1.89</v>
+        <v>2.88</v>
       </c>
       <c r="O3" t="n">
         <v>1.28</v>
@@ -841,25 +841,25 @@
         <v>1.33</v>
       </c>
       <c r="S3" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="T3" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="U3" t="n">
         <v>1.7</v>
       </c>
       <c r="V3" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="W3" t="n">
         <v>2.52</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -874,7 +874,7 @@
         <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
@@ -886,7 +886,7 @@
         <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -955,7 +955,7 @@
         <v>3.85</v>
       </c>
       <c r="L4" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
@@ -964,19 +964,19 @@
         <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P4" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="R4" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S4" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T4" t="n">
         <v>1.83</v>
@@ -1018,7 +1018,7 @@
         <v>12</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH4" t="n">
         <v>18.5</v>
@@ -1030,7 +1030,7 @@
         <v>23</v>
       </c>
       <c r="AK4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
         <v>36</v>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="G6" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="H6" t="n">
         <v>2.5</v>
@@ -1240,7 +1240,7 @@
         <v>1.98</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R6" t="n">
         <v>1.34</v>
@@ -1255,10 +1255,10 @@
         <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W6" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="G7" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="H7" t="n">
         <v>4.7</v>
       </c>
       <c r="I7" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="J7" t="n">
         <v>4</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="F8" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H8" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="X8" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>970</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>230</v>
+      </c>
+      <c r="AB8" t="n">
         <v>11.5</v>
       </c>
-      <c r="G8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="J8" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="K8" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N8" t="n">
-        <v>11</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="V8" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="X8" t="n">
-        <v>60</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AB8" t="n">
+      <c r="AC8" t="n">
+        <v>970</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI8" t="n">
         <v>80</v>
       </c>
-      <c r="AC8" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>140</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>42</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>24</v>
-      </c>
       <c r="AJ8" t="n">
-        <v>480</v>
+        <v>970</v>
       </c>
       <c r="AK8" t="n">
-        <v>130</v>
+        <v>970</v>
       </c>
       <c r="AL8" t="n">
-        <v>85</v>
+        <v>970</v>
       </c>
       <c r="AM8" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AN8" t="n">
-        <v>80</v>
+        <v>6.4</v>
       </c>
       <c r="AO8" t="n">
-        <v>2.86</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,121 +1603,121 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Mgladbach</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.92</v>
+        <v>2.14</v>
       </c>
       <c r="G9" t="n">
-        <v>1.93</v>
+        <v>2.3</v>
       </c>
       <c r="H9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K9" t="n">
         <v>4.1</v>
       </c>
-      <c r="I9" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4.2</v>
-      </c>
       <c r="L9" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>5.3</v>
+        <v>2.42</v>
       </c>
       <c r="O9" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="P9" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="R9" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="S9" t="n">
-        <v>2.56</v>
+        <v>2.26</v>
       </c>
       <c r="T9" t="n">
-        <v>1.63</v>
+        <v>1.46</v>
       </c>
       <c r="U9" t="n">
-        <v>2.5</v>
+        <v>2.28</v>
       </c>
       <c r="V9" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="W9" t="n">
-        <v>2.06</v>
+        <v>1.79</v>
       </c>
       <c r="X9" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1777,10 +1777,10 @@
         <v>1.21</v>
       </c>
       <c r="P10" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="R10" t="n">
         <v>1.59</v>
@@ -1813,7 +1813,7 @@
         <v>100</v>
       </c>
       <c r="AB10" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC10" t="n">
         <v>9.6</v>
@@ -1849,7 +1849,7 @@
         <v>70</v>
       </c>
       <c r="AN10" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AO10" t="n">
         <v>42</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Mgladbach</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.14</v>
+        <v>1.92</v>
       </c>
       <c r="G11" t="n">
-        <v>2.3</v>
+        <v>1.93</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="I11" t="n">
-        <v>3.55</v>
+        <v>4.3</v>
       </c>
       <c r="J11" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="K11" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>2.42</v>
+        <v>5.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P11" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="R11" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="S11" t="n">
-        <v>2.26</v>
+        <v>2.58</v>
       </c>
       <c r="T11" t="n">
-        <v>1.45</v>
+        <v>1.63</v>
       </c>
       <c r="U11" t="n">
-        <v>2.28</v>
+        <v>2.52</v>
       </c>
       <c r="V11" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="W11" t="n">
-        <v>1.79</v>
+        <v>2.06</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sion</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.48</v>
+        <v>11.5</v>
       </c>
       <c r="G12" t="n">
-        <v>1.53</v>
+        <v>12.5</v>
       </c>
       <c r="H12" t="n">
-        <v>6.8</v>
+        <v>1.26</v>
       </c>
       <c r="I12" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="J12" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="K12" t="n">
         <v>7.8</v>
       </c>
-      <c r="J12" t="n">
-        <v>5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>5.3</v>
-      </c>
       <c r="L12" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="M12" t="n">
         <v>1.01</v>
       </c>
-      <c r="M12" t="n">
-        <v>1.04</v>
-      </c>
       <c r="N12" t="n">
-        <v>5.3</v>
+        <v>11</v>
       </c>
       <c r="O12" t="n">
-        <v>1.19</v>
+        <v>1.09</v>
       </c>
       <c r="P12" t="n">
-        <v>2.46</v>
+        <v>4.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.62</v>
+        <v>1.28</v>
       </c>
       <c r="R12" t="n">
-        <v>1.58</v>
+        <v>2.3</v>
       </c>
       <c r="S12" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U12" t="n">
         <v>2.44</v>
       </c>
-      <c r="T12" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.1</v>
-      </c>
       <c r="V12" t="n">
-        <v>1.15</v>
+        <v>4.7</v>
       </c>
       <c r="W12" t="n">
-        <v>2.9</v>
+        <v>1.09</v>
       </c>
       <c r="X12" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="Y12" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="AA12" t="n">
-        <v>230</v>
+        <v>12.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>11.5</v>
+        <v>75</v>
       </c>
       <c r="AC12" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AE12" t="n">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="AF12" t="n">
-        <v>970</v>
+        <v>140</v>
       </c>
       <c r="AG12" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="AH12" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="AI12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>480</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>130</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN12" t="n">
         <v>80</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>970</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>970</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>970</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>6.4</v>
-      </c>
       <c r="AO12" t="n">
-        <v>110</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="13">
@@ -2188,7 +2188,7 @@
         <v>1.56</v>
       </c>
       <c r="R13" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="S13" t="n">
         <v>2.4</v>
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="G14" t="n">
         <v>1.44</v>
       </c>
-      <c r="G14" t="n">
-        <v>1.46</v>
-      </c>
       <c r="H14" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="I14" t="n">
         <v>10</v>
       </c>
       <c r="J14" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="K14" t="n">
         <v>5</v>
@@ -2311,7 +2311,7 @@
         <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="O14" t="n">
         <v>1.29</v>
@@ -2338,7 +2338,7 @@
         <v>1.11</v>
       </c>
       <c r="W14" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="X14" t="n">
         <v>17.5</v>
@@ -2347,10 +2347,10 @@
         <v>29</v>
       </c>
       <c r="Z14" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AA14" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
         <v>7.8</v>
@@ -2383,10 +2383,10 @@
         <v>16</v>
       </c>
       <c r="AL14" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AM14" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AN14" t="n">
         <v>7.6</v>
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="G15" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="H15" t="n">
         <v>1.48</v>
@@ -2440,7 +2440,7 @@
         <v>5.2</v>
       </c>
       <c r="L15" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M15" t="n">
         <v>1.04</v>
@@ -2473,7 +2473,7 @@
         <v>3</v>
       </c>
       <c r="W15" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="X15" t="n">
         <v>24</v>
@@ -2500,10 +2500,10 @@
         <v>15</v>
       </c>
       <c r="AF15" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AG15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH15" t="n">
         <v>23</v>
@@ -2515,16 +2515,16 @@
         <v>190</v>
       </c>
       <c r="AK15" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AL15" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AM15" t="n">
         <v>110</v>
       </c>
       <c r="AN15" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AO15" t="n">
         <v>6.2</v>
@@ -2557,28 +2557,28 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
       <c r="G16" t="n">
         <v>1.46</v>
       </c>
       <c r="H16" t="n">
-        <v>1.04</v>
+        <v>8</v>
       </c>
       <c r="I16" t="n">
-        <v>19.5</v>
+        <v>11.5</v>
       </c>
       <c r="J16" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K16" t="n">
-        <v>980</v>
+        <v>6</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
         <v>1.04</v>
@@ -2587,16 +2587,16 @@
         <v>1.2</v>
       </c>
       <c r="P16" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="Q16" t="n">
         <v>1.2</v>
       </c>
       <c r="R16" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S16" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="T16" t="n">
         <v>1.89</v>
@@ -2608,7 +2608,7 @@
         <v>1.05</v>
       </c>
       <c r="W16" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2662,6 +2662,276 @@
         <v>1000</v>
       </c>
       <c r="AO16" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2026-01-14</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Queretaro</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Tijuana</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X17" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2026-01-14</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>22:05:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>CF America</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Atletico San Luis</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I18" t="n">
+        <v>14</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K18" t="n">
+        <v>8</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N18" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="W18" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="X18" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>48</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>48</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AO18" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-14.xlsx
@@ -670,19 +670,19 @@
         <v>3.95</v>
       </c>
       <c r="G2" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="H2" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="I2" t="n">
         <v>2.16</v>
       </c>
       <c r="J2" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K2" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -697,7 +697,7 @@
         <v>1.37</v>
       </c>
       <c r="P2" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="Q2" t="n">
         <v>2.08</v>
@@ -718,7 +718,7 @@
         <v>1.86</v>
       </c>
       <c r="W2" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="X2" t="n">
         <v>970</v>
@@ -730,7 +730,7 @@
         <v>13</v>
       </c>
       <c r="AA2" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="AB2" t="n">
         <v>14.5</v>
@@ -742,7 +742,7 @@
         <v>11</v>
       </c>
       <c r="AE2" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AF2" t="n">
         <v>980</v>
@@ -772,7 +772,7 @@
         <v>65</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="3">
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="G3" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="H3" t="n">
         <v>5.4</v>
@@ -844,7 +844,7 @@
         <v>2.84</v>
       </c>
       <c r="T3" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U3" t="n">
         <v>1.7</v>
@@ -853,7 +853,7 @@
         <v>1.11</v>
       </c>
       <c r="W3" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="X3" t="n">
         <v>970</v>
@@ -964,7 +964,7 @@
         <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P4" t="n">
         <v>1.98</v>
@@ -976,7 +976,7 @@
         <v>1.38</v>
       </c>
       <c r="S4" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T4" t="n">
         <v>1.83</v>
@@ -1003,7 +1003,7 @@
         <v>90</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC4" t="n">
         <v>8.199999999999999</v>
@@ -1078,13 +1078,13 @@
         <v>1.35</v>
       </c>
       <c r="H5" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="I5" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="J5" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="K5" t="n">
         <v>5.7</v>
@@ -1120,7 +1120,7 @@
         <v>1.64</v>
       </c>
       <c r="V5" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W5" t="n">
         <v>3.85</v>
@@ -1147,7 +1147,7 @@
         <v>50</v>
       </c>
       <c r="AE5" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="AF5" t="n">
         <v>6.8</v>
@@ -1171,7 +1171,7 @@
         <v>55</v>
       </c>
       <c r="AM5" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="AN5" t="n">
         <v>6.8</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="G6" t="n">
         <v>3.25</v>
@@ -1216,7 +1216,7 @@
         <v>2.5</v>
       </c>
       <c r="I6" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
         <v>3.3</v>
@@ -1240,7 +1240,7 @@
         <v>1.98</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R6" t="n">
         <v>1.34</v>
@@ -1249,13 +1249,13 @@
         <v>2.8</v>
       </c>
       <c r="T6" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="V6" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="W6" t="n">
         <v>1.44</v>
@@ -1366,7 +1366,7 @@
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O7" t="n">
         <v>1.25</v>
@@ -1378,7 +1378,7 @@
         <v>1.65</v>
       </c>
       <c r="R7" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S7" t="n">
         <v>2.84</v>
@@ -1387,7 +1387,7 @@
         <v>1.81</v>
       </c>
       <c r="U7" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
         <v>1.16</v>
@@ -1501,7 +1501,7 @@
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O8" t="n">
         <v>1.19</v>
@@ -1522,7 +1522,7 @@
         <v>1.74</v>
       </c>
       <c r="U8" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="V8" t="n">
         <v>1.15</v>
@@ -1771,7 +1771,7 @@
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O10" t="n">
         <v>1.21</v>
@@ -1789,7 +1789,7 @@
         <v>2.58</v>
       </c>
       <c r="T10" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U10" t="n">
         <v>2.42</v>
@@ -1906,7 +1906,7 @@
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O11" t="n">
         <v>1.21</v>
@@ -1936,7 +1936,7 @@
         <v>2.06</v>
       </c>
       <c r="X11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y11" t="n">
         <v>21</v>
@@ -1984,7 +1984,7 @@
         <v>65</v>
       </c>
       <c r="AN11" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO11" t="n">
         <v>32</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="G12" t="n">
         <v>12.5</v>
@@ -2047,7 +2047,7 @@
         <v>1.09</v>
       </c>
       <c r="P12" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Q12" t="n">
         <v>1.28</v>
@@ -2056,10 +2056,10 @@
         <v>2.3</v>
       </c>
       <c r="S12" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="T12" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U12" t="n">
         <v>2.44</v>
@@ -2068,7 +2068,7 @@
         <v>4.7</v>
       </c>
       <c r="W12" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="X12" t="n">
         <v>60</v>
@@ -2095,7 +2095,7 @@
         <v>12</v>
       </c>
       <c r="AF12" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AG12" t="n">
         <v>44</v>
@@ -2158,10 +2158,10 @@
         <v>1.16</v>
       </c>
       <c r="H13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I13" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J13" t="n">
         <v>10</v>
@@ -2188,7 +2188,7 @@
         <v>1.56</v>
       </c>
       <c r="R13" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="S13" t="n">
         <v>2.4</v>
@@ -2203,7 +2203,7 @@
         <v>1.03</v>
       </c>
       <c r="W13" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="X13" t="n">
         <v>30</v>
@@ -2293,13 +2293,13 @@
         <v>1.44</v>
       </c>
       <c r="H14" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I14" t="n">
         <v>10</v>
       </c>
       <c r="J14" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="K14" t="n">
         <v>5</v>
@@ -2311,7 +2311,7 @@
         <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="O14" t="n">
         <v>1.29</v>
@@ -2320,19 +2320,19 @@
         <v>2</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="R14" t="n">
         <v>1.38</v>
       </c>
       <c r="S14" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="T14" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U14" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="V14" t="n">
         <v>1.11</v>
@@ -2341,10 +2341,10 @@
         <v>3.25</v>
       </c>
       <c r="X14" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>29</v>
+        <v>970</v>
       </c>
       <c r="Z14" t="n">
         <v>85</v>
@@ -2353,7 +2353,7 @@
         <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC14" t="n">
         <v>11</v>
@@ -2362,7 +2362,7 @@
         <v>36</v>
       </c>
       <c r="AE14" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="AF14" t="n">
         <v>8</v>
@@ -2383,7 +2383,7 @@
         <v>16</v>
       </c>
       <c r="AL14" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="AM14" t="n">
         <v>200</v>
@@ -2446,19 +2446,19 @@
         <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="O15" t="n">
         <v>1.2</v>
       </c>
       <c r="P15" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="R15" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S15" t="n">
         <v>2.5</v>
@@ -2467,7 +2467,7 @@
         <v>1.79</v>
       </c>
       <c r="U15" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V15" t="n">
         <v>3</v>
@@ -2488,7 +2488,7 @@
         <v>14</v>
       </c>
       <c r="AB15" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AC15" t="n">
         <v>12</v>
@@ -2506,7 +2506,7 @@
         <v>28</v>
       </c>
       <c r="AH15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI15" t="n">
         <v>30</v>
@@ -2524,7 +2524,7 @@
         <v>110</v>
       </c>
       <c r="AN15" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AO15" t="n">
         <v>6.2</v>
@@ -2557,28 +2557,28 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.37</v>
+        <v>1.04</v>
       </c>
       <c r="G16" t="n">
-        <v>1.46</v>
+        <v>1000</v>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>1.04</v>
       </c>
       <c r="I16" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="J16" t="n">
-        <v>5.1</v>
+        <v>1.01</v>
       </c>
       <c r="K16" t="n">
-        <v>6</v>
+        <v>980</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N16" t="n">
         <v>1.04</v>
@@ -2587,28 +2587,28 @@
         <v>1.2</v>
       </c>
       <c r="P16" t="n">
-        <v>1.46</v>
+        <v>1.25</v>
       </c>
       <c r="Q16" t="n">
         <v>1.2</v>
       </c>
       <c r="R16" t="n">
-        <v>1.46</v>
+        <v>1.2</v>
       </c>
       <c r="S16" t="n">
-        <v>2.36</v>
+        <v>1.59</v>
       </c>
       <c r="T16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U16" t="n">
         <v>1.89</v>
       </c>
-      <c r="U16" t="n">
-        <v>1.94</v>
-      </c>
       <c r="V16" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="W16" t="n">
-        <v>2.9</v>
+        <v>1.01</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2692,46 +2692,46 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.36</v>
+        <v>2.66</v>
       </c>
       <c r="G17" t="n">
-        <v>1000</v>
+        <v>2.98</v>
       </c>
       <c r="H17" t="n">
         <v>2.7</v>
       </c>
       <c r="I17" t="n">
-        <v>3.2</v>
+        <v>2.98</v>
       </c>
       <c r="J17" t="n">
-        <v>2.48</v>
+        <v>3.3</v>
       </c>
       <c r="K17" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>2</v>
+        <v>3.85</v>
       </c>
       <c r="O17" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="P17" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="Q17" t="n">
         <v>1.96</v>
       </c>
       <c r="R17" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="S17" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="T17" t="n">
         <v>1.58</v>
@@ -2740,10 +2740,10 @@
         <v>2</v>
       </c>
       <c r="V17" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="W17" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="X17" t="n">
         <v>19</v>
@@ -2833,16 +2833,16 @@
         <v>1.5</v>
       </c>
       <c r="H18" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="I18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J18" t="n">
         <v>4.8</v>
       </c>
       <c r="K18" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
@@ -2875,7 +2875,7 @@
         <v>1.8</v>
       </c>
       <c r="V18" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W18" t="n">
         <v>2.8</v>
@@ -2884,10 +2884,10 @@
         <v>34</v>
       </c>
       <c r="Y18" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AA18" t="n">
         <v>1000</v>
@@ -2896,22 +2896,22 @@
         <v>14.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AE18" t="n">
         <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
         <v>15</v>
       </c>
       <c r="AH18" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AI18" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-14.xlsx
@@ -667,25 +667,25 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="H2" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="I2" t="n">
         <v>2.1</v>
       </c>
-      <c r="I2" t="n">
-        <v>2.16</v>
-      </c>
       <c r="J2" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K2" t="n">
         <v>3.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
@@ -697,28 +697,28 @@
         <v>1.37</v>
       </c>
       <c r="P2" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S2" t="n">
         <v>3.8</v>
       </c>
       <c r="T2" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="U2" t="n">
         <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="W2" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="X2" t="n">
         <v>970</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="G3" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="H3" t="n">
-        <v>5.4</v>
+        <v>7.4</v>
       </c>
       <c r="I3" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K3" t="n">
-        <v>7.2</v>
+        <v>5.1</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -844,16 +844,16 @@
         <v>2.84</v>
       </c>
       <c r="T3" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U3" t="n">
         <v>1.7</v>
       </c>
       <c r="V3" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W3" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="X3" t="n">
         <v>970</v>
@@ -940,7 +940,7 @@
         <v>1.98</v>
       </c>
       <c r="G4" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
         <v>4.2</v>
@@ -955,7 +955,7 @@
         <v>3.85</v>
       </c>
       <c r="L4" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
@@ -964,16 +964,16 @@
         <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P4" t="n">
         <v>1.98</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="R4" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S4" t="n">
         <v>3.4</v>
@@ -1075,19 +1075,19 @@
         <v>1.34</v>
       </c>
       <c r="G5" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="H5" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="I5" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="J5" t="n">
         <v>5.5</v>
       </c>
       <c r="K5" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="L5" t="n">
         <v>1.38</v>
@@ -1120,16 +1120,16 @@
         <v>1.64</v>
       </c>
       <c r="V5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W5" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="X5" t="n">
         <v>16</v>
       </c>
       <c r="Y5" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Z5" t="n">
         <v>120</v>
@@ -1144,10 +1144,10 @@
         <v>12</v>
       </c>
       <c r="AD5" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AE5" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AF5" t="n">
         <v>6.8</v>
@@ -1171,7 +1171,7 @@
         <v>55</v>
       </c>
       <c r="AM5" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AN5" t="n">
         <v>6.8</v>
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="G6" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="H6" t="n">
         <v>2.5</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>2.72</v>
       </c>
       <c r="J6" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
         <v>3.9</v>
@@ -1231,88 +1231,88 @@
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>1.98</v>
+        <v>3.85</v>
       </c>
       <c r="O6" t="n">
         <v>1.3</v>
       </c>
       <c r="P6" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="Q6" t="n">
         <v>1.82</v>
       </c>
       <c r="R6" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="S6" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="T6" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="U6" t="n">
-        <v>1.94</v>
+        <v>2.22</v>
       </c>
       <c r="V6" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="W6" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
@@ -1342,64 +1342,64 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="G7" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="H7" t="n">
-        <v>4.7</v>
+        <v>5.6</v>
       </c>
       <c r="I7" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K7" t="n">
         <v>4.9</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P7" t="n">
         <v>2.16</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="R7" t="n">
         <v>1.44</v>
       </c>
       <c r="S7" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="T7" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V7" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W7" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="X7" t="n">
         <v>23</v>
       </c>
       <c r="Y7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
@@ -1408,43 +1408,43 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AD7" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AG7" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AK7" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1495,7 +1495,7 @@
         <v>5.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
@@ -1522,7 +1522,7 @@
         <v>1.74</v>
       </c>
       <c r="U8" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V8" t="n">
         <v>1.15</v>
@@ -1612,112 +1612,112 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="G9" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="H9" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="I9" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="J9" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K9" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>2.42</v>
+        <v>5.2</v>
       </c>
       <c r="O9" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P9" t="n">
         <v>2.42</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="R9" t="n">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="S9" t="n">
-        <v>2.26</v>
+        <v>2.48</v>
       </c>
       <c r="T9" t="n">
-        <v>1.46</v>
+        <v>1.56</v>
       </c>
       <c r="U9" t="n">
-        <v>2.28</v>
+        <v>2.56</v>
       </c>
       <c r="V9" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="W9" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
     </row>
     <row r="10">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="G10" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="H10" t="n">
         <v>4.8</v>
@@ -1759,13 +1759,13 @@
         <v>4.9</v>
       </c>
       <c r="J10" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K10" t="n">
         <v>4.2</v>
       </c>
-      <c r="K10" t="n">
-        <v>4.3</v>
-      </c>
       <c r="L10" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
@@ -1780,25 +1780,25 @@
         <v>2.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R10" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="S10" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="T10" t="n">
         <v>1.65</v>
       </c>
       <c r="U10" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="V10" t="n">
         <v>1.25</v>
       </c>
       <c r="W10" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="X10" t="n">
         <v>22</v>
@@ -1849,7 +1849,7 @@
         <v>70</v>
       </c>
       <c r="AN10" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO10" t="n">
         <v>42</v>
@@ -1900,25 +1900,25 @@
         <v>4.2</v>
       </c>
       <c r="L11" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O11" t="n">
         <v>1.21</v>
       </c>
       <c r="P11" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q11" t="n">
         <v>1.64</v>
       </c>
       <c r="R11" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S11" t="n">
         <v>2.58</v>
@@ -1945,10 +1945,10 @@
         <v>34</v>
       </c>
       <c r="AA11" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AB11" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC11" t="n">
         <v>9.6</v>
@@ -2035,7 +2035,7 @@
         <v>7.8</v>
       </c>
       <c r="L12" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="M12" t="n">
         <v>1.01</v>
@@ -2047,16 +2047,16 @@
         <v>1.09</v>
       </c>
       <c r="P12" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q12" t="n">
         <v>1.28</v>
       </c>
       <c r="R12" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="S12" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="T12" t="n">
         <v>1.65</v>
@@ -2092,7 +2092,7 @@
         <v>12</v>
       </c>
       <c r="AE12" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF12" t="n">
         <v>130</v>
@@ -2158,10 +2158,10 @@
         <v>1.16</v>
       </c>
       <c r="H13" t="n">
+        <v>27</v>
+      </c>
+      <c r="I13" t="n">
         <v>29</v>
-      </c>
-      <c r="I13" t="n">
-        <v>32</v>
       </c>
       <c r="J13" t="n">
         <v>10</v>
@@ -2203,7 +2203,7 @@
         <v>1.03</v>
       </c>
       <c r="W13" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="X13" t="n">
         <v>30</v>
@@ -2233,28 +2233,28 @@
         <v>7</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH13" t="n">
         <v>65</v>
       </c>
       <c r="AI13" t="n">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="AJ13" t="n">
         <v>7.4</v>
       </c>
       <c r="AK13" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL13" t="n">
         <v>70</v>
       </c>
       <c r="AM13" t="n">
-        <v>580</v>
+        <v>550</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -2296,7 +2296,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="J14" t="n">
         <v>4.8</v>
@@ -2305,7 +2305,7 @@
         <v>5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
@@ -2329,13 +2329,13 @@
         <v>3.25</v>
       </c>
       <c r="T14" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U14" t="n">
         <v>1.78</v>
       </c>
       <c r="V14" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W14" t="n">
         <v>3.25</v>
@@ -2344,22 +2344,22 @@
         <v>16.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>970</v>
+        <v>29</v>
       </c>
       <c r="Z14" t="n">
         <v>85</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>410</v>
       </c>
       <c r="AB14" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AC14" t="n">
         <v>11</v>
       </c>
       <c r="AD14" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AE14" t="n">
         <v>200</v>
@@ -2371,7 +2371,7 @@
         <v>10.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="AI14" t="n">
         <v>170</v>
@@ -2425,7 +2425,7 @@
         <v>7.4</v>
       </c>
       <c r="G15" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="H15" t="n">
         <v>1.48</v>
@@ -2440,7 +2440,7 @@
         <v>5.2</v>
       </c>
       <c r="L15" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M15" t="n">
         <v>1.04</v>
@@ -2455,31 +2455,31 @@
         <v>2.44</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="R15" t="n">
         <v>1.57</v>
       </c>
       <c r="S15" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="T15" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="U15" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V15" t="n">
         <v>3</v>
       </c>
       <c r="W15" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="X15" t="n">
         <v>24</v>
       </c>
       <c r="Y15" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z15" t="n">
         <v>10</v>
@@ -2500,7 +2500,7 @@
         <v>15</v>
       </c>
       <c r="AF15" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AG15" t="n">
         <v>28</v>
@@ -2512,13 +2512,13 @@
         <v>30</v>
       </c>
       <c r="AJ15" t="n">
-        <v>190</v>
+        <v>280</v>
       </c>
       <c r="AK15" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AL15" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM15" t="n">
         <v>110</v>
@@ -2578,7 +2578,7 @@
         <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
         <v>1.04</v>
@@ -2590,13 +2590,13 @@
         <v>1.25</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.2</v>
+        <v>1.75</v>
       </c>
       <c r="R16" t="n">
         <v>1.2</v>
       </c>
       <c r="S16" t="n">
-        <v>1.59</v>
+        <v>1.75</v>
       </c>
       <c r="T16" t="n">
         <v>1.01</v>
@@ -2692,13 +2692,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="G17" t="n">
         <v>2.98</v>
       </c>
       <c r="H17" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="I17" t="n">
         <v>2.98</v>
@@ -2707,13 +2707,13 @@
         <v>3.3</v>
       </c>
       <c r="K17" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
         <v>3.85</v>
@@ -2728,16 +2728,16 @@
         <v>1.96</v>
       </c>
       <c r="R17" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="S17" t="n">
-        <v>2.92</v>
+        <v>3.25</v>
       </c>
       <c r="T17" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="V17" t="n">
         <v>1.5</v>
@@ -2746,58 +2746,58 @@
         <v>1.5</v>
       </c>
       <c r="X17" t="n">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="Y17" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AA17" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AB17" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE17" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AF17" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AG17" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AI17" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AJ17" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AK17" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AL17" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
@@ -2827,34 +2827,34 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="G18" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="H18" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="I18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J18" t="n">
         <v>5</v>
       </c>
-      <c r="I18" t="n">
-        <v>13</v>
-      </c>
-      <c r="J18" t="n">
-        <v>4.8</v>
-      </c>
       <c r="K18" t="n">
-        <v>7.6</v>
+        <v>5.9</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="O18" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P18" t="n">
         <v>2.38</v>
@@ -2863,76 +2863,76 @@
         <v>1.62</v>
       </c>
       <c r="R18" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="S18" t="n">
-        <v>2.3</v>
+        <v>2.56</v>
       </c>
       <c r="T18" t="n">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="U18" t="n">
-        <v>1.8</v>
+        <v>1.94</v>
       </c>
       <c r="V18" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="W18" t="n">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="X18" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y18" t="n">
         <v>34</v>
       </c>
-      <c r="Y18" t="n">
-        <v>46</v>
-      </c>
       <c r="Z18" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AB18" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="AD18" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AH18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL18" t="n">
         <v>34</v>
       </c>
-      <c r="AI18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>48</v>
-      </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN18" t="n">
-        <v>7.8</v>
+        <v>5.8</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-14.xlsx
@@ -670,19 +670,19 @@
         <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="H2" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="I2" t="n">
         <v>2.1</v>
       </c>
       <c r="J2" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K2" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L2" t="n">
         <v>1.45</v>
@@ -691,22 +691,22 @@
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.37</v>
       </c>
       <c r="P2" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="R2" t="n">
         <v>1.31</v>
       </c>
       <c r="S2" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="T2" t="n">
         <v>1.87</v>
@@ -718,22 +718,22 @@
         <v>1.9</v>
       </c>
       <c r="W2" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X2" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Z2" t="n">
         <v>13</v>
       </c>
       <c r="AA2" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AB2" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC2" t="n">
         <v>7.8</v>
@@ -742,16 +742,16 @@
         <v>11</v>
       </c>
       <c r="AE2" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AF2" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AG2" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AI2" t="n">
         <v>980</v>
@@ -760,19 +760,19 @@
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AL2" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AM2" t="n">
         <v>140</v>
       </c>
       <c r="AN2" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AO2" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3">
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="G3" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="H3" t="n">
         <v>7.4</v>
@@ -853,7 +853,7 @@
         <v>1.12</v>
       </c>
       <c r="W3" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="X3" t="n">
         <v>970</v>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H4" t="n">
         <v>4.2</v>
       </c>
       <c r="I4" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J4" t="n">
         <v>3.8</v>
@@ -970,13 +970,13 @@
         <v>1.98</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="R4" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S4" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T4" t="n">
         <v>1.83</v>
@@ -985,10 +985,10 @@
         <v>2.14</v>
       </c>
       <c r="V4" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W4" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="X4" t="n">
         <v>15</v>
@@ -997,7 +997,7 @@
         <v>16</v>
       </c>
       <c r="Z4" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA4" t="n">
         <v>90</v>
@@ -1009,7 +1009,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD4" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AE4" t="n">
         <v>55</v>
@@ -1075,7 +1075,7 @@
         <v>1.34</v>
       </c>
       <c r="G5" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="H5" t="n">
         <v>12.5</v>
@@ -1087,7 +1087,7 @@
         <v>5.5</v>
       </c>
       <c r="K5" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="L5" t="n">
         <v>1.38</v>
@@ -1111,19 +1111,19 @@
         <v>1.37</v>
       </c>
       <c r="S5" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="T5" t="n">
         <v>2.48</v>
       </c>
       <c r="U5" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="V5" t="n">
         <v>1.08</v>
       </c>
       <c r="W5" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="X5" t="n">
         <v>16</v>
@@ -1144,7 +1144,7 @@
         <v>12</v>
       </c>
       <c r="AD5" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AE5" t="n">
         <v>280</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="G6" t="n">
         <v>3.05</v>
       </c>
       <c r="H6" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="I6" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="J6" t="n">
         <v>3.4</v>
       </c>
       <c r="K6" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1231,7 +1231,7 @@
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="O6" t="n">
         <v>1.3</v>
@@ -1246,7 +1246,7 @@
         <v>1.39</v>
       </c>
       <c r="S6" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T6" t="n">
         <v>1.67</v>
@@ -1255,7 +1255,7 @@
         <v>2.22</v>
       </c>
       <c r="V6" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="W6" t="n">
         <v>1.49</v>
@@ -1285,7 +1285,7 @@
         <v>34</v>
       </c>
       <c r="AF6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG6" t="n">
         <v>15.5</v>
@@ -1345,7 +1345,7 @@
         <v>1.58</v>
       </c>
       <c r="G7" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="H7" t="n">
         <v>5.6</v>
@@ -1390,7 +1390,7 @@
         <v>2.02</v>
       </c>
       <c r="V7" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="W7" t="n">
         <v>2.44</v>
@@ -1408,7 +1408,7 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC7" t="n">
         <v>11</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="G8" t="n">
         <v>1.53</v>
@@ -1489,7 +1489,7 @@
         <v>7.6</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="K8" t="n">
         <v>5.3</v>
@@ -1615,7 +1615,7 @@
         <v>2.1</v>
       </c>
       <c r="G9" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H9" t="n">
         <v>3.35</v>
@@ -1627,10 +1627,10 @@
         <v>3.75</v>
       </c>
       <c r="K9" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L9" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
@@ -1642,7 +1642,7 @@
         <v>1.2</v>
       </c>
       <c r="P9" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q9" t="n">
         <v>1.6</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="G10" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="H10" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="I10" t="n">
         <v>4.8</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4.9</v>
       </c>
       <c r="J10" t="n">
         <v>4.1</v>
       </c>
       <c r="K10" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L10" t="n">
         <v>1.29</v>
@@ -1771,7 +1771,7 @@
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O10" t="n">
         <v>1.21</v>
@@ -1780,37 +1780,37 @@
         <v>2.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R10" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="S10" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="T10" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="U10" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="V10" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W10" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="X10" t="n">
         <v>22</v>
       </c>
       <c r="Y10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z10" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA10" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB10" t="n">
         <v>12.5</v>
@@ -1840,7 +1840,7 @@
         <v>19.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL10" t="n">
         <v>28</v>
@@ -1852,7 +1852,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AO10" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
@@ -1882,13 +1882,13 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G11" t="n">
         <v>1.92</v>
       </c>
-      <c r="G11" t="n">
-        <v>1.93</v>
-      </c>
       <c r="H11" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I11" t="n">
         <v>4.3</v>
@@ -1906,10 +1906,10 @@
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P11" t="n">
         <v>2.5</v>
@@ -1918,10 +1918,10 @@
         <v>1.64</v>
       </c>
       <c r="R11" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="S11" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="T11" t="n">
         <v>1.63</v>
@@ -1933,7 +1933,7 @@
         <v>1.3</v>
       </c>
       <c r="W11" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="X11" t="n">
         <v>21</v>
@@ -1945,7 +1945,7 @@
         <v>34</v>
       </c>
       <c r="AA11" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AB11" t="n">
         <v>13</v>
@@ -1969,7 +1969,7 @@
         <v>16</v>
       </c>
       <c r="AI11" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ11" t="n">
         <v>22</v>
@@ -2020,7 +2020,7 @@
         <v>12</v>
       </c>
       <c r="G12" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="H12" t="n">
         <v>1.26</v>
@@ -2029,10 +2029,10 @@
         <v>1.27</v>
       </c>
       <c r="J12" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="K12" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="L12" t="n">
         <v>1.17</v>
@@ -2044,22 +2044,22 @@
         <v>11</v>
       </c>
       <c r="O12" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="P12" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Q12" t="n">
         <v>1.28</v>
       </c>
       <c r="R12" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="S12" t="n">
         <v>1.71</v>
       </c>
       <c r="T12" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U12" t="n">
         <v>2.44</v>
@@ -2074,7 +2074,7 @@
         <v>60</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Z12" t="n">
         <v>13</v>
@@ -2086,7 +2086,7 @@
         <v>75</v>
       </c>
       <c r="AC12" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AD12" t="n">
         <v>12</v>
@@ -2095,7 +2095,7 @@
         <v>12.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AG12" t="n">
         <v>44</v>
@@ -2110,19 +2110,19 @@
         <v>480</v>
       </c>
       <c r="AK12" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AL12" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AM12" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN12" t="n">
         <v>80</v>
       </c>
       <c r="AO12" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="13">
@@ -2218,7 +2218,7 @@
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC13" t="n">
         <v>23</v>
@@ -2236,7 +2236,7 @@
         <v>14.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AI13" t="n">
         <v>510</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="G14" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="H14" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="I14" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="J14" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="K14" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L14" t="n">
         <v>1.39</v>
@@ -2311,16 +2311,16 @@
         <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O14" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="P14" t="n">
         <v>2</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="R14" t="n">
         <v>1.38</v>
@@ -2329,16 +2329,16 @@
         <v>3.25</v>
       </c>
       <c r="T14" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U14" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V14" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W14" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="X14" t="n">
         <v>16.5</v>
@@ -2347,22 +2347,22 @@
         <v>29</v>
       </c>
       <c r="Z14" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AA14" t="n">
         <v>410</v>
       </c>
       <c r="AB14" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC14" t="n">
         <v>11</v>
       </c>
       <c r="AD14" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AE14" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="AF14" t="n">
         <v>8</v>
@@ -2371,7 +2371,7 @@
         <v>10.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="AI14" t="n">
         <v>170</v>
@@ -2383,16 +2383,16 @@
         <v>16</v>
       </c>
       <c r="AL14" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AM14" t="n">
         <v>200</v>
       </c>
       <c r="AN14" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AO14" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15">
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="G15" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="H15" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="I15" t="n">
         <v>1.5</v>
       </c>
       <c r="J15" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="K15" t="n">
         <v>5.2</v>
@@ -2446,10 +2446,10 @@
         <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="O15" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P15" t="n">
         <v>2.44</v>
@@ -2458,16 +2458,16 @@
         <v>1.62</v>
       </c>
       <c r="R15" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="S15" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="T15" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="U15" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V15" t="n">
         <v>3</v>
@@ -2494,7 +2494,7 @@
         <v>12</v>
       </c>
       <c r="AD15" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE15" t="n">
         <v>15</v>
@@ -2509,13 +2509,13 @@
         <v>22</v>
       </c>
       <c r="AI15" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ15" t="n">
         <v>280</v>
       </c>
       <c r="AK15" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AL15" t="n">
         <v>85</v>
@@ -2524,10 +2524,10 @@
         <v>110</v>
       </c>
       <c r="AN15" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AO15" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="16">
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.04</v>
+        <v>1.39</v>
       </c>
       <c r="G16" t="n">
-        <v>1000</v>
+        <v>1.45</v>
       </c>
       <c r="H16" t="n">
-        <v>1.04</v>
+        <v>8.4</v>
       </c>
       <c r="I16" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="J16" t="n">
-        <v>1.01</v>
+        <v>5.2</v>
       </c>
       <c r="K16" t="n">
-        <v>980</v>
+        <v>5.9</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
@@ -2581,34 +2581,34 @@
         <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>1.04</v>
+        <v>2.38</v>
       </c>
       <c r="O16" t="n">
         <v>1.2</v>
       </c>
       <c r="P16" t="n">
-        <v>1.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="R16" t="n">
-        <v>1.2</v>
+        <v>1.46</v>
       </c>
       <c r="S16" t="n">
-        <v>1.75</v>
+        <v>2.32</v>
       </c>
       <c r="T16" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="U16" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="V16" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="W16" t="n">
-        <v>1.01</v>
+        <v>3.2</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2716,7 +2716,7 @@
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="O17" t="n">
         <v>1.3</v>
@@ -2728,7 +2728,7 @@
         <v>1.96</v>
       </c>
       <c r="R17" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S17" t="n">
         <v>3.25</v>
@@ -2827,13 +2827,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="G18" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="H18" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="I18" t="n">
         <v>10.5</v>
@@ -2842,7 +2842,7 @@
         <v>5</v>
       </c>
       <c r="K18" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
@@ -2854,10 +2854,10 @@
         <v>4.8</v>
       </c>
       <c r="O18" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P18" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="Q18" t="n">
         <v>1.62</v>
@@ -2872,13 +2872,13 @@
         <v>1.88</v>
       </c>
       <c r="U18" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V18" t="n">
         <v>1.11</v>
       </c>
       <c r="W18" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="X18" t="n">
         <v>24</v>
@@ -2890,7 +2890,7 @@
         <v>85</v>
       </c>
       <c r="AA18" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="AB18" t="n">
         <v>10.5</v>
@@ -2902,7 +2902,7 @@
         <v>34</v>
       </c>
       <c r="AE18" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AF18" t="n">
         <v>9.800000000000001</v>
@@ -2926,13 +2926,13 @@
         <v>34</v>
       </c>
       <c r="AM18" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN18" t="n">
         <v>5.8</v>
       </c>
       <c r="AO18" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-14.xlsx
@@ -685,7 +685,7 @@
         <v>3.65</v>
       </c>
       <c r="L2" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
@@ -694,7 +694,7 @@
         <v>3.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P2" t="n">
         <v>1.82</v>
@@ -709,7 +709,7 @@
         <v>3.9</v>
       </c>
       <c r="T2" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U2" t="n">
         <v>2.1</v>
@@ -721,7 +721,7 @@
         <v>1.31</v>
       </c>
       <c r="X2" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="Y2" t="n">
         <v>8.6</v>
@@ -730,7 +730,7 @@
         <v>13</v>
       </c>
       <c r="AA2" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB2" t="n">
         <v>14</v>
@@ -742,16 +742,16 @@
         <v>11</v>
       </c>
       <c r="AE2" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AF2" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AG2" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AH2" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AI2" t="n">
         <v>980</v>
@@ -760,7 +760,7 @@
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AL2" t="n">
         <v>80</v>
@@ -772,7 +772,7 @@
         <v>80</v>
       </c>
       <c r="AO2" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -805,10 +805,10 @@
         <v>1.46</v>
       </c>
       <c r="G3" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="H3" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="I3" t="n">
         <v>8.800000000000001</v>
@@ -832,7 +832,7 @@
         <v>1.28</v>
       </c>
       <c r="P3" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q3" t="n">
         <v>1.81</v>
@@ -844,7 +844,7 @@
         <v>2.84</v>
       </c>
       <c r="T3" t="n">
-        <v>1.89</v>
+        <v>1.04</v>
       </c>
       <c r="U3" t="n">
         <v>1.7</v>
@@ -853,7 +853,7 @@
         <v>1.12</v>
       </c>
       <c r="W3" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="X3" t="n">
         <v>970</v>
@@ -949,10 +949,10 @@
         <v>4.3</v>
       </c>
       <c r="J4" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="K4" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L4" t="n">
         <v>1.39</v>
@@ -961,7 +961,7 @@
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="O4" t="n">
         <v>1.32</v>
@@ -970,7 +970,7 @@
         <v>1.98</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R4" t="n">
         <v>1.38</v>
@@ -985,10 +985,10 @@
         <v>2.14</v>
       </c>
       <c r="V4" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W4" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="X4" t="n">
         <v>15</v>
@@ -1078,13 +1078,13 @@
         <v>1.35</v>
       </c>
       <c r="H5" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="I5" t="n">
         <v>13.5</v>
       </c>
       <c r="J5" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="K5" t="n">
         <v>5.7</v>
@@ -1096,7 +1096,7 @@
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O5" t="n">
         <v>1.32</v>
@@ -1114,7 +1114,7 @@
         <v>3.6</v>
       </c>
       <c r="T5" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="U5" t="n">
         <v>1.63</v>
@@ -1123,13 +1123,13 @@
         <v>1.08</v>
       </c>
       <c r="W5" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="X5" t="n">
         <v>16</v>
       </c>
       <c r="Y5" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Z5" t="n">
         <v>120</v>
@@ -1219,7 +1219,7 @@
         <v>2.8</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K6" t="n">
         <v>3.85</v>
@@ -1243,10 +1243,10 @@
         <v>1.82</v>
       </c>
       <c r="R6" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S6" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T6" t="n">
         <v>1.67</v>
@@ -1267,10 +1267,10 @@
         <v>14.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AA6" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AB6" t="n">
         <v>15.5</v>
@@ -1282,7 +1282,7 @@
         <v>15</v>
       </c>
       <c r="AE6" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AF6" t="n">
         <v>24</v>
@@ -1294,7 +1294,7 @@
         <v>20</v>
       </c>
       <c r="AI6" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AJ6" t="n">
         <v>55</v>
@@ -1303,16 +1303,16 @@
         <v>38</v>
       </c>
       <c r="AL6" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AM6" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AN6" t="n">
         <v>30</v>
       </c>
       <c r="AO6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="G7" t="n">
         <v>1.66</v>
       </c>
       <c r="H7" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="I7" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J7" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K7" t="n">
         <v>4.9</v>
@@ -1366,7 +1366,7 @@
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O7" t="n">
         <v>1.24</v>
@@ -1378,7 +1378,7 @@
         <v>1.71</v>
       </c>
       <c r="R7" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S7" t="n">
         <v>2.8</v>
@@ -1387,64 +1387,64 @@
         <v>1.8</v>
       </c>
       <c r="U7" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
         <v>1.19</v>
       </c>
       <c r="W7" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="X7" t="n">
         <v>23</v>
       </c>
       <c r="Y7" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AC7" t="n">
         <v>11</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AK7" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1495,7 +1495,7 @@
         <v>5.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
@@ -1519,7 +1519,7 @@
         <v>2.44</v>
       </c>
       <c r="T8" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U8" t="n">
         <v>2.14</v>
@@ -1528,58 +1528,58 @@
         <v>1.15</v>
       </c>
       <c r="W8" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="X8" t="n">
         <v>30</v>
       </c>
       <c r="Y8" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="Z8" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AA8" t="n">
         <v>230</v>
       </c>
       <c r="AB8" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AC8" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="AD8" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AE8" t="n">
         <v>110</v>
       </c>
       <c r="AF8" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AG8" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="AI8" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AJ8" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AK8" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AL8" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AM8" t="n">
         <v>110</v>
       </c>
       <c r="AN8" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="AO8" t="n">
         <v>110</v>
@@ -1615,13 +1615,13 @@
         <v>2.1</v>
       </c>
       <c r="G9" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="H9" t="n">
         <v>3.35</v>
       </c>
       <c r="I9" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="J9" t="n">
         <v>3.75</v>
@@ -1630,7 +1630,7 @@
         <v>4.1</v>
       </c>
       <c r="L9" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
@@ -1651,25 +1651,25 @@
         <v>1.58</v>
       </c>
       <c r="S9" t="n">
-        <v>2.48</v>
+        <v>2.22</v>
       </c>
       <c r="T9" t="n">
         <v>1.56</v>
       </c>
       <c r="U9" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="V9" t="n">
         <v>1.37</v>
       </c>
       <c r="W9" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="X9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y9" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="Z9" t="n">
         <v>34</v>
@@ -1696,10 +1696,10 @@
         <v>14</v>
       </c>
       <c r="AH9" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI9" t="n">
-        <v>970</v>
+        <v>46</v>
       </c>
       <c r="AJ9" t="n">
         <v>34</v>
@@ -1717,7 +1717,7 @@
         <v>13</v>
       </c>
       <c r="AO9" t="n">
-        <v>970</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
@@ -1753,16 +1753,16 @@
         <v>1.83</v>
       </c>
       <c r="H10" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I10" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J10" t="n">
         <v>4.1</v>
       </c>
       <c r="K10" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L10" t="n">
         <v>1.29</v>
@@ -1771,7 +1771,7 @@
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.21</v>
@@ -1810,22 +1810,22 @@
         <v>38</v>
       </c>
       <c r="AA10" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AB10" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC10" t="n">
         <v>9.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE10" t="n">
         <v>50</v>
       </c>
       <c r="AF10" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG10" t="n">
         <v>10</v>
@@ -1843,7 +1843,7 @@
         <v>16</v>
       </c>
       <c r="AL10" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AM10" t="n">
         <v>70</v>
@@ -1888,7 +1888,7 @@
         <v>1.92</v>
       </c>
       <c r="H11" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I11" t="n">
         <v>4.3</v>
@@ -1906,7 +1906,7 @@
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O11" t="n">
         <v>1.2</v>
@@ -1945,7 +1945,7 @@
         <v>34</v>
       </c>
       <c r="AA11" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AB11" t="n">
         <v>13</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="G12" t="n">
         <v>13</v>
       </c>
       <c r="H12" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I12" t="n">
         <v>1.26</v>
       </c>
-      <c r="I12" t="n">
-        <v>1.27</v>
-      </c>
       <c r="J12" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="K12" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L12" t="n">
         <v>1.17</v>
@@ -2041,31 +2041,31 @@
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O12" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="P12" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="R12" t="n">
-        <v>2.34</v>
+        <v>2.22</v>
       </c>
       <c r="S12" t="n">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="T12" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="U12" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="V12" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="W12" t="n">
         <v>1.08</v>
@@ -2074,10 +2074,10 @@
         <v>60</v>
       </c>
       <c r="Y12" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AA12" t="n">
         <v>12.5</v>
@@ -2086,7 +2086,7 @@
         <v>75</v>
       </c>
       <c r="AC12" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AD12" t="n">
         <v>12</v>
@@ -2098,10 +2098,10 @@
         <v>140</v>
       </c>
       <c r="AG12" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AH12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI12" t="n">
         <v>24</v>
@@ -2110,19 +2110,19 @@
         <v>480</v>
       </c>
       <c r="AK12" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AL12" t="n">
         <v>90</v>
       </c>
       <c r="AM12" t="n">
-        <v>80</v>
+        <v>990</v>
       </c>
       <c r="AN12" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AO12" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="13">
@@ -2176,7 +2176,7 @@
         <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="O13" t="n">
         <v>1.18</v>
@@ -2188,13 +2188,13 @@
         <v>1.56</v>
       </c>
       <c r="R13" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="S13" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T13" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="U13" t="n">
         <v>1.51</v>
@@ -2206,13 +2206,13 @@
         <v>7.2</v>
       </c>
       <c r="X13" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y13" t="n">
         <v>75</v>
       </c>
       <c r="Z13" t="n">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="AA13" t="n">
         <v>1000</v>
@@ -2230,7 +2230,7 @@
         <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AG13" t="n">
         <v>14.5</v>
@@ -2239,22 +2239,22 @@
         <v>70</v>
       </c>
       <c r="AI13" t="n">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="AJ13" t="n">
         <v>7.4</v>
       </c>
       <c r="AK13" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AL13" t="n">
         <v>70</v>
       </c>
       <c r="AM13" t="n">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="G14" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I14" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J14" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K14" t="n">
         <v>4.9</v>
@@ -2314,7 +2314,7 @@
         <v>3.95</v>
       </c>
       <c r="O14" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P14" t="n">
         <v>2</v>
@@ -2338,7 +2338,7 @@
         <v>1.11</v>
       </c>
       <c r="W14" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="X14" t="n">
         <v>16.5</v>
@@ -2350,10 +2350,10 @@
         <v>80</v>
       </c>
       <c r="AA14" t="n">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="AB14" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AC14" t="n">
         <v>11</v>
@@ -2371,7 +2371,7 @@
         <v>10.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI14" t="n">
         <v>170</v>
@@ -2389,7 +2389,7 @@
         <v>200</v>
       </c>
       <c r="AN14" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AO14" t="n">
         <v>230</v>
@@ -2425,13 +2425,13 @@
         <v>7.2</v>
       </c>
       <c r="G15" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="H15" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="I15" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="J15" t="n">
         <v>4.9</v>
@@ -2470,7 +2470,7 @@
         <v>2.12</v>
       </c>
       <c r="V15" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="W15" t="n">
         <v>1.15</v>
@@ -2515,7 +2515,7 @@
         <v>280</v>
       </c>
       <c r="AK15" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AL15" t="n">
         <v>85</v>
@@ -2560,13 +2560,13 @@
         <v>1.39</v>
       </c>
       <c r="G16" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="H16" t="n">
         <v>8.4</v>
       </c>
       <c r="I16" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="J16" t="n">
         <v>5.2</v>
@@ -2581,22 +2581,22 @@
         <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="O16" t="n">
         <v>1.2</v>
       </c>
       <c r="P16" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="R16" t="n">
         <v>1.46</v>
       </c>
       <c r="S16" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="T16" t="n">
         <v>1.9</v>
@@ -2605,10 +2605,10 @@
         <v>1.94</v>
       </c>
       <c r="V16" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="W16" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2695,22 +2695,22 @@
         <v>2.68</v>
       </c>
       <c r="G17" t="n">
-        <v>2.98</v>
+        <v>3.15</v>
       </c>
       <c r="H17" t="n">
         <v>2.68</v>
       </c>
       <c r="I17" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J17" t="n">
         <v>2.98</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.3</v>
       </c>
       <c r="K17" t="n">
         <v>3.85</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
@@ -2737,67 +2737,67 @@
         <v>1.69</v>
       </c>
       <c r="U17" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V17" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="W17" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="X17" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="Y17" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AA17" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AB17" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AE17" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN17" t="n">
         <v>32</v>
       </c>
-      <c r="AF17" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK17" t="n">
+      <c r="AO17" t="n">
         <v>32</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="18">
@@ -2833,10 +2833,10 @@
         <v>1.47</v>
       </c>
       <c r="H18" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="I18" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="J18" t="n">
         <v>5</v>
@@ -2857,7 +2857,7 @@
         <v>1.21</v>
       </c>
       <c r="P18" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="Q18" t="n">
         <v>1.62</v>
@@ -2869,67 +2869,67 @@
         <v>2.56</v>
       </c>
       <c r="T18" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="U18" t="n">
         <v>1.96</v>
       </c>
       <c r="V18" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W18" t="n">
         <v>3.1</v>
       </c>
       <c r="X18" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="Y18" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="Z18" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AA18" t="n">
         <v>300</v>
       </c>
       <c r="AB18" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AC18" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AE18" t="n">
         <v>140</v>
       </c>
       <c r="AF18" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI18" t="n">
         <v>120</v>
       </c>
       <c r="AJ18" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AL18" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AM18" t="n">
         <v>140</v>
       </c>
       <c r="AN18" t="n">
-        <v>5.8</v>
+        <v>7</v>
       </c>
       <c r="AO18" t="n">
         <v>160</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO18"/>
+  <dimension ref="A1:AO19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="H2" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="I2" t="n">
         <v>2.08</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.1</v>
       </c>
       <c r="J2" t="n">
         <v>3.5</v>
@@ -694,16 +694,16 @@
         <v>3.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P2" t="n">
         <v>1.82</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R2" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S2" t="n">
         <v>3.9</v>
@@ -712,73 +712,73 @@
         <v>1.88</v>
       </c>
       <c r="U2" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="W2" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="X2" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y2" t="n">
         <v>8.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AB2" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
         <v>11</v>
       </c>
       <c r="AE2" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AF2" t="n">
         <v>980</v>
       </c>
       <c r="AG2" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AH2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AL2" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AM2" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN2" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,78 +788,78 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11:45:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al-Quadisiya (KSA)</t>
+          <t>Schalke 04 II</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al-Feiha</t>
+          <t>Roda JC</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.46</v>
+        <v>1.04</v>
       </c>
       <c r="G3" t="n">
-        <v>1.58</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>7.2</v>
+        <v>1.04</v>
       </c>
       <c r="I3" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>4.3</v>
+        <v>1.04</v>
       </c>
       <c r="K3" t="n">
-        <v>5.1</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>2.88</v>
+        <v>1.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="P3" t="n">
-        <v>1.9</v>
+        <v>1.09</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.81</v>
+        <v>1.17</v>
       </c>
       <c r="R3" t="n">
-        <v>1.33</v>
+        <v>1.08</v>
       </c>
       <c r="S3" t="n">
-        <v>2.84</v>
+        <v>1.17</v>
       </c>
       <c r="T3" t="n">
         <v>1.04</v>
       </c>
       <c r="U3" t="n">
-        <v>1.7</v>
+        <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>2.72</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
         <v>970</v>
       </c>
       <c r="Y3" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -868,13 +868,13 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD3" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
@@ -883,10 +883,10 @@
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH3" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>11:45:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Al-Quadisiya (KSA)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>St Pauli</t>
+          <t>Al-Feiha</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>1.47</v>
       </c>
       <c r="G4" t="n">
-        <v>2.02</v>
+        <v>1.57</v>
       </c>
       <c r="H4" t="n">
-        <v>4.2</v>
+        <v>7.2</v>
       </c>
       <c r="I4" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="J4" t="n">
         <v>4.3</v>
       </c>
-      <c r="J4" t="n">
-        <v>3.7</v>
-      </c>
       <c r="K4" t="n">
-        <v>3.75</v>
+        <v>5.1</v>
       </c>
       <c r="L4" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="P4" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.97</v>
+        <v>1.79</v>
       </c>
       <c r="R4" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="S4" t="n">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="U4" t="n">
-        <v>2.14</v>
+        <v>1.86</v>
       </c>
       <c r="V4" t="n">
-        <v>1.3</v>
+        <v>1.13</v>
       </c>
       <c r="W4" t="n">
-        <v>1.98</v>
+        <v>2.74</v>
       </c>
       <c r="X4" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="n">
-        <v>16</v>
+        <v>980</v>
       </c>
       <c r="Z4" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="AA4" t="n">
-        <v>90</v>
+        <v>310</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AE4" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="AF4" t="n">
-        <v>12</v>
+        <v>9.4</v>
       </c>
       <c r="AG4" t="n">
         <v>10.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="AI4" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="AJ4" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AL4" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AM4" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="AN4" t="n">
-        <v>14</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO4" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1063,37 +1063,37 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>St Pauli</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.34</v>
+        <v>1.99</v>
       </c>
       <c r="G5" t="n">
-        <v>1.35</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>13</v>
+        <v>4.2</v>
       </c>
       <c r="I5" t="n">
-        <v>13.5</v>
+        <v>4.3</v>
       </c>
       <c r="J5" t="n">
-        <v>5.6</v>
+        <v>3.75</v>
       </c>
       <c r="K5" t="n">
-        <v>5.7</v>
+        <v>3.8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
         <v>3.95</v>
@@ -1102,88 +1102,88 @@
         <v>1.32</v>
       </c>
       <c r="P5" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R5" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S5" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="T5" t="n">
-        <v>2.46</v>
+        <v>1.83</v>
       </c>
       <c r="U5" t="n">
-        <v>1.63</v>
+        <v>2.14</v>
       </c>
       <c r="V5" t="n">
-        <v>1.08</v>
+        <v>1.3</v>
       </c>
       <c r="W5" t="n">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="X5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y5" t="n">
-        <v>34</v>
+        <v>15.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="AA5" t="n">
-        <v>590</v>
+        <v>90</v>
       </c>
       <c r="AB5" t="n">
-        <v>7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF5" t="n">
         <v>12</v>
       </c>
-      <c r="AD5" t="n">
-        <v>50</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>280</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>6.8</v>
-      </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>40</v>
+        <v>18.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>230</v>
+        <v>60</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9.6</v>
+        <v>23</v>
       </c>
       <c r="AK5" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AL5" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AO5" t="n">
         <v>55</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>290</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>410</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1198,121 +1198,121 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al-Shabab (KSA)</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>NEOM Sports Club</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="G6" t="n">
-        <v>3.05</v>
+        <v>1.36</v>
       </c>
       <c r="H6" t="n">
-        <v>2.52</v>
+        <v>12.5</v>
       </c>
       <c r="I6" t="n">
-        <v>2.8</v>
+        <v>13</v>
       </c>
       <c r="J6" t="n">
-        <v>3.45</v>
+        <v>5.5</v>
       </c>
       <c r="K6" t="n">
-        <v>3.85</v>
+        <v>5.6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="M6" t="n">
         <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="P6" t="n">
         <v>1.99</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.82</v>
+        <v>1.96</v>
       </c>
       <c r="R6" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S6" t="n">
-        <v>3.05</v>
+        <v>3.6</v>
       </c>
       <c r="T6" t="n">
-        <v>1.67</v>
+        <v>2.48</v>
       </c>
       <c r="U6" t="n">
-        <v>2.22</v>
+        <v>1.63</v>
       </c>
       <c r="V6" t="n">
-        <v>1.55</v>
+        <v>1.08</v>
       </c>
       <c r="W6" t="n">
-        <v>1.49</v>
+        <v>3.8</v>
       </c>
       <c r="X6" t="n">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="Y6" t="n">
-        <v>14.5</v>
+        <v>32</v>
       </c>
       <c r="Z6" t="n">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="AA6" t="n">
+        <v>590</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD6" t="n">
         <v>48</v>
       </c>
-      <c r="AB6" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>15</v>
-      </c>
       <c r="AE6" t="n">
-        <v>36</v>
+        <v>280</v>
       </c>
       <c r="AF6" t="n">
-        <v>24</v>
+        <v>6.8</v>
       </c>
       <c r="AG6" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="AH6" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AI6" t="n">
-        <v>48</v>
+        <v>230</v>
       </c>
       <c r="AJ6" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL6" t="n">
         <v>55</v>
       </c>
-      <c r="AK6" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>50</v>
-      </c>
       <c r="AM6" t="n">
-        <v>100</v>
+        <v>290</v>
       </c>
       <c r="AN6" t="n">
-        <v>30</v>
+        <v>6.8</v>
       </c>
       <c r="AO6" t="n">
-        <v>27</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7">
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Al-Shabab (KSA)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al-Taawoun Buraidah</t>
+          <t>NEOM Sports Club</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.57</v>
+        <v>2.7</v>
       </c>
       <c r="G7" t="n">
-        <v>1.66</v>
+        <v>3.05</v>
       </c>
       <c r="H7" t="n">
-        <v>5.5</v>
+        <v>2.52</v>
       </c>
       <c r="I7" t="n">
-        <v>6.6</v>
+        <v>2.8</v>
       </c>
       <c r="J7" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="K7" t="n">
-        <v>4.9</v>
+        <v>3.85</v>
       </c>
       <c r="L7" t="n">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>2.16</v>
+        <v>1.99</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.71</v>
+        <v>1.82</v>
       </c>
       <c r="R7" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="S7" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="T7" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="V7" t="n">
-        <v>1.19</v>
+        <v>1.55</v>
       </c>
       <c r="W7" t="n">
-        <v>2.42</v>
+        <v>1.49</v>
       </c>
       <c r="X7" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z7" t="n">
         <v>23</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="AA7" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO7" t="n">
         <v>27</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>65</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,96 +1463,96 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sion</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Al-Taawoun Buraidah</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.49</v>
+        <v>1.58</v>
       </c>
       <c r="G8" t="n">
-        <v>1.53</v>
+        <v>1.66</v>
       </c>
       <c r="H8" t="n">
-        <v>6.8</v>
+        <v>5.5</v>
       </c>
       <c r="I8" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="J8" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="K8" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>5.3</v>
+        <v>4.2</v>
       </c>
       <c r="O8" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V8" t="n">
         <v>1.19</v>
       </c>
-      <c r="P8" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.15</v>
-      </c>
       <c r="W8" t="n">
-        <v>2.84</v>
+        <v>2.42</v>
       </c>
       <c r="X8" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="Y8" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="Z8" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AA8" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AE8" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
         <v>13</v>
@@ -1561,28 +1561,28 @@
         <v>12.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI8" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK8" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AL8" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AM8" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>7.2</v>
+        <v>10</v>
       </c>
       <c r="AO8" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.1</v>
+        <v>1.48</v>
       </c>
       <c r="G9" t="n">
-        <v>2.26</v>
+        <v>1.53</v>
       </c>
       <c r="H9" t="n">
-        <v>3.35</v>
+        <v>6.8</v>
       </c>
       <c r="I9" t="n">
-        <v>3.65</v>
+        <v>7.6</v>
       </c>
       <c r="J9" t="n">
-        <v>3.75</v>
+        <v>4.7</v>
       </c>
       <c r="K9" t="n">
-        <v>4.1</v>
+        <v>5.3</v>
       </c>
       <c r="L9" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O9" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P9" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="S9" t="n">
         <v>2.44</v>
       </c>
-      <c r="Q9" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.22</v>
-      </c>
       <c r="T9" t="n">
-        <v>1.56</v>
+        <v>1.74</v>
       </c>
       <c r="U9" t="n">
-        <v>2.52</v>
+        <v>2.12</v>
       </c>
       <c r="V9" t="n">
-        <v>1.37</v>
+        <v>1.15</v>
       </c>
       <c r="W9" t="n">
-        <v>1.79</v>
+        <v>2.84</v>
       </c>
       <c r="X9" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Y9" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="Z9" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>230</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD9" t="n">
         <v>34</v>
       </c>
-      <c r="AA9" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AE9" t="n">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="AF9" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AH9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK9" t="n">
         <v>18</v>
       </c>
-      <c r="AI9" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>25</v>
-      </c>
       <c r="AL9" t="n">
-        <v>34</v>
+        <v>970</v>
       </c>
       <c r="AM9" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AN9" t="n">
-        <v>13</v>
+        <v>6.4</v>
       </c>
       <c r="AO9" t="n">
-        <v>29</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,121 +1738,121 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.82</v>
+        <v>2.14</v>
       </c>
       <c r="G10" t="n">
-        <v>1.83</v>
+        <v>2.26</v>
       </c>
       <c r="H10" t="n">
-        <v>4.8</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>4.9</v>
+        <v>3.65</v>
       </c>
       <c r="J10" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="K10" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="L10" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P10" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R10" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="S10" t="n">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="T10" t="n">
-        <v>1.64</v>
+        <v>1.56</v>
       </c>
       <c r="U10" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="V10" t="n">
-        <v>1.26</v>
+        <v>1.38</v>
       </c>
       <c r="W10" t="n">
-        <v>2.2</v>
+        <v>1.79</v>
       </c>
       <c r="X10" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="Y10" t="n">
         <v>23</v>
       </c>
       <c r="Z10" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AA10" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AB10" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="AD10" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH10" t="n">
         <v>18</v>
       </c>
-      <c r="AE10" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AI10" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AJ10" t="n">
-        <v>19.5</v>
+        <v>34</v>
       </c>
       <c r="AK10" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AL10" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AM10" t="n">
         <v>70</v>
       </c>
       <c r="AN10" t="n">
-        <v>8.199999999999999</v>
+        <v>13</v>
       </c>
       <c r="AO10" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="G11" t="n">
         <v>1.92</v>
@@ -1915,13 +1915,13 @@
         <v>2.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R11" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S11" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="T11" t="n">
         <v>1.63</v>
@@ -1945,7 +1945,7 @@
         <v>34</v>
       </c>
       <c r="AA11" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AB11" t="n">
         <v>13</v>
@@ -2056,13 +2056,13 @@
         <v>2.22</v>
       </c>
       <c r="S12" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="T12" t="n">
         <v>1.69</v>
       </c>
       <c r="U12" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V12" t="n">
         <v>4.8</v>
@@ -2116,19 +2116,19 @@
         <v>90</v>
       </c>
       <c r="AM12" t="n">
-        <v>990</v>
+        <v>90</v>
       </c>
       <c r="AN12" t="n">
         <v>95</v>
       </c>
       <c r="AO12" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.15</v>
+        <v>1.82</v>
       </c>
       <c r="G13" t="n">
-        <v>1.16</v>
+        <v>1.83</v>
       </c>
       <c r="H13" t="n">
-        <v>27</v>
+        <v>4.7</v>
       </c>
       <c r="I13" t="n">
-        <v>29</v>
+        <v>4.8</v>
       </c>
       <c r="J13" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="X13" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG13" t="n">
         <v>10</v>
       </c>
-      <c r="K13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N13" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="W13" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="X13" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>75</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>380</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>110</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AH13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM13" t="n">
         <v>70</v>
       </c>
-      <c r="AI13" t="n">
-        <v>530</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>560</v>
-      </c>
       <c r="AN13" t="n">
-        <v>3.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.46</v>
+        <v>1.15</v>
       </c>
       <c r="G14" t="n">
-        <v>1.48</v>
+        <v>1.16</v>
       </c>
       <c r="H14" t="n">
-        <v>9.199999999999999</v>
+        <v>28</v>
       </c>
       <c r="I14" t="n">
+        <v>29</v>
+      </c>
+      <c r="J14" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="J14" t="n">
-        <v>4.6</v>
-      </c>
       <c r="K14" t="n">
-        <v>4.9</v>
+        <v>10</v>
       </c>
       <c r="L14" t="n">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>3.95</v>
+        <v>5.9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>2</v>
+        <v>2.68</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.88</v>
+        <v>1.56</v>
       </c>
       <c r="R14" t="n">
-        <v>1.38</v>
+        <v>1.67</v>
       </c>
       <c r="S14" t="n">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="T14" t="n">
-        <v>2.12</v>
+        <v>2.82</v>
       </c>
       <c r="U14" t="n">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="V14" t="n">
-        <v>1.11</v>
+        <v>1.03</v>
       </c>
       <c r="W14" t="n">
-        <v>3.05</v>
+        <v>7.2</v>
       </c>
       <c r="X14" t="n">
-        <v>16.5</v>
+        <v>32</v>
       </c>
       <c r="Y14" t="n">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="Z14" t="n">
-        <v>80</v>
+        <v>370</v>
       </c>
       <c r="AA14" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>7.8</v>
+        <v>9.6</v>
       </c>
       <c r="AC14" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AD14" t="n">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="AE14" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG14" t="n">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="AI14" t="n">
-        <v>170</v>
+        <v>520</v>
       </c>
       <c r="AJ14" t="n">
-        <v>11.5</v>
+        <v>7.4</v>
       </c>
       <c r="AK14" t="n">
         <v>16</v>
       </c>
       <c r="AL14" t="n">
-        <v>970</v>
+        <v>70</v>
       </c>
       <c r="AM14" t="n">
-        <v>200</v>
+        <v>560</v>
       </c>
       <c r="AN14" t="n">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="AO14" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2413,127 +2413,127 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>7.2</v>
+        <v>1.46</v>
       </c>
       <c r="G15" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H15" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="I15" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W15" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="X15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>85</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>400</v>
+      </c>
+      <c r="AB15" t="n">
         <v>7.8</v>
       </c>
-      <c r="H15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="J15" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="K15" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N15" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="W15" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="X15" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z15" t="n">
+      <c r="AC15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>160</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG15" t="n">
         <v>10</v>
       </c>
-      <c r="AA15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>28</v>
-      </c>
       <c r="AH15" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AI15" t="n">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="AJ15" t="n">
-        <v>280</v>
+        <v>11.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="AL15" t="n">
-        <v>85</v>
+        <v>970</v>
       </c>
       <c r="AM15" t="n">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="AN15" t="n">
-        <v>90</v>
+        <v>7.8</v>
       </c>
       <c r="AO15" t="n">
-        <v>6.4</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,126 +2543,126 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Cruz Azul</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.39</v>
+        <v>7.4</v>
       </c>
       <c r="G16" t="n">
-        <v>1.43</v>
+        <v>7.8</v>
       </c>
       <c r="H16" t="n">
-        <v>8.4</v>
+        <v>1.48</v>
       </c>
       <c r="I16" t="n">
-        <v>9.6</v>
+        <v>1.5</v>
       </c>
       <c r="J16" t="n">
+        <v>5</v>
+      </c>
+      <c r="K16" t="n">
         <v>5.2</v>
       </c>
-      <c r="K16" t="n">
-        <v>5.9</v>
-      </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M16" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>2.4</v>
+        <v>5.1</v>
       </c>
       <c r="O16" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P16" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="R16" t="n">
-        <v>1.46</v>
+        <v>1.56</v>
       </c>
       <c r="S16" t="n">
-        <v>2.3</v>
+        <v>2.58</v>
       </c>
       <c r="T16" t="n">
-        <v>1.9</v>
+        <v>1.79</v>
       </c>
       <c r="U16" t="n">
-        <v>1.94</v>
+        <v>2.14</v>
       </c>
       <c r="V16" t="n">
-        <v>1.11</v>
+        <v>3</v>
       </c>
       <c r="W16" t="n">
-        <v>3.25</v>
+        <v>1.14</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="17">
@@ -2678,126 +2678,126 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Queretaro</t>
+          <t>Cruz Azul</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Tijuana</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.68</v>
+        <v>1.39</v>
       </c>
       <c r="G17" t="n">
-        <v>3.15</v>
+        <v>1.43</v>
       </c>
       <c r="H17" t="n">
-        <v>2.68</v>
+        <v>8.4</v>
       </c>
       <c r="I17" t="n">
-        <v>3.15</v>
+        <v>9.6</v>
       </c>
       <c r="J17" t="n">
-        <v>2.98</v>
+        <v>5.2</v>
       </c>
       <c r="K17" t="n">
-        <v>3.85</v>
+        <v>5.8</v>
       </c>
       <c r="L17" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>3.75</v>
+        <v>2.42</v>
       </c>
       <c r="O17" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="P17" t="n">
-        <v>1.97</v>
+        <v>2.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.96</v>
+        <v>1.64</v>
       </c>
       <c r="R17" t="n">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="S17" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W17" t="n">
         <v>3.25</v>
       </c>
-      <c r="T17" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1.49</v>
-      </c>
       <c r="X17" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AD17" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -2813,125 +2813,260 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Queretaro</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Tijuana</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X18" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2026-01-14</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>22:05:00</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>CF America</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>Atletico San Luis</t>
         </is>
       </c>
-      <c r="F18" t="n">
+      <c r="F19" t="n">
         <v>1.41</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G19" t="n">
         <v>1.47</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H19" t="n">
         <v>7.8</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I19" t="n">
         <v>11</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J19" t="n">
         <v>5</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K19" t="n">
         <v>5.8</v>
       </c>
-      <c r="L18" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M18" t="n">
+      <c r="L19" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M19" t="n">
         <v>1.03</v>
       </c>
-      <c r="N18" t="n">
+      <c r="N19" t="n">
         <v>4.8</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O19" t="n">
         <v>1.21</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P19" t="n">
         <v>2.38</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q19" t="n">
         <v>1.62</v>
       </c>
-      <c r="R18" t="n">
+      <c r="R19" t="n">
         <v>1.55</v>
       </c>
-      <c r="S18" t="n">
+      <c r="S19" t="n">
         <v>2.56</v>
       </c>
-      <c r="T18" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="U18" t="n">
+      <c r="T19" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U19" t="n">
         <v>1.96</v>
       </c>
-      <c r="V18" t="n">
+      <c r="V19" t="n">
         <v>1.1</v>
       </c>
-      <c r="W18" t="n">
+      <c r="W19" t="n">
         <v>3.1</v>
       </c>
-      <c r="X18" t="n">
-        <v>28</v>
-      </c>
-      <c r="Y18" t="n">
+      <c r="X19" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y19" t="n">
         <v>38</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="Z19" t="n">
         <v>90</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AA19" t="n">
         <v>300</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AB19" t="n">
         <v>12</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AC19" t="n">
         <v>14.5</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AD19" t="n">
         <v>38</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AE19" t="n">
         <v>140</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AF19" t="n">
         <v>11.5</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AG19" t="n">
         <v>12.5</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AH19" t="n">
         <v>29</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AI19" t="n">
         <v>120</v>
       </c>
-      <c r="AJ18" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK18" t="n">
+      <c r="AJ19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK19" t="n">
         <v>18</v>
       </c>
-      <c r="AL18" t="n">
+      <c r="AL19" t="n">
         <v>40</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AM19" t="n">
         <v>140</v>
       </c>
-      <c r="AN18" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO18" t="n">
+      <c r="AN19" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AO19" t="n">
         <v>160</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO19"/>
+  <dimension ref="A1:AO21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -679,67 +679,67 @@
         <v>2.08</v>
       </c>
       <c r="J2" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="K2" t="n">
         <v>3.65</v>
       </c>
       <c r="L2" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O2" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="P2" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="R2" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="S2" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="V2" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="W2" t="n">
         <v>1.3</v>
       </c>
       <c r="X2" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA2" t="n">
         <v>25</v>
       </c>
       <c r="AB2" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AC2" t="n">
         <v>8</v>
       </c>
       <c r="AD2" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE2" t="n">
         <v>24</v>
@@ -751,28 +751,28 @@
         <v>18</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI2" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AL2" t="n">
         <v>70</v>
       </c>
       <c r="AM2" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AN2" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AO2" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -832,13 +832,13 @@
         <v>1.17</v>
       </c>
       <c r="P3" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="Q3" t="n">
         <v>1.17</v>
       </c>
       <c r="R3" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="S3" t="n">
         <v>1.17</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11:45:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al-Quadisiya (KSA)</t>
+          <t>NK Istra</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al-Feiha</t>
+          <t>NK Radomlje</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.47</v>
+        <v>1.04</v>
       </c>
       <c r="G4" t="n">
-        <v>1.57</v>
+        <v>610</v>
       </c>
       <c r="H4" t="n">
-        <v>7.2</v>
+        <v>1.04</v>
       </c>
       <c r="I4" t="n">
-        <v>8.800000000000001</v>
+        <v>870</v>
       </c>
       <c r="J4" t="n">
-        <v>4.3</v>
+        <v>1.02</v>
       </c>
       <c r="K4" t="n">
-        <v>5.1</v>
+        <v>950</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="P4" t="n">
-        <v>2.04</v>
+        <v>1.09</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.79</v>
+        <v>1.21</v>
       </c>
       <c r="R4" t="n">
-        <v>1.4</v>
+        <v>1.08</v>
       </c>
       <c r="S4" t="n">
-        <v>3</v>
+        <v>1.21</v>
       </c>
       <c r="T4" t="n">
-        <v>1.94</v>
+        <v>1.04</v>
       </c>
       <c r="U4" t="n">
-        <v>1.86</v>
+        <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>2.74</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="Y4" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="Z4" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>8.6</v>
+        <v>970</v>
       </c>
       <c r="AC4" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AD4" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AE4" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AH4" t="n">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="AI4" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>11:45:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Al-Quadisiya (KSA)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>St Pauli</t>
+          <t>Al-Feiha</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.99</v>
+        <v>1.47</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="H5" t="n">
-        <v>4.2</v>
+        <v>7.2</v>
       </c>
       <c r="I5" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="J5" t="n">
         <v>4.3</v>
       </c>
-      <c r="J5" t="n">
-        <v>3.75</v>
-      </c>
       <c r="K5" t="n">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="P5" t="n">
-        <v>1.98</v>
+        <v>2.06</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.97</v>
+        <v>1.79</v>
       </c>
       <c r="R5" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="S5" t="n">
-        <v>3.45</v>
+        <v>2.96</v>
       </c>
       <c r="T5" t="n">
-        <v>1.83</v>
+        <v>1.94</v>
       </c>
       <c r="U5" t="n">
-        <v>2.14</v>
+        <v>1.86</v>
       </c>
       <c r="V5" t="n">
-        <v>1.3</v>
+        <v>1.13</v>
       </c>
       <c r="W5" t="n">
-        <v>2</v>
+        <v>2.74</v>
       </c>
       <c r="X5" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.5</v>
+        <v>32</v>
       </c>
       <c r="Z5" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="AA5" t="n">
-        <v>90</v>
+        <v>880</v>
       </c>
       <c r="AB5" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AC5" t="n">
-        <v>8</v>
+        <v>12.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AE5" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="AF5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG5" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>18.5</v>
+        <v>29</v>
       </c>
       <c r="AI5" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="AJ5" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AM5" t="n">
-        <v>100</v>
+        <v>480</v>
       </c>
       <c r="AN5" t="n">
-        <v>14</v>
+        <v>9.4</v>
       </c>
       <c r="AO5" t="n">
-        <v>55</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.35</v>
+        <v>1.08</v>
       </c>
       <c r="G6" t="n">
-        <v>1.36</v>
+        <v>34</v>
       </c>
       <c r="H6" t="n">
-        <v>12.5</v>
+        <v>2.04</v>
       </c>
       <c r="I6" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>5.5</v>
+        <v>1.19</v>
       </c>
       <c r="K6" t="n">
-        <v>5.6</v>
+        <v>34</v>
       </c>
       <c r="L6" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>1.32</v>
+        <v>1.08</v>
       </c>
       <c r="P6" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.96</v>
+        <v>1.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.37</v>
+        <v>2</v>
       </c>
       <c r="S6" t="n">
-        <v>3.6</v>
+        <v>1.66</v>
       </c>
       <c r="T6" t="n">
-        <v>2.48</v>
+        <v>1.04</v>
       </c>
       <c r="U6" t="n">
-        <v>1.63</v>
+        <v>1.04</v>
       </c>
       <c r="V6" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="W6" t="n">
-        <v>3.8</v>
+        <v>1.03</v>
       </c>
       <c r="X6" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="Y6" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="Z6" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>590</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>7</v>
+        <v>970</v>
       </c>
       <c r="AC6" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AD6" t="n">
-        <v>48</v>
+        <v>970</v>
       </c>
       <c r="AE6" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AH6" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="AI6" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>410</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al-Shabab (KSA)</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>NEOM Sports Club</t>
+          <t>St Pauli</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>3.05</v>
+        <v>2.02</v>
       </c>
       <c r="H7" t="n">
-        <v>2.52</v>
+        <v>4.2</v>
       </c>
       <c r="I7" t="n">
-        <v>2.8</v>
+        <v>4.3</v>
       </c>
       <c r="J7" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="K7" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L7" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="O7" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="P7" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.82</v>
+        <v>1.97</v>
       </c>
       <c r="R7" t="n">
         <v>1.38</v>
       </c>
       <c r="S7" t="n">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="T7" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="U7" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="V7" t="n">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="W7" t="n">
-        <v>1.49</v>
+        <v>1.98</v>
       </c>
       <c r="X7" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="Y7" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>23</v>
       </c>
-      <c r="AA7" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE7" t="n">
+      <c r="AK7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL7" t="n">
         <v>36</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>50</v>
       </c>
       <c r="AM7" t="n">
         <v>100</v>
       </c>
       <c r="AN7" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="AO7" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al-Taawoun Buraidah</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.58</v>
+        <v>1.35</v>
       </c>
       <c r="G8" t="n">
-        <v>1.66</v>
+        <v>1.36</v>
       </c>
       <c r="H8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>13</v>
+      </c>
+      <c r="J8" t="n">
         <v>5.5</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="W8" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="X8" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>120</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>590</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>48</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>280</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>230</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>290</v>
+      </c>
+      <c r="AN8" t="n">
         <v>6.6</v>
       </c>
-      <c r="J8" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N8" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="W8" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="X8" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>65</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>10</v>
-      </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sion</t>
+          <t>Al-Shabab (KSA)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>NEOM Sports Club</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.48</v>
+        <v>2.68</v>
       </c>
       <c r="G9" t="n">
-        <v>1.53</v>
+        <v>3.05</v>
       </c>
       <c r="H9" t="n">
-        <v>6.8</v>
+        <v>2.52</v>
       </c>
       <c r="I9" t="n">
-        <v>7.6</v>
+        <v>2.8</v>
       </c>
       <c r="J9" t="n">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
-        <v>5.3</v>
+        <v>3.85</v>
       </c>
       <c r="L9" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>5.3</v>
+        <v>3.8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
       <c r="P9" t="n">
-        <v>2.46</v>
+        <v>1.99</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.62</v>
+        <v>1.82</v>
       </c>
       <c r="R9" t="n">
-        <v>1.59</v>
+        <v>1.38</v>
       </c>
       <c r="S9" t="n">
-        <v>2.44</v>
+        <v>3.05</v>
       </c>
       <c r="T9" t="n">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="U9" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="V9" t="n">
-        <v>1.15</v>
+        <v>1.55</v>
       </c>
       <c r="W9" t="n">
-        <v>2.84</v>
+        <v>1.49</v>
       </c>
       <c r="X9" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN9" t="n">
         <v>30</v>
       </c>
-      <c r="Y9" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>75</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>230</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>970</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>6.4</v>
-      </c>
       <c r="AO9" t="n">
-        <v>110</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Al-Taawoun Buraidah</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.14</v>
+        <v>1.54</v>
       </c>
       <c r="G10" t="n">
-        <v>2.26</v>
+        <v>1.65</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>5.8</v>
       </c>
       <c r="I10" t="n">
-        <v>3.65</v>
+        <v>7</v>
       </c>
       <c r="J10" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="K10" t="n">
-        <v>3.95</v>
+        <v>4.9</v>
       </c>
       <c r="L10" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N10" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O10" t="n">
         <v>1.25</v>
       </c>
-      <c r="M10" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N10" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.2</v>
-      </c>
       <c r="P10" t="n">
-        <v>2.42</v>
+        <v>2.16</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="R10" t="n">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
       <c r="S10" t="n">
-        <v>2.46</v>
+        <v>2.78</v>
       </c>
       <c r="T10" t="n">
-        <v>1.56</v>
+        <v>1.82</v>
       </c>
       <c r="U10" t="n">
-        <v>2.52</v>
+        <v>2.06</v>
       </c>
       <c r="V10" t="n">
-        <v>1.38</v>
+        <v>1.16</v>
       </c>
       <c r="W10" t="n">
-        <v>1.79</v>
+        <v>2.48</v>
       </c>
       <c r="X10" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y10" t="n">
         <v>28</v>
       </c>
-      <c r="Y10" t="n">
-        <v>23</v>
-      </c>
       <c r="Z10" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AA10" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>18.5</v>
+        <v>29</v>
       </c>
       <c r="AE10" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL10" t="n">
         <v>42</v>
       </c>
-      <c r="AF10" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>34</v>
-      </c>
       <c r="AM10" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>13</v>
+        <v>9.4</v>
       </c>
       <c r="AO10" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,127 +1873,127 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Mgladbach</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.91</v>
+        <v>1.48</v>
       </c>
       <c r="G11" t="n">
-        <v>1.92</v>
+        <v>1.53</v>
       </c>
       <c r="H11" t="n">
-        <v>4.1</v>
+        <v>6.8</v>
       </c>
       <c r="I11" t="n">
-        <v>4.3</v>
+        <v>7.6</v>
       </c>
       <c r="J11" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="K11" t="n">
-        <v>4.2</v>
+        <v>5.3</v>
       </c>
       <c r="L11" t="n">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P11" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="R11" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="S11" t="n">
-        <v>2.54</v>
+        <v>2.44</v>
       </c>
       <c r="T11" t="n">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="U11" t="n">
-        <v>2.52</v>
+        <v>2.12</v>
       </c>
       <c r="V11" t="n">
-        <v>1.3</v>
+        <v>1.15</v>
       </c>
       <c r="W11" t="n">
-        <v>2.08</v>
+        <v>2.84</v>
       </c>
       <c r="X11" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Y11" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="Z11" t="n">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="AA11" t="n">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="AB11" t="n">
         <v>13</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.6</v>
+        <v>14</v>
       </c>
       <c r="AD11" t="n">
-        <v>16.5</v>
+        <v>34</v>
       </c>
       <c r="AE11" t="n">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="AF11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG11" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AI11" t="n">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="AJ11" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AK11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL11" t="n">
-        <v>26</v>
+        <v>970</v>
       </c>
       <c r="AM11" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="AN11" t="n">
-        <v>8.800000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="AO11" t="n">
-        <v>32</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>12.5</v>
+        <v>2.14</v>
       </c>
       <c r="G12" t="n">
-        <v>13</v>
+        <v>2.26</v>
       </c>
       <c r="H12" t="n">
-        <v>1.25</v>
+        <v>3.3</v>
       </c>
       <c r="I12" t="n">
-        <v>1.26</v>
+        <v>3.6</v>
       </c>
       <c r="J12" t="n">
-        <v>8</v>
+        <v>3.75</v>
       </c>
       <c r="K12" t="n">
-        <v>8.199999999999999</v>
+        <v>3.95</v>
       </c>
       <c r="L12" t="n">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>10</v>
+        <v>5.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="P12" t="n">
-        <v>3.95</v>
+        <v>2.42</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.32</v>
+        <v>1.63</v>
       </c>
       <c r="R12" t="n">
-        <v>2.22</v>
+        <v>1.59</v>
       </c>
       <c r="S12" t="n">
-        <v>1.78</v>
+        <v>2.5</v>
       </c>
       <c r="T12" t="n">
-        <v>1.69</v>
+        <v>1.56</v>
       </c>
       <c r="U12" t="n">
-        <v>2.36</v>
+        <v>2.52</v>
       </c>
       <c r="V12" t="n">
-        <v>4.8</v>
+        <v>1.38</v>
       </c>
       <c r="W12" t="n">
-        <v>1.08</v>
+        <v>1.79</v>
       </c>
       <c r="X12" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="Y12" t="n">
-        <v>17.5</v>
+        <v>23</v>
       </c>
       <c r="Z12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC12" t="n">
         <v>11.5</v>
       </c>
-      <c r="AA12" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC12" t="n">
+      <c r="AD12" t="n">
         <v>18.5</v>
       </c>
-      <c r="AD12" t="n">
-        <v>12</v>
-      </c>
       <c r="AE12" t="n">
-        <v>12.5</v>
+        <v>42</v>
       </c>
       <c r="AF12" t="n">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="AG12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI12" t="n">
         <v>46</v>
       </c>
-      <c r="AH12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>24</v>
-      </c>
       <c r="AJ12" t="n">
-        <v>480</v>
+        <v>34</v>
       </c>
       <c r="AK12" t="n">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="AL12" t="n">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="AM12" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AN12" t="n">
-        <v>95</v>
+        <v>13.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>2.92</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
@@ -2143,127 +2143,127 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.82</v>
+        <v>12.5</v>
       </c>
       <c r="G13" t="n">
-        <v>1.83</v>
+        <v>13</v>
       </c>
       <c r="H13" t="n">
-        <v>4.7</v>
+        <v>1.25</v>
       </c>
       <c r="I13" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="J13" t="n">
+        <v>8</v>
+      </c>
+      <c r="K13" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N13" t="n">
+        <v>10</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V13" t="n">
         <v>4.8</v>
       </c>
-      <c r="J13" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N13" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.26</v>
-      </c>
       <c r="W13" t="n">
-        <v>2.2</v>
+        <v>1.08</v>
       </c>
       <c r="X13" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="Y13" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="Z13" t="n">
-        <v>40</v>
+        <v>11.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>100</v>
+        <v>12.5</v>
       </c>
       <c r="AB13" t="n">
+        <v>70</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AD13" t="n">
         <v>12</v>
       </c>
-      <c r="AC13" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>18</v>
-      </c>
       <c r="AE13" t="n">
-        <v>50</v>
+        <v>12.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="AH13" t="n">
-        <v>16.5</v>
+        <v>26</v>
       </c>
       <c r="AI13" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="AJ13" t="n">
-        <v>19.5</v>
+        <v>480</v>
       </c>
       <c r="AK13" t="n">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="AL13" t="n">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="AM13" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="AN13" t="n">
-        <v>8.199999999999999</v>
+        <v>95</v>
       </c>
       <c r="AO13" t="n">
-        <v>40</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Mgladbach</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.15</v>
+        <v>1.92</v>
       </c>
       <c r="G14" t="n">
-        <v>1.16</v>
+        <v>1.93</v>
       </c>
       <c r="H14" t="n">
-        <v>28</v>
+        <v>4.1</v>
       </c>
       <c r="I14" t="n">
-        <v>29</v>
+        <v>4.3</v>
       </c>
       <c r="J14" t="n">
-        <v>9.800000000000001</v>
+        <v>4.1</v>
       </c>
       <c r="K14" t="n">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="L14" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P14" t="n">
-        <v>2.68</v>
+        <v>2.56</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="R14" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S14" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="T14" t="n">
-        <v>2.82</v>
+        <v>1.61</v>
       </c>
       <c r="U14" t="n">
-        <v>1.53</v>
+        <v>2.54</v>
       </c>
       <c r="V14" t="n">
-        <v>1.03</v>
+        <v>1.3</v>
       </c>
       <c r="W14" t="n">
-        <v>7.2</v>
+        <v>2.06</v>
       </c>
       <c r="X14" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AO14" t="n">
         <v>32</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>75</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>370</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>110</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>70</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>520</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>560</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.46</v>
+        <v>1.81</v>
       </c>
       <c r="G15" t="n">
-        <v>1.48</v>
+        <v>1.82</v>
       </c>
       <c r="H15" t="n">
-        <v>9.199999999999999</v>
+        <v>4.7</v>
       </c>
       <c r="I15" t="n">
-        <v>9.4</v>
+        <v>4.8</v>
       </c>
       <c r="J15" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="K15" t="n">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="L15" t="n">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>3.95</v>
+        <v>5.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="P15" t="n">
-        <v>2</v>
+        <v>2.56</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.89</v>
+        <v>1.63</v>
       </c>
       <c r="R15" t="n">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="S15" t="n">
-        <v>3.2</v>
+        <v>2.54</v>
       </c>
       <c r="T15" t="n">
-        <v>2.12</v>
+        <v>1.64</v>
       </c>
       <c r="U15" t="n">
-        <v>1.8</v>
+        <v>2.48</v>
       </c>
       <c r="V15" t="n">
-        <v>1.11</v>
+        <v>1.26</v>
       </c>
       <c r="W15" t="n">
-        <v>3.05</v>
+        <v>2.2</v>
       </c>
       <c r="X15" t="n">
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="Y15" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Z15" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="AA15" t="n">
-        <v>400</v>
+        <v>95</v>
       </c>
       <c r="AB15" t="n">
-        <v>7.8</v>
+        <v>12.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AE15" t="n">
-        <v>160</v>
+        <v>50</v>
       </c>
       <c r="AF15" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AG15" t="n">
         <v>10</v>
       </c>
       <c r="AH15" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="AI15" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="AJ15" t="n">
-        <v>11.5</v>
+        <v>19.5</v>
       </c>
       <c r="AK15" t="n">
         <v>16</v>
       </c>
       <c r="AL15" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="AM15" t="n">
-        <v>190</v>
+        <v>70</v>
       </c>
       <c r="AN15" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO15" t="n">
-        <v>230</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2548,127 +2548,127 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="F16" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H16" t="n">
+        <v>28</v>
+      </c>
+      <c r="I16" t="n">
+        <v>29</v>
+      </c>
+      <c r="J16" t="n">
+        <v>10</v>
+      </c>
+      <c r="K16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N16" t="n">
+        <v>6</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="W16" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="X16" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>75</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>390</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>110</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>70</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>540</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>7.4</v>
       </c>
-      <c r="G16" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>5</v>
-      </c>
-      <c r="K16" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N16" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="V16" t="n">
-        <v>3</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="X16" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>28</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>280</v>
-      </c>
       <c r="AK16" t="n">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="AL16" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AM16" t="n">
-        <v>100</v>
+        <v>560</v>
       </c>
       <c r="AN16" t="n">
-        <v>90</v>
+        <v>3.4</v>
       </c>
       <c r="AO16" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Cruz Azul</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="F17" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H17" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="I17" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K17" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L17" t="n">
         <v>1.39</v>
       </c>
-      <c r="G17" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="H17" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="I17" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="J17" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="K17" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.25</v>
-      </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>2.42</v>
+        <v>3.95</v>
       </c>
       <c r="O17" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="P17" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.64</v>
+        <v>1.9</v>
       </c>
       <c r="R17" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="S17" t="n">
-        <v>2.44</v>
+        <v>3.2</v>
       </c>
       <c r="T17" t="n">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="U17" t="n">
-        <v>1.94</v>
+        <v>1.8</v>
       </c>
       <c r="V17" t="n">
         <v>1.11</v>
       </c>
       <c r="W17" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AC17" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,126 +2813,126 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Queretaro</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Tijuana</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.66</v>
+        <v>7.4</v>
       </c>
       <c r="G18" t="n">
-        <v>2.9</v>
+        <v>7.8</v>
       </c>
       <c r="H18" t="n">
-        <v>2.66</v>
+        <v>1.48</v>
       </c>
       <c r="I18" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="J18" t="n">
-        <v>3.4</v>
+        <v>4.9</v>
       </c>
       <c r="K18" t="n">
-        <v>3.75</v>
+        <v>5.1</v>
       </c>
       <c r="L18" t="n">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="M18" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>3.75</v>
+        <v>5.1</v>
       </c>
       <c r="O18" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="P18" t="n">
-        <v>1.97</v>
+        <v>2.46</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.96</v>
+        <v>1.61</v>
       </c>
       <c r="R18" t="n">
-        <v>1.37</v>
+        <v>1.56</v>
       </c>
       <c r="S18" t="n">
-        <v>3.3</v>
+        <v>2.56</v>
       </c>
       <c r="T18" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="U18" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="V18" t="n">
-        <v>1.52</v>
+        <v>3</v>
       </c>
       <c r="W18" t="n">
-        <v>1.52</v>
+        <v>1.14</v>
       </c>
       <c r="X18" t="n">
-        <v>17.5</v>
+        <v>24</v>
       </c>
       <c r="Y18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA18" t="n">
         <v>14</v>
       </c>
-      <c r="Z18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>55</v>
-      </c>
       <c r="AB18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AE18" t="n">
         <v>14</v>
       </c>
-      <c r="AC18" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>38</v>
-      </c>
       <c r="AF18" t="n">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="AG18" t="n">
-        <v>15.5</v>
+        <v>28</v>
       </c>
       <c r="AH18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI18" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AJ18" t="n">
-        <v>55</v>
+        <v>280</v>
       </c>
       <c r="AK18" t="n">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AL18" t="n">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="AM18" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN18" t="n">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="AO18" t="n">
-        <v>32</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="19">
@@ -2948,125 +2948,395 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>22:05:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>CF America</t>
+          <t>Cruz Azul</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Atletico San Luis</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="G19" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="H19" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="I19" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="J19" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="K19" t="n">
         <v>5.8</v>
       </c>
       <c r="L19" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="O19" t="n">
         <v>1.21</v>
       </c>
       <c r="P19" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="R19" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="S19" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="T19" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="U19" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="V19" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="W19" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="X19" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="Y19" t="n">
         <v>38</v>
       </c>
       <c r="Z19" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AA19" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="AB19" t="n">
         <v>12</v>
       </c>
       <c r="AC19" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AD19" t="n">
         <v>38</v>
       </c>
       <c r="AE19" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AF19" t="n">
         <v>11.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH19" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AI19" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AJ19" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AK19" t="n">
         <v>18</v>
       </c>
       <c r="AL19" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AM19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2026-01-14</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Queretaro</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Tijuana</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X20" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2026-01-14</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>22:05:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>CF America</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Atletico San Luis</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H21" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="I21" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N21" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W21" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="X21" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>300</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE21" t="n">
         <v>140</v>
       </c>
-      <c r="AN19" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AO19" t="n">
+      <c r="AF21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO21" t="n">
         <v>160</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-14.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S2" t="n">
         <v>4.1</v>
       </c>
-      <c r="G2" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S2" t="n">
-        <v>4</v>
-      </c>
       <c r="T2" t="n">
+        <v>2</v>
+      </c>
+      <c r="U2" t="n">
         <v>1.9</v>
       </c>
-      <c r="U2" t="n">
-        <v>1.99</v>
-      </c>
       <c r="V2" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="W2" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="X2" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="Z2" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AB2" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AD2" t="n">
         <v>10.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AF2" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AH2" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AI2" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AK2" t="n">
         <v>75</v>
       </c>
       <c r="AL2" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AM2" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AN2" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AO2" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="3">
@@ -1126,10 +1126,10 @@
         <v>2.74</v>
       </c>
       <c r="X5" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="Y5" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z5" t="n">
         <v>200</v>
@@ -1138,19 +1138,19 @@
         <v>880</v>
       </c>
       <c r="AB5" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC5" t="n">
         <v>12.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AE5" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AF5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG5" t="n">
         <v>12.5</v>
@@ -1159,13 +1159,13 @@
         <v>29</v>
       </c>
       <c r="AI5" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ5" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AL5" t="n">
         <v>44</v>
@@ -1177,7 +1177,7 @@
         <v>9.4</v>
       </c>
       <c r="AO5" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.08</v>
+        <v>2.1</v>
       </c>
       <c r="G6" t="n">
         <v>34</v>
@@ -1216,13 +1216,13 @@
         <v>2.04</v>
       </c>
       <c r="I6" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="J6" t="n">
-        <v>1.19</v>
+        <v>1.03</v>
       </c>
       <c r="K6" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1231,22 +1231,22 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>2.42</v>
       </c>
       <c r="Q6" t="n">
         <v>1.1</v>
       </c>
       <c r="R6" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="S6" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="T6" t="n">
         <v>1.04</v>
@@ -1255,7 +1255,7 @@
         <v>1.04</v>
       </c>
       <c r="V6" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="W6" t="n">
         <v>1.03</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="G7" t="n">
         <v>2.02</v>
@@ -1357,7 +1357,7 @@
         <v>3.75</v>
       </c>
       <c r="K7" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L7" t="n">
         <v>1.39</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="G8" t="n">
         <v>1.36</v>
@@ -1486,7 +1486,7 @@
         <v>12.5</v>
       </c>
       <c r="I8" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="J8" t="n">
         <v>5.5</v>
@@ -1549,7 +1549,7 @@
         <v>12</v>
       </c>
       <c r="AD8" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AE8" t="n">
         <v>280</v>
@@ -1561,7 +1561,7 @@
         <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AI8" t="n">
         <v>230</v>
@@ -1570,7 +1570,7 @@
         <v>9.6</v>
       </c>
       <c r="AK8" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AL8" t="n">
         <v>55</v>
@@ -1579,7 +1579,7 @@
         <v>290</v>
       </c>
       <c r="AN8" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AO8" t="n">
         <v>410</v>
@@ -1618,7 +1618,7 @@
         <v>3.05</v>
       </c>
       <c r="H9" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="I9" t="n">
         <v>2.8</v>
@@ -1630,13 +1630,13 @@
         <v>3.85</v>
       </c>
       <c r="L9" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="M9" t="n">
         <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O9" t="n">
         <v>1.3</v>
@@ -1651,7 +1651,7 @@
         <v>1.38</v>
       </c>
       <c r="S9" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="T9" t="n">
         <v>1.67</v>
@@ -1666,7 +1666,7 @@
         <v>1.49</v>
       </c>
       <c r="X9" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y9" t="n">
         <v>14.5</v>
@@ -1675,13 +1675,13 @@
         <v>23</v>
       </c>
       <c r="AA9" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AB9" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD9" t="n">
         <v>15</v>
@@ -1696,7 +1696,7 @@
         <v>15.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI9" t="n">
         <v>48</v>
@@ -1708,7 +1708,7 @@
         <v>38</v>
       </c>
       <c r="AL9" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM9" t="n">
         <v>100</v>
@@ -1717,7 +1717,7 @@
         <v>30</v>
       </c>
       <c r="AO9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
@@ -1747,31 +1747,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.54</v>
+        <v>1.65</v>
       </c>
       <c r="G10" t="n">
-        <v>1.65</v>
+        <v>1.76</v>
       </c>
       <c r="H10" t="n">
-        <v>5.8</v>
+        <v>5</v>
       </c>
       <c r="I10" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="J10" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="K10" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O10" t="n">
         <v>1.25</v>
@@ -1780,76 +1780,76 @@
         <v>2.16</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="R10" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S10" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="T10" t="n">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="U10" t="n">
         <v>2.06</v>
       </c>
       <c r="V10" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="W10" t="n">
-        <v>2.48</v>
+        <v>2.3</v>
       </c>
       <c r="X10" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y10" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="Z10" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC10" t="n">
         <v>11.5</v>
       </c>
-      <c r="AC10" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AD10" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AE10" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AK10" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM10" t="n">
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1900,7 +1900,7 @@
         <v>5.3</v>
       </c>
       <c r="L11" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
@@ -1936,19 +1936,19 @@
         <v>2.84</v>
       </c>
       <c r="X11" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y11" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Z11" t="n">
         <v>75</v>
       </c>
       <c r="AA11" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="AB11" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC11" t="n">
         <v>14</v>
@@ -1957,37 +1957,37 @@
         <v>34</v>
       </c>
       <c r="AE11" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AF11" t="n">
         <v>13</v>
       </c>
       <c r="AG11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH11" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AI11" t="n">
         <v>95</v>
       </c>
       <c r="AJ11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK11" t="n">
         <v>18</v>
       </c>
       <c r="AL11" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AM11" t="n">
         <v>110</v>
       </c>
       <c r="AN11" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AO11" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="G12" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="H12" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="I12" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J12" t="n">
         <v>3.75</v>
@@ -2035,7 +2035,7 @@
         <v>3.95</v>
       </c>
       <c r="L12" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
@@ -2053,7 +2053,7 @@
         <v>1.63</v>
       </c>
       <c r="R12" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="S12" t="n">
         <v>2.5</v>
@@ -2065,13 +2065,13 @@
         <v>2.52</v>
       </c>
       <c r="V12" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W12" t="n">
         <v>1.79</v>
       </c>
       <c r="X12" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Y12" t="n">
         <v>23</v>
@@ -2089,19 +2089,19 @@
         <v>11.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE12" t="n">
         <v>42</v>
       </c>
       <c r="AF12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG12" t="n">
         <v>14</v>
       </c>
       <c r="AH12" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI12" t="n">
         <v>46</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="G13" t="n">
         <v>13</v>
@@ -2167,7 +2167,7 @@
         <v>8</v>
       </c>
       <c r="K13" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="L13" t="n">
         <v>1.17</v>
@@ -2188,10 +2188,10 @@
         <v>1.32</v>
       </c>
       <c r="R13" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="S13" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="T13" t="n">
         <v>1.69</v>
@@ -2206,10 +2206,10 @@
         <v>1.08</v>
       </c>
       <c r="X13" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Y13" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Z13" t="n">
         <v>11.5</v>
@@ -2239,7 +2239,7 @@
         <v>26</v>
       </c>
       <c r="AI13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ13" t="n">
         <v>480</v>
@@ -2293,7 +2293,7 @@
         <v>1.93</v>
       </c>
       <c r="H14" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I14" t="n">
         <v>4.3</v>
@@ -2305,34 +2305,34 @@
         <v>4.2</v>
       </c>
       <c r="L14" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M14" t="n">
         <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P14" t="n">
-        <v>2.56</v>
+        <v>2.42</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="R14" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="S14" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="T14" t="n">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="U14" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="V14" t="n">
         <v>1.3</v>
@@ -2341,37 +2341,37 @@
         <v>2.06</v>
       </c>
       <c r="X14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z14" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA14" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB14" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD14" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE14" t="n">
         <v>42</v>
       </c>
       <c r="AF14" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI14" t="n">
         <v>44</v>
@@ -2380,19 +2380,19 @@
         <v>22</v>
       </c>
       <c r="AK14" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM14" t="n">
         <v>65</v>
       </c>
       <c r="AN14" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AO14" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G15" t="n">
         <v>1.81</v>
       </c>
-      <c r="G15" t="n">
-        <v>1.82</v>
-      </c>
       <c r="H15" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I15" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J15" t="n">
         <v>4.1</v>
@@ -2470,10 +2470,10 @@
         <v>2.48</v>
       </c>
       <c r="V15" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W15" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="X15" t="n">
         <v>22</v>
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="G16" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="H16" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I16" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J16" t="n">
         <v>10</v>
@@ -2575,34 +2575,34 @@
         <v>10.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M16" t="n">
         <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="O16" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P16" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="R16" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="S16" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="T16" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="U16" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="V16" t="n">
         <v>1.03</v>
@@ -2611,22 +2611,22 @@
         <v>7.2</v>
       </c>
       <c r="X16" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Y16" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Z16" t="n">
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="AA16" t="n">
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC16" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AD16" t="n">
         <v>110</v>
@@ -2635,22 +2635,22 @@
         <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AG16" t="n">
         <v>14.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AI16" t="n">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="AJ16" t="n">
         <v>7.4</v>
       </c>
       <c r="AK16" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AL16" t="n">
         <v>70</v>
@@ -2659,7 +2659,7 @@
         <v>560</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2716,7 +2716,7 @@
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="O17" t="n">
         <v>1.3</v>
@@ -2833,7 +2833,7 @@
         <v>7.8</v>
       </c>
       <c r="H18" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="I18" t="n">
         <v>1.5</v>
@@ -2884,7 +2884,7 @@
         <v>24</v>
       </c>
       <c r="Y18" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z18" t="n">
         <v>11</v>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="G19" t="n">
         <v>1.42</v>
@@ -2983,28 +2983,28 @@
         <v>1.31</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="O19" t="n">
         <v>1.21</v>
       </c>
       <c r="P19" t="n">
-        <v>2.42</v>
+        <v>2.54</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R19" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S19" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="T19" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="U19" t="n">
         <v>1.95</v>
@@ -3016,55 +3016,55 @@
         <v>3.3</v>
       </c>
       <c r="X19" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Y19" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z19" t="n">
         <v>100</v>
       </c>
       <c r="AA19" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="AB19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC19" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AE19" t="n">
         <v>150</v>
       </c>
       <c r="AF19" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH19" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI19" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ19" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL19" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM19" t="n">
         <v>150</v>
       </c>
       <c r="AN19" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3112,28 +3112,28 @@
         <v>3.4</v>
       </c>
       <c r="K20" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L20" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M20" t="n">
         <v>1.06</v>
       </c>
       <c r="N20" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O20" t="n">
         <v>1.31</v>
       </c>
       <c r="P20" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="Q20" t="n">
         <v>1.96</v>
       </c>
       <c r="R20" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S20" t="n">
         <v>3.3</v>
@@ -3142,7 +3142,7 @@
         <v>1.72</v>
       </c>
       <c r="U20" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V20" t="n">
         <v>1.53</v>
@@ -3151,19 +3151,19 @@
         <v>1.52</v>
       </c>
       <c r="X20" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="Y20" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA20" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AB20" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC20" t="n">
         <v>9.800000000000001</v>
@@ -3172,37 +3172,37 @@
         <v>13.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG20" t="n">
         <v>13.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AJ20" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AK20" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL20" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AM20" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AN20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO20" t="n">
         <v>32</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="21">
@@ -3241,7 +3241,7 @@
         <v>7.8</v>
       </c>
       <c r="I21" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="J21" t="n">
         <v>4.9</v>
@@ -3280,7 +3280,7 @@
         <v>1.99</v>
       </c>
       <c r="V21" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W21" t="n">
         <v>3.05</v>
@@ -3328,7 +3328,7 @@
         <v>18</v>
       </c>
       <c r="AL21" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AM21" t="n">
         <v>150</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO21"/>
+  <dimension ref="A1:AO22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,13 +691,13 @@
         <v>1.09</v>
       </c>
       <c r="N2" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O2" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P2" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="Q2" t="n">
         <v>2.2</v>
@@ -709,22 +709,22 @@
         <v>4.1</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U2" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V2" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="W2" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="X2" t="n">
         <v>12</v>
       </c>
       <c r="Y2" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Z2" t="n">
         <v>10.5</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="AB2" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD2" t="n">
         <v>10.5</v>
@@ -745,16 +745,16 @@
         <v>22</v>
       </c>
       <c r="AF2" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AJ2" t="n">
         <v>130</v>
@@ -826,19 +826,19 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="O3" t="n">
         <v>1.17</v>
       </c>
       <c r="P3" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="Q3" t="n">
         <v>1.17</v>
       </c>
       <c r="R3" t="n">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="S3" t="n">
         <v>1.17</v>
@@ -961,19 +961,19 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="O4" t="n">
         <v>1.21</v>
       </c>
       <c r="P4" t="n">
-        <v>1.09</v>
+        <v>1.24</v>
       </c>
       <c r="Q4" t="n">
         <v>1.21</v>
       </c>
       <c r="R4" t="n">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="S4" t="n">
         <v>1.21</v>
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="G5" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H5" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="I5" t="n">
         <v>8.6</v>
       </c>
       <c r="J5" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K5" t="n">
         <v>5</v>
@@ -1093,7 +1093,7 @@
         <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
         <v>4</v>
@@ -1123,7 +1123,7 @@
         <v>1.13</v>
       </c>
       <c r="W5" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="X5" t="n">
         <v>970</v>
@@ -1138,10 +1138,10 @@
         <v>880</v>
       </c>
       <c r="AB5" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
         <v>36</v>
@@ -1153,10 +1153,10 @@
         <v>10.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI5" t="n">
         <v>120</v>
@@ -1165,16 +1165,16 @@
         <v>14.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AL5" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM5" t="n">
         <v>480</v>
       </c>
       <c r="AN5" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AO5" t="n">
         <v>180</v>
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="G6" t="n">
-        <v>34</v>
+        <v>4.5</v>
       </c>
       <c r="H6" t="n">
         <v>2.04</v>
       </c>
       <c r="I6" t="n">
-        <v>22</v>
+        <v>2.12</v>
       </c>
       <c r="J6" t="n">
-        <v>1.03</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
         <v>25</v>
@@ -1231,34 +1231,34 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>2.3</v>
+        <v>3.05</v>
       </c>
       <c r="O6" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="P6" t="n">
-        <v>2.42</v>
+        <v>3.05</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.1</v>
+        <v>1.37</v>
       </c>
       <c r="R6" t="n">
-        <v>2.3</v>
+        <v>2.04</v>
       </c>
       <c r="S6" t="n">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="T6" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U6" t="n">
         <v>1.04</v>
       </c>
       <c r="V6" t="n">
-        <v>1.04</v>
+        <v>1.89</v>
       </c>
       <c r="W6" t="n">
-        <v>1.03</v>
+        <v>1.28</v>
       </c>
       <c r="X6" t="n">
         <v>970</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
         <v>2.02</v>
@@ -1366,13 +1366,13 @@
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="O7" t="n">
         <v>1.32</v>
       </c>
       <c r="P7" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="Q7" t="n">
         <v>1.97</v>
@@ -1480,7 +1480,7 @@
         <v>1.34</v>
       </c>
       <c r="G8" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="H8" t="n">
         <v>12.5</v>
@@ -1489,10 +1489,10 @@
         <v>13.5</v>
       </c>
       <c r="J8" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="K8" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="L8" t="n">
         <v>1.38</v>
@@ -1507,10 +1507,10 @@
         <v>1.32</v>
       </c>
       <c r="P8" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R8" t="n">
         <v>1.37</v>
@@ -1528,7 +1528,7 @@
         <v>1.08</v>
       </c>
       <c r="W8" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="X8" t="n">
         <v>16</v>
@@ -1549,7 +1549,7 @@
         <v>12</v>
       </c>
       <c r="AD8" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AE8" t="n">
         <v>280</v>
@@ -1561,7 +1561,7 @@
         <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AI8" t="n">
         <v>230</v>
@@ -1630,7 +1630,7 @@
         <v>3.85</v>
       </c>
       <c r="L9" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="M9" t="n">
         <v>1.06</v>
@@ -1651,7 +1651,7 @@
         <v>1.38</v>
       </c>
       <c r="S9" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="T9" t="n">
         <v>1.67</v>
@@ -1669,13 +1669,13 @@
         <v>18.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AB9" t="n">
         <v>13.5</v>
@@ -1687,7 +1687,7 @@
         <v>15</v>
       </c>
       <c r="AE9" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AF9" t="n">
         <v>24</v>
@@ -1696,16 +1696,16 @@
         <v>15.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ9" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AK9" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL9" t="n">
         <v>48</v>
@@ -1717,7 +1717,7 @@
         <v>30</v>
       </c>
       <c r="AO9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
@@ -1750,7 +1750,7 @@
         <v>1.65</v>
       </c>
       <c r="G10" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="H10" t="n">
         <v>5</v>
@@ -1759,7 +1759,7 @@
         <v>6.2</v>
       </c>
       <c r="J10" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
         <v>4.4</v>
@@ -1798,7 +1798,7 @@
         <v>1.19</v>
       </c>
       <c r="W10" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="X10" t="n">
         <v>21</v>
@@ -1843,7 +1843,7 @@
         <v>18.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
         <v>1000</v>
@@ -1885,7 +1885,7 @@
         <v>1.48</v>
       </c>
       <c r="G11" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="H11" t="n">
         <v>6.8</v>
@@ -1897,7 +1897,7 @@
         <v>4.7</v>
       </c>
       <c r="K11" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L11" t="n">
         <v>1.25</v>
@@ -1927,7 +1927,7 @@
         <v>1.72</v>
       </c>
       <c r="U11" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V11" t="n">
         <v>1.15</v>
@@ -1939,7 +1939,7 @@
         <v>28</v>
       </c>
       <c r="Y11" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Z11" t="n">
         <v>75</v>
@@ -1948,10 +1948,10 @@
         <v>210</v>
       </c>
       <c r="AB11" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD11" t="n">
         <v>34</v>
@@ -1963,28 +1963,28 @@
         <v>13</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AI11" t="n">
         <v>95</v>
       </c>
       <c r="AJ11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK11" t="n">
         <v>18</v>
       </c>
       <c r="AL11" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM11" t="n">
         <v>110</v>
       </c>
       <c r="AN11" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="AO11" t="n">
         <v>100</v>
@@ -2017,28 +2017,28 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="G12" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="H12" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I12" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J12" t="n">
         <v>3.75</v>
       </c>
       <c r="K12" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L12" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
         <v>5.2</v>
@@ -2065,10 +2065,10 @@
         <v>2.52</v>
       </c>
       <c r="V12" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W12" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="X12" t="n">
         <v>26</v>
@@ -2083,7 +2083,7 @@
         <v>70</v>
       </c>
       <c r="AB12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC12" t="n">
         <v>11.5</v>
@@ -2116,7 +2116,7 @@
         <v>36</v>
       </c>
       <c r="AM12" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AN12" t="n">
         <v>13.5</v>
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Mgladbach</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>12</v>
+        <v>1.91</v>
       </c>
       <c r="G13" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N13" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W13" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="X13" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>85</v>
+      </c>
+      <c r="AB13" t="n">
         <v>13</v>
       </c>
-      <c r="H13" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="J13" t="n">
-        <v>8</v>
-      </c>
-      <c r="K13" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N13" t="n">
-        <v>10</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V13" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="X13" t="n">
-        <v>55</v>
-      </c>
-      <c r="Y13" t="n">
+      <c r="AC13" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD13" t="n">
         <v>17.5</v>
       </c>
-      <c r="Z13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>70</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>12</v>
-      </c>
       <c r="AE13" t="n">
-        <v>12.5</v>
+        <v>42</v>
       </c>
       <c r="AF13" t="n">
-        <v>170</v>
+        <v>13.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="AI13" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="AJ13" t="n">
-        <v>480</v>
+        <v>22</v>
       </c>
       <c r="AK13" t="n">
-        <v>150</v>
+        <v>17.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="AM13" t="n">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="AN13" t="n">
-        <v>95</v>
+        <v>8.6</v>
       </c>
       <c r="AO13" t="n">
-        <v>2.9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Mgladbach</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.92</v>
+        <v>13</v>
       </c>
       <c r="G14" t="n">
-        <v>1.93</v>
+        <v>14</v>
       </c>
       <c r="H14" t="n">
-        <v>4.2</v>
+        <v>1.25</v>
       </c>
       <c r="I14" t="n">
-        <v>4.3</v>
+        <v>1.26</v>
       </c>
       <c r="J14" t="n">
-        <v>4.1</v>
+        <v>7.6</v>
       </c>
       <c r="K14" t="n">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.31</v>
+        <v>1.17</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>5.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O14" t="n">
-        <v>1.21</v>
+        <v>1.1</v>
       </c>
       <c r="P14" t="n">
-        <v>2.42</v>
+        <v>3.9</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.65</v>
+        <v>1.32</v>
       </c>
       <c r="R14" t="n">
-        <v>1.59</v>
+        <v>2.22</v>
       </c>
       <c r="S14" t="n">
-        <v>2.58</v>
+        <v>1.77</v>
       </c>
       <c r="T14" t="n">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="U14" t="n">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="V14" t="n">
-        <v>1.3</v>
+        <v>4.8</v>
       </c>
       <c r="W14" t="n">
-        <v>2.06</v>
+        <v>1.07</v>
       </c>
       <c r="X14" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="Y14" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="AA14" t="n">
-        <v>85</v>
+        <v>12.5</v>
       </c>
       <c r="AB14" t="n">
+        <v>70</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE14" t="n">
         <v>12.5</v>
       </c>
-      <c r="AC14" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>42</v>
-      </c>
       <c r="AF14" t="n">
-        <v>13.5</v>
+        <v>140</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="AH14" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="AI14" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="AJ14" t="n">
-        <v>22</v>
+        <v>490</v>
       </c>
       <c r="AK14" t="n">
-        <v>17.5</v>
+        <v>160</v>
       </c>
       <c r="AL14" t="n">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="AM14" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="AN14" t="n">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="AO14" t="n">
-        <v>34</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="15">
@@ -2422,10 +2422,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="G15" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="H15" t="n">
         <v>4.8</v>
@@ -2452,10 +2452,10 @@
         <v>1.2</v>
       </c>
       <c r="P15" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R15" t="n">
         <v>1.61</v>
@@ -2467,19 +2467,19 @@
         <v>1.64</v>
       </c>
       <c r="U15" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="V15" t="n">
         <v>1.25</v>
       </c>
       <c r="W15" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="X15" t="n">
         <v>22</v>
       </c>
       <c r="Y15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z15" t="n">
         <v>40</v>
@@ -2566,13 +2566,13 @@
         <v>26</v>
       </c>
       <c r="I16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J16" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="K16" t="n">
         <v>10</v>
-      </c>
-      <c r="K16" t="n">
-        <v>10.5</v>
       </c>
       <c r="L16" t="n">
         <v>1.27</v>
@@ -2587,13 +2587,13 @@
         <v>1.19</v>
       </c>
       <c r="P16" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R16" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="S16" t="n">
         <v>2.52</v>
@@ -2608,7 +2608,7 @@
         <v>1.03</v>
       </c>
       <c r="W16" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="X16" t="n">
         <v>29</v>
@@ -2623,7 +2623,7 @@
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC16" t="n">
         <v>22</v>
@@ -2647,7 +2647,7 @@
         <v>520</v>
       </c>
       <c r="AJ16" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AK16" t="n">
         <v>16.5</v>
@@ -2707,16 +2707,16 @@
         <v>4.6</v>
       </c>
       <c r="K17" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L17" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O17" t="n">
         <v>1.3</v>
@@ -2731,7 +2731,7 @@
         <v>1.38</v>
       </c>
       <c r="S17" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T17" t="n">
         <v>2.1</v>
@@ -2743,10 +2743,10 @@
         <v>1.11</v>
       </c>
       <c r="W17" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="X17" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y17" t="n">
         <v>27</v>
@@ -2782,13 +2782,13 @@
         <v>150</v>
       </c>
       <c r="AJ17" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AK17" t="n">
         <v>16</v>
       </c>
       <c r="AL17" t="n">
-        <v>970</v>
+        <v>48</v>
       </c>
       <c r="AM17" t="n">
         <v>190</v>
@@ -2830,7 +2830,7 @@
         <v>7.4</v>
       </c>
       <c r="G18" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="H18" t="n">
         <v>1.49</v>
@@ -2839,7 +2839,7 @@
         <v>1.5</v>
       </c>
       <c r="J18" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K18" t="n">
         <v>5.1</v>
@@ -2860,7 +2860,7 @@
         <v>2.46</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R18" t="n">
         <v>1.56</v>
@@ -2878,10 +2878,10 @@
         <v>3</v>
       </c>
       <c r="W18" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="X18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y18" t="n">
         <v>10.5</v>
@@ -2896,7 +2896,7 @@
         <v>980</v>
       </c>
       <c r="AC18" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD18" t="n">
         <v>9.6</v>
@@ -2908,10 +2908,10 @@
         <v>65</v>
       </c>
       <c r="AG18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI18" t="n">
         <v>980</v>
@@ -2938,7 +2938,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,123 +2948,123 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Cruz Azul</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.4</v>
+        <v>1.04</v>
       </c>
       <c r="G19" t="n">
-        <v>1.42</v>
+        <v>1000</v>
       </c>
       <c r="H19" t="n">
-        <v>8.4</v>
+        <v>1.04</v>
       </c>
       <c r="I19" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="J19" t="n">
-        <v>5.3</v>
+        <v>1.02</v>
       </c>
       <c r="K19" t="n">
-        <v>5.8</v>
+        <v>1000</v>
       </c>
       <c r="L19" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>5.3</v>
+        <v>1.25</v>
       </c>
       <c r="O19" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="P19" t="n">
-        <v>2.54</v>
+        <v>1.24</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.63</v>
+        <v>1.02</v>
       </c>
       <c r="R19" t="n">
-        <v>1.57</v>
+        <v>1.18</v>
       </c>
       <c r="S19" t="n">
-        <v>2.62</v>
+        <v>1.41</v>
       </c>
       <c r="T19" t="n">
-        <v>1.91</v>
+        <v>1.01</v>
       </c>
       <c r="U19" t="n">
-        <v>1.95</v>
+        <v>1.01</v>
       </c>
       <c r="V19" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="W19" t="n">
-        <v>3.3</v>
+        <v>1.01</v>
       </c>
       <c r="X19" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
-        <v>320</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AD19" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3083,126 +3083,126 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Queretaro</t>
+          <t>Cruz Azul</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Tijuana</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.74</v>
+        <v>1.4</v>
       </c>
       <c r="G20" t="n">
-        <v>2.9</v>
+        <v>1.42</v>
       </c>
       <c r="H20" t="n">
-        <v>2.7</v>
+        <v>8.4</v>
       </c>
       <c r="I20" t="n">
-        <v>2.88</v>
+        <v>9.4</v>
       </c>
       <c r="J20" t="n">
-        <v>3.4</v>
+        <v>5.2</v>
       </c>
       <c r="K20" t="n">
-        <v>3.8</v>
+        <v>5.8</v>
       </c>
       <c r="L20" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>3.85</v>
+        <v>5.3</v>
       </c>
       <c r="O20" t="n">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="P20" t="n">
-        <v>1.99</v>
+        <v>2.54</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.96</v>
+        <v>1.63</v>
       </c>
       <c r="R20" t="n">
-        <v>1.38</v>
+        <v>1.57</v>
       </c>
       <c r="S20" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W20" t="n">
         <v>3.3</v>
       </c>
-      <c r="T20" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.52</v>
-      </c>
       <c r="X20" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="Y20" t="n">
+        <v>36</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>320</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC20" t="n">
         <v>13.5</v>
       </c>
-      <c r="Z20" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>44</v>
-      </c>
-      <c r="AB20" t="n">
+      <c r="AD20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>13.5</v>
       </c>
-      <c r="AC20" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH20" t="n">
+      <c r="AK20" t="n">
         <v>17.5</v>
       </c>
-      <c r="AI20" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>48</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>36</v>
-      </c>
       <c r="AL20" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AM20" t="n">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="AN20" t="n">
-        <v>29</v>
+        <v>6.4</v>
       </c>
       <c r="AO20" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
@@ -3218,125 +3218,260 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Queretaro</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Tijuana</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X21" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>42</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2026-01-14</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>22:05:00</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>CF America</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>Atletico San Luis</t>
         </is>
       </c>
-      <c r="F21" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="G21" t="n">
+      <c r="F22" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G22" t="n">
         <v>1.48</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H22" t="n">
         <v>7.8</v>
       </c>
-      <c r="I21" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="J21" t="n">
+      <c r="I22" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="J22" t="n">
         <v>4.9</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K22" t="n">
         <v>5.5</v>
       </c>
-      <c r="L21" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M21" t="n">
+      <c r="L22" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M22" t="n">
         <v>1.03</v>
       </c>
-      <c r="N21" t="n">
+      <c r="N22" t="n">
         <v>4.8</v>
       </c>
-      <c r="O21" t="n">
+      <c r="O22" t="n">
         <v>1.21</v>
       </c>
-      <c r="P21" t="n">
+      <c r="P22" t="n">
         <v>2.38</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q22" t="n">
         <v>1.62</v>
       </c>
-      <c r="R21" t="n">
+      <c r="R22" t="n">
         <v>1.54</v>
       </c>
-      <c r="S21" t="n">
+      <c r="S22" t="n">
         <v>2.56</v>
       </c>
-      <c r="T21" t="n">
+      <c r="T22" t="n">
         <v>1.88</v>
       </c>
-      <c r="U21" t="n">
+      <c r="U22" t="n">
         <v>1.99</v>
       </c>
-      <c r="V21" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="W21" t="n">
+      <c r="V22" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W22" t="n">
         <v>3.05</v>
       </c>
-      <c r="X21" t="n">
+      <c r="X22" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>300</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH22" t="n">
         <v>28</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="AI22" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL22" t="n">
         <v>36</v>
       </c>
-      <c r="Z21" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>300</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>38</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM21" t="n">
+      <c r="AM22" t="n">
         <v>150</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AN22" t="n">
         <v>7</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AO22" t="n">
         <v>160</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-14.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="H2" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="I2" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="J2" t="n">
         <v>3.7</v>
@@ -703,28 +703,28 @@
         <v>2.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S2" t="n">
         <v>4.1</v>
       </c>
       <c r="T2" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U2" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V2" t="n">
         <v>2.12</v>
       </c>
       <c r="W2" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="X2" t="n">
         <v>12</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Z2" t="n">
         <v>10.5</v>
@@ -733,7 +733,7 @@
         <v>20</v>
       </c>
       <c r="AB2" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC2" t="n">
         <v>8.199999999999999</v>
@@ -748,31 +748,31 @@
         <v>38</v>
       </c>
       <c r="AG2" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AH2" t="n">
         <v>23</v>
       </c>
       <c r="AI2" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AJ2" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AL2" t="n">
         <v>85</v>
       </c>
       <c r="AM2" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN2" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AO2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -802,31 +802,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="G3" t="n">
         <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="I3" t="n">
         <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>1.04</v>
+        <v>3.65</v>
       </c>
       <c r="K3" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="O3" t="n">
         <v>1.17</v>
@@ -844,16 +844,16 @@
         <v>1.17</v>
       </c>
       <c r="T3" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U3" t="n">
         <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="X3" t="n">
         <v>970</v>
@@ -940,7 +940,7 @@
         <v>1.04</v>
       </c>
       <c r="G4" t="n">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="H4" t="n">
         <v>1.04</v>
@@ -949,7 +949,7 @@
         <v>870</v>
       </c>
       <c r="J4" t="n">
-        <v>1.02</v>
+        <v>3.6</v>
       </c>
       <c r="K4" t="n">
         <v>950</v>
@@ -958,22 +958,22 @@
         <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="O4" t="n">
         <v>1.21</v>
       </c>
       <c r="P4" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="Q4" t="n">
         <v>1.21</v>
       </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S4" t="n">
         <v>1.21</v>
@@ -985,10 +985,10 @@
         <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="X4" t="n">
         <v>970</v>
@@ -1075,13 +1075,13 @@
         <v>1.46</v>
       </c>
       <c r="G5" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H5" t="n">
         <v>7.4</v>
       </c>
       <c r="I5" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J5" t="n">
         <v>4.4</v>
@@ -1090,7 +1090,7 @@
         <v>5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1099,10 +1099,10 @@
         <v>4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P5" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="Q5" t="n">
         <v>1.79</v>
@@ -1111,10 +1111,10 @@
         <v>1.41</v>
       </c>
       <c r="S5" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="U5" t="n">
         <v>1.86</v>
@@ -1123,7 +1123,7 @@
         <v>1.13</v>
       </c>
       <c r="W5" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="X5" t="n">
         <v>970</v>
@@ -1138,7 +1138,7 @@
         <v>880</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC5" t="n">
         <v>11</v>
@@ -1150,7 +1150,7 @@
         <v>140</v>
       </c>
       <c r="AF5" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG5" t="n">
         <v>11</v>
@@ -1162,7 +1162,7 @@
         <v>120</v>
       </c>
       <c r="AJ5" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
         <v>980</v>
@@ -1174,7 +1174,7 @@
         <v>480</v>
       </c>
       <c r="AN5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO5" t="n">
         <v>180</v>
@@ -1219,37 +1219,37 @@
         <v>2.12</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="K6" t="n">
-        <v>25</v>
+        <v>950</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="O6" t="n">
         <v>1.13</v>
       </c>
       <c r="P6" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="R6" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="S6" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="T6" t="n">
-        <v>1.05</v>
+        <v>1.31</v>
       </c>
       <c r="U6" t="n">
         <v>1.04</v>
@@ -1258,7 +1258,7 @@
         <v>1.89</v>
       </c>
       <c r="W6" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="X6" t="n">
         <v>970</v>
@@ -1357,13 +1357,13 @@
         <v>3.75</v>
       </c>
       <c r="K7" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L7" t="n">
         <v>1.39</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
         <v>3.9</v>
@@ -1372,16 +1372,16 @@
         <v>1.32</v>
       </c>
       <c r="P7" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q7" t="n">
         <v>1.96</v>
       </c>
-      <c r="Q7" t="n">
-        <v>1.97</v>
-      </c>
       <c r="R7" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S7" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T7" t="n">
         <v>1.83</v>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="G8" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="H8" t="n">
         <v>12.5</v>
@@ -1489,10 +1489,10 @@
         <v>13.5</v>
       </c>
       <c r="J8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K8" t="n">
         <v>5.6</v>
-      </c>
-      <c r="K8" t="n">
-        <v>5.7</v>
       </c>
       <c r="L8" t="n">
         <v>1.38</v>
@@ -1501,22 +1501,22 @@
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P8" t="n">
         <v>2</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="R8" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S8" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="T8" t="n">
         <v>2.48</v>
@@ -1531,16 +1531,16 @@
         <v>3.85</v>
       </c>
       <c r="X8" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Z8" t="n">
         <v>120</v>
       </c>
       <c r="AA8" t="n">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="AB8" t="n">
         <v>7</v>
@@ -1564,7 +1564,7 @@
         <v>38</v>
       </c>
       <c r="AI8" t="n">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="AJ8" t="n">
         <v>9.6</v>
@@ -1579,10 +1579,10 @@
         <v>290</v>
       </c>
       <c r="AN8" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AO8" t="n">
-        <v>410</v>
+        <v>490</v>
       </c>
     </row>
     <row r="9">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="G9" t="n">
         <v>3.05</v>
@@ -1621,13 +1621,13 @@
         <v>2.54</v>
       </c>
       <c r="I9" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="J9" t="n">
         <v>3.4</v>
       </c>
       <c r="K9" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L9" t="n">
         <v>1.33</v>
@@ -1636,7 +1636,7 @@
         <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O9" t="n">
         <v>1.3</v>
@@ -1660,16 +1660,16 @@
         <v>2.22</v>
       </c>
       <c r="V9" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="W9" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="X9" t="n">
         <v>18.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z9" t="n">
         <v>19.5</v>
@@ -1678,7 +1678,7 @@
         <v>980</v>
       </c>
       <c r="AB9" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC9" t="n">
         <v>9.800000000000001</v>
@@ -1693,10 +1693,10 @@
         <v>24</v>
       </c>
       <c r="AG9" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AI9" t="n">
         <v>46</v>
@@ -1705,19 +1705,19 @@
         <v>46</v>
       </c>
       <c r="AK9" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AL9" t="n">
         <v>48</v>
       </c>
       <c r="AM9" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AN9" t="n">
         <v>30</v>
       </c>
       <c r="AO9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="G10" t="n">
         <v>1.78</v>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="I10" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J10" t="n">
         <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L10" t="n">
         <v>1.29</v>
@@ -1771,7 +1771,7 @@
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="O10" t="n">
         <v>1.25</v>
@@ -1780,19 +1780,19 @@
         <v>2.16</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R10" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="S10" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="T10" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="U10" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="V10" t="n">
         <v>1.19</v>
@@ -1801,46 +1801,46 @@
         <v>2.28</v>
       </c>
       <c r="X10" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="Y10" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AC10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF10" t="n">
         <v>11.5</v>
       </c>
-      <c r="AD10" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AG10" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ10" t="n">
         <v>20</v>
       </c>
       <c r="AK10" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL10" t="n">
         <v>1000</v>
@@ -1852,7 +1852,7 @@
         <v>11</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="G11" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="H11" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I11" t="n">
         <v>7.6</v>
       </c>
       <c r="J11" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K11" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L11" t="n">
         <v>1.25</v>
@@ -1924,25 +1924,25 @@
         <v>2.44</v>
       </c>
       <c r="T11" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="U11" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="V11" t="n">
         <v>1.15</v>
       </c>
       <c r="W11" t="n">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="X11" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="Y11" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="Z11" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AA11" t="n">
         <v>210</v>
@@ -1951,7 +1951,7 @@
         <v>11.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AD11" t="n">
         <v>34</v>
@@ -1960,7 +1960,7 @@
         <v>100</v>
       </c>
       <c r="AF11" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AG11" t="n">
         <v>11</v>
@@ -1969,13 +1969,13 @@
         <v>970</v>
       </c>
       <c r="AI11" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AJ11" t="n">
         <v>15</v>
       </c>
       <c r="AK11" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AL11" t="n">
         <v>32</v>
@@ -1987,7 +1987,7 @@
         <v>6.4</v>
       </c>
       <c r="AO11" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12">
@@ -2017,25 +2017,25 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="G12" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="H12" t="n">
         <v>3.35</v>
       </c>
       <c r="I12" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J12" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K12" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L12" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
@@ -2059,16 +2059,16 @@
         <v>2.5</v>
       </c>
       <c r="T12" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="U12" t="n">
         <v>2.52</v>
       </c>
       <c r="V12" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W12" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="X12" t="n">
         <v>26</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="G13" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="H13" t="n">
         <v>4.1</v>
       </c>
       <c r="I13" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J13" t="n">
         <v>4.1</v>
@@ -2176,34 +2176,34 @@
         <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O13" t="n">
         <v>1.21</v>
       </c>
       <c r="P13" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R13" t="n">
         <v>1.6</v>
       </c>
       <c r="S13" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="T13" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U13" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="V13" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W13" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="X13" t="n">
         <v>21</v>
@@ -2215,10 +2215,10 @@
         <v>32</v>
       </c>
       <c r="AA13" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AB13" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC13" t="n">
         <v>9.199999999999999</v>
@@ -2242,7 +2242,7 @@
         <v>44</v>
       </c>
       <c r="AJ13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK13" t="n">
         <v>17.5</v>
@@ -2254,7 +2254,7 @@
         <v>65</v>
       </c>
       <c r="AN13" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO13" t="n">
         <v>34</v>
@@ -2323,16 +2323,16 @@
         <v>1.32</v>
       </c>
       <c r="R14" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="S14" t="n">
         <v>1.77</v>
       </c>
       <c r="T14" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U14" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V14" t="n">
         <v>4.8</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="G15" t="n">
         <v>1.83</v>
@@ -2449,28 +2449,28 @@
         <v>5.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P15" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R15" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="S15" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="T15" t="n">
         <v>1.64</v>
       </c>
       <c r="U15" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="V15" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W15" t="n">
         <v>2.2</v>
@@ -2479,19 +2479,19 @@
         <v>22</v>
       </c>
       <c r="Y15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z15" t="n">
         <v>40</v>
       </c>
       <c r="AA15" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AB15" t="n">
         <v>12.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD15" t="n">
         <v>18</v>
@@ -2506,7 +2506,7 @@
         <v>10</v>
       </c>
       <c r="AH15" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI15" t="n">
         <v>50</v>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="G16" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="H16" t="n">
         <v>26</v>
@@ -2569,10 +2569,10 @@
         <v>28</v>
       </c>
       <c r="J16" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="K16" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="L16" t="n">
         <v>1.27</v>
@@ -2581,34 +2581,34 @@
         <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="O16" t="n">
         <v>1.19</v>
       </c>
       <c r="P16" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R16" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="S16" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="T16" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="U16" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="V16" t="n">
         <v>1.03</v>
       </c>
       <c r="W16" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="X16" t="n">
         <v>29</v>
@@ -2617,7 +2617,7 @@
         <v>70</v>
       </c>
       <c r="Z16" t="n">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="AA16" t="n">
         <v>1000</v>
@@ -2641,13 +2641,13 @@
         <v>14.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AI16" t="n">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="AJ16" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AK16" t="n">
         <v>16.5</v>
@@ -2659,7 +2659,7 @@
         <v>560</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2698,16 +2698,16 @@
         <v>1.48</v>
       </c>
       <c r="H17" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="I17" t="n">
         <v>9.4</v>
       </c>
       <c r="J17" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K17" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L17" t="n">
         <v>1.4</v>
@@ -2716,7 +2716,7 @@
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O17" t="n">
         <v>1.3</v>
@@ -2737,31 +2737,31 @@
         <v>2.1</v>
       </c>
       <c r="U17" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V17" t="n">
         <v>1.11</v>
       </c>
       <c r="W17" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="X17" t="n">
         <v>15.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z17" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AA17" t="n">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="AB17" t="n">
         <v>7.8</v>
       </c>
       <c r="AC17" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD17" t="n">
         <v>970</v>
@@ -2779,7 +2779,7 @@
         <v>28</v>
       </c>
       <c r="AI17" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AJ17" t="n">
         <v>12.5</v>
@@ -2788,13 +2788,13 @@
         <v>16</v>
       </c>
       <c r="AL17" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AM17" t="n">
         <v>190</v>
       </c>
       <c r="AN17" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AO17" t="n">
         <v>230</v>
@@ -2830,7 +2830,7 @@
         <v>7.4</v>
       </c>
       <c r="G18" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="H18" t="n">
         <v>1.49</v>
@@ -2839,61 +2839,61 @@
         <v>1.5</v>
       </c>
       <c r="J18" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="K18" t="n">
         <v>5.1</v>
       </c>
       <c r="L18" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M18" t="n">
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P18" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R18" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="S18" t="n">
-        <v>2.56</v>
+        <v>2.68</v>
       </c>
       <c r="T18" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="U18" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V18" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="W18" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="X18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y18" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z18" t="n">
         <v>10.5</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>11</v>
       </c>
       <c r="AA18" t="n">
         <v>14</v>
       </c>
       <c r="AB18" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AC18" t="n">
         <v>11.5</v>
@@ -2908,10 +2908,10 @@
         <v>65</v>
       </c>
       <c r="AG18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI18" t="n">
         <v>980</v>
@@ -2923,16 +2923,16 @@
         <v>95</v>
       </c>
       <c r="AL18" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AM18" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AN18" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AO18" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="19">
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="G20" t="n">
         <v>1.42</v>
@@ -3106,13 +3106,13 @@
         <v>8.4</v>
       </c>
       <c r="I20" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="J20" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="K20" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="L20" t="n">
         <v>1.31</v>
@@ -3139,16 +3139,16 @@
         <v>2.62</v>
       </c>
       <c r="T20" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U20" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V20" t="n">
         <v>1.11</v>
       </c>
       <c r="W20" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="X20" t="n">
         <v>27</v>
@@ -3187,7 +3187,7 @@
         <v>120</v>
       </c>
       <c r="AJ20" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AK20" t="n">
         <v>17.5</v>
@@ -3247,13 +3247,13 @@
         <v>3.4</v>
       </c>
       <c r="K21" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L21" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
         <v>3.75</v>
@@ -3385,7 +3385,7 @@
         <v>5.5</v>
       </c>
       <c r="L22" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M22" t="n">
         <v>1.03</v>
@@ -3439,7 +3439,7 @@
         <v>14.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE22" t="n">
         <v>140</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-14.xlsx
@@ -667,31 +667,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="G2" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="H2" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="I2" t="n">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="J2" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K2" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L2" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="M2" t="n">
         <v>1.09</v>
       </c>
       <c r="N2" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O2" t="n">
         <v>1.4</v>
@@ -703,7 +703,7 @@
         <v>2.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S2" t="n">
         <v>4.1</v>
@@ -712,16 +712,16 @@
         <v>2.04</v>
       </c>
       <c r="U2" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V2" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="W2" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="X2" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y2" t="n">
         <v>7.6</v>
@@ -730,13 +730,13 @@
         <v>10.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD2" t="n">
         <v>10.5</v>
@@ -745,7 +745,7 @@
         <v>22</v>
       </c>
       <c r="AF2" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AG2" t="n">
         <v>21</v>
@@ -757,7 +757,7 @@
         <v>44</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AK2" t="n">
         <v>80</v>
@@ -766,10 +766,10 @@
         <v>85</v>
       </c>
       <c r="AM2" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN2" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AO2" t="n">
         <v>15</v>
@@ -802,58 +802,58 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.05</v>
+        <v>1.72</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="H3" t="n">
-        <v>1.05</v>
+        <v>1.72</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="J3" t="n">
         <v>3.65</v>
       </c>
       <c r="K3" t="n">
-        <v>950</v>
+        <v>32</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="O3" t="n">
         <v>1.17</v>
       </c>
       <c r="P3" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="Q3" t="n">
         <v>1.17</v>
       </c>
       <c r="R3" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S3" t="n">
-        <v>1.17</v>
+        <v>1.05</v>
       </c>
       <c r="T3" t="n">
-        <v>1.05</v>
+        <v>1.41</v>
       </c>
       <c r="U3" t="n">
         <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.02</v>
+        <v>1.33</v>
       </c>
       <c r="W3" t="n">
-        <v>1.02</v>
+        <v>1.33</v>
       </c>
       <c r="X3" t="n">
         <v>970</v>
@@ -940,19 +940,19 @@
         <v>1.04</v>
       </c>
       <c r="G4" t="n">
-        <v>600</v>
+        <v>970</v>
       </c>
       <c r="H4" t="n">
         <v>1.04</v>
       </c>
       <c r="I4" t="n">
-        <v>870</v>
+        <v>970</v>
       </c>
       <c r="J4" t="n">
         <v>3.6</v>
       </c>
       <c r="K4" t="n">
-        <v>950</v>
+        <v>970</v>
       </c>
       <c r="L4" t="n">
         <v>1.01</v>
@@ -961,19 +961,19 @@
         <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="O4" t="n">
         <v>1.21</v>
       </c>
       <c r="P4" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="Q4" t="n">
         <v>1.21</v>
       </c>
       <c r="R4" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="S4" t="n">
         <v>1.21</v>
@@ -1072,25 +1072,25 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="G5" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="H5" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="I5" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="J5" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K5" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.13</v>
+        <v>1.35</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1099,37 +1099,37 @@
         <v>4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P5" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q5" t="n">
         <v>1.79</v>
       </c>
       <c r="R5" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="S5" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T5" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="U5" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="V5" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="W5" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="X5" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="Y5" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Z5" t="n">
         <v>200</v>
@@ -1141,34 +1141,34 @@
         <v>8.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AE5" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AI5" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AK5" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AL5" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AM5" t="n">
         <v>480</v>
@@ -1177,7 +1177,7 @@
         <v>8</v>
       </c>
       <c r="AO5" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6">
@@ -1210,19 +1210,19 @@
         <v>2.2</v>
       </c>
       <c r="G6" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
         <v>2.04</v>
       </c>
       <c r="I6" t="n">
-        <v>2.12</v>
+        <v>1000</v>
       </c>
       <c r="J6" t="n">
         <v>3.75</v>
       </c>
       <c r="K6" t="n">
-        <v>950</v>
+        <v>970</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1243,22 +1243,22 @@
         <v>1.34</v>
       </c>
       <c r="R6" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="S6" t="n">
         <v>1.81</v>
       </c>
       <c r="T6" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="U6" t="n">
         <v>1.04</v>
       </c>
       <c r="V6" t="n">
-        <v>1.89</v>
+        <v>1.01</v>
       </c>
       <c r="W6" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="X6" t="n">
         <v>970</v>
@@ -1291,7 +1291,7 @@
         <v>970</v>
       </c>
       <c r="AH6" t="n">
-        <v>970</v>
+        <v>150</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
@@ -1306,7 +1306,7 @@
         <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN6" t="n">
         <v>1000</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="G7" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="H7" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I7" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="J7" t="n">
         <v>3.75</v>
@@ -1360,22 +1360,22 @@
         <v>3.8</v>
       </c>
       <c r="L7" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O7" t="n">
         <v>1.32</v>
       </c>
       <c r="P7" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="R7" t="n">
         <v>1.39</v>
@@ -1390,31 +1390,31 @@
         <v>2.14</v>
       </c>
       <c r="V7" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="W7" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="X7" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AA7" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AB7" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AC7" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE7" t="n">
         <v>55</v>
@@ -1429,25 +1429,25 @@
         <v>18.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK7" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM7" t="n">
         <v>100</v>
       </c>
       <c r="AN7" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
@@ -1486,13 +1486,13 @@
         <v>12.5</v>
       </c>
       <c r="I8" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="J8" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K8" t="n">
         <v>5.5</v>
-      </c>
-      <c r="K8" t="n">
-        <v>5.6</v>
       </c>
       <c r="L8" t="n">
         <v>1.38</v>
@@ -1501,22 +1501,22 @@
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="O8" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P8" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q8" t="n">
         <v>2</v>
       </c>
-      <c r="Q8" t="n">
-        <v>1.96</v>
-      </c>
       <c r="R8" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S8" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T8" t="n">
         <v>2.48</v>
@@ -1528,7 +1528,7 @@
         <v>1.08</v>
       </c>
       <c r="W8" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="X8" t="n">
         <v>16.5</v>
@@ -1540,7 +1540,7 @@
         <v>120</v>
       </c>
       <c r="AA8" t="n">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="AB8" t="n">
         <v>7</v>
@@ -1564,22 +1564,22 @@
         <v>38</v>
       </c>
       <c r="AI8" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AJ8" t="n">
         <v>9.6</v>
       </c>
       <c r="AK8" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AL8" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM8" t="n">
         <v>290</v>
       </c>
       <c r="AN8" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AO8" t="n">
         <v>490</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="G9" t="n">
         <v>3.05</v>
@@ -1621,34 +1621,34 @@
         <v>2.54</v>
       </c>
       <c r="I9" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K9" t="n">
         <v>3.75</v>
       </c>
       <c r="L9" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
         <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O9" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="P9" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="R9" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S9" t="n">
         <v>3.1</v>
@@ -1657,40 +1657,40 @@
         <v>1.67</v>
       </c>
       <c r="U9" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="V9" t="n">
         <v>1.54</v>
       </c>
       <c r="W9" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="X9" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="Y9" t="n">
         <v>13</v>
       </c>
       <c r="Z9" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AA9" t="n">
-        <v>980</v>
+        <v>500</v>
       </c>
       <c r="AB9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD9" t="n">
         <v>13</v>
       </c>
-      <c r="AC9" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>15</v>
-      </c>
       <c r="AE9" t="n">
-        <v>980</v>
+        <v>180</v>
       </c>
       <c r="AF9" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG9" t="n">
         <v>13.5</v>
@@ -1699,25 +1699,25 @@
         <v>17</v>
       </c>
       <c r="AI9" t="n">
-        <v>46</v>
+        <v>250</v>
       </c>
       <c r="AJ9" t="n">
-        <v>46</v>
+        <v>200</v>
       </c>
       <c r="AK9" t="n">
-        <v>980</v>
+        <v>200</v>
       </c>
       <c r="AL9" t="n">
         <v>48</v>
       </c>
       <c r="AM9" t="n">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="AN9" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AO9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="G10" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="H10" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="I10" t="n">
         <v>6.4</v>
@@ -1762,10 +1762,10 @@
         <v>4</v>
       </c>
       <c r="K10" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
@@ -1780,13 +1780,13 @@
         <v>2.16</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="R10" t="n">
         <v>1.46</v>
       </c>
       <c r="S10" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T10" t="n">
         <v>1.71</v>
@@ -1798,16 +1798,16 @@
         <v>1.19</v>
       </c>
       <c r="W10" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="X10" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Y10" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="Z10" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
@@ -1819,10 +1819,10 @@
         <v>9</v>
       </c>
       <c r="AD10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE10" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
         <v>11.5</v>
@@ -1831,28 +1831,28 @@
         <v>11</v>
       </c>
       <c r="AH10" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>18</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>20</v>
       </c>
       <c r="AK10" t="n">
         <v>18</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM10" t="n">
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AO10" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="G11" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="I11" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="J11" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="K11" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
         <v>1.25</v>
@@ -1933,16 +1933,16 @@
         <v>1.15</v>
       </c>
       <c r="W11" t="n">
-        <v>2.8</v>
+        <v>2.96</v>
       </c>
       <c r="X11" t="n">
-        <v>970</v>
+        <v>44</v>
       </c>
       <c r="Y11" t="n">
-        <v>970</v>
+        <v>95</v>
       </c>
       <c r="Z11" t="n">
-        <v>65</v>
+        <v>220</v>
       </c>
       <c r="AA11" t="n">
         <v>210</v>
@@ -1951,10 +1951,10 @@
         <v>11.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>34</v>
+        <v>170</v>
       </c>
       <c r="AE11" t="n">
         <v>100</v>
@@ -1966,10 +1966,10 @@
         <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AI11" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="AJ11" t="n">
         <v>15</v>
@@ -1978,16 +1978,16 @@
         <v>16</v>
       </c>
       <c r="AL11" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AM11" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN11" t="n">
         <v>6.4</v>
       </c>
       <c r="AO11" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -2023,13 +2023,13 @@
         <v>2.24</v>
       </c>
       <c r="H12" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I12" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J12" t="n">
         <v>3.65</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.7</v>
       </c>
       <c r="K12" t="n">
         <v>3.95</v>
@@ -2041,19 +2041,19 @@
         <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="O12" t="n">
         <v>1.2</v>
       </c>
       <c r="P12" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="Q12" t="n">
         <v>1.63</v>
       </c>
       <c r="R12" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="S12" t="n">
         <v>2.5</v>
@@ -2062,7 +2062,7 @@
         <v>1.6</v>
       </c>
       <c r="U12" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="V12" t="n">
         <v>1.37</v>
@@ -2071,58 +2071,58 @@
         <v>1.8</v>
       </c>
       <c r="X12" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Y12" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Z12" t="n">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="AA12" t="n">
-        <v>70</v>
+        <v>440</v>
       </c>
       <c r="AB12" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AC12" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN12" t="n">
         <v>11.5</v>
       </c>
-      <c r="AD12" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK12" t="n">
+      <c r="AO12" t="n">
         <v>25</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="13">
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="G13" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="H13" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" t="n">
         <v>4.1</v>
       </c>
-      <c r="I13" t="n">
-        <v>4.2</v>
-      </c>
       <c r="J13" t="n">
+        <v>4</v>
+      </c>
+      <c r="K13" t="n">
         <v>4.1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4.2</v>
       </c>
       <c r="L13" t="n">
         <v>1.31</v>
@@ -2185,7 +2185,7 @@
         <v>2.46</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R13" t="n">
         <v>1.6</v>
@@ -2194,16 +2194,16 @@
         <v>2.52</v>
       </c>
       <c r="T13" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="U13" t="n">
         <v>2.52</v>
       </c>
       <c r="V13" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W13" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="X13" t="n">
         <v>21</v>
@@ -2218,19 +2218,19 @@
         <v>80</v>
       </c>
       <c r="AB13" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC13" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD13" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE13" t="n">
         <v>42</v>
       </c>
       <c r="AF13" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG13" t="n">
         <v>11</v>
@@ -2239,7 +2239,7 @@
         <v>16</v>
       </c>
       <c r="AI13" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ13" t="n">
         <v>23</v>
@@ -2248,7 +2248,7 @@
         <v>17.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM13" t="n">
         <v>65</v>
@@ -2257,7 +2257,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AO13" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="H14" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="I14" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="J14" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="K14" t="n">
         <v>8</v>
@@ -2311,22 +2311,22 @@
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="O14" t="n">
         <v>1.1</v>
       </c>
       <c r="P14" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Q14" t="n">
         <v>1.32</v>
       </c>
       <c r="R14" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="S14" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="T14" t="n">
         <v>1.7</v>
@@ -2335,10 +2335,10 @@
         <v>2.36</v>
       </c>
       <c r="V14" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="W14" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="X14" t="n">
         <v>60</v>
@@ -2350,7 +2350,7 @@
         <v>12</v>
       </c>
       <c r="AA14" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AB14" t="n">
         <v>70</v>
@@ -2365,34 +2365,34 @@
         <v>12.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AG14" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AH14" t="n">
         <v>27</v>
       </c>
       <c r="AI14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ14" t="n">
-        <v>490</v>
+        <v>390</v>
       </c>
       <c r="AK14" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AL14" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AM14" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AN14" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AO14" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="15">
@@ -2428,7 +2428,7 @@
         <v>1.83</v>
       </c>
       <c r="H15" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="I15" t="n">
         <v>4.9</v>
@@ -2452,22 +2452,22 @@
         <v>1.21</v>
       </c>
       <c r="P15" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="Q15" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T15" t="n">
         <v>1.65</v>
       </c>
-      <c r="R15" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="T15" t="n">
-        <v>1.64</v>
-      </c>
       <c r="U15" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="V15" t="n">
         <v>1.26</v>
@@ -2479,37 +2479,37 @@
         <v>22</v>
       </c>
       <c r="Y15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z15" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA15" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AB15" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC15" t="n">
         <v>9.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF15" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH15" t="n">
         <v>16.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ15" t="n">
         <v>19.5</v>
@@ -2518,7 +2518,7 @@
         <v>16</v>
       </c>
       <c r="AL15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM15" t="n">
         <v>70</v>
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="G16" t="n">
         <v>1.17</v>
       </c>
-      <c r="G16" t="n">
-        <v>1.18</v>
-      </c>
       <c r="H16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J16" t="n">
         <v>9</v>
@@ -2599,16 +2599,16 @@
         <v>2.54</v>
       </c>
       <c r="T16" t="n">
-        <v>2.82</v>
+        <v>2.76</v>
       </c>
       <c r="U16" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="V16" t="n">
         <v>1.03</v>
       </c>
       <c r="W16" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="X16" t="n">
         <v>29</v>
@@ -2623,40 +2623,40 @@
         <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AC16" t="n">
         <v>22</v>
       </c>
       <c r="AD16" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AE16" t="n">
         <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AG16" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH16" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AI16" t="n">
-        <v>540</v>
+        <v>490</v>
       </c>
       <c r="AJ16" t="n">
         <v>7.4</v>
       </c>
       <c r="AK16" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL16" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM16" t="n">
-        <v>560</v>
+        <v>530</v>
       </c>
       <c r="AN16" t="n">
         <v>3.6</v>
@@ -2698,16 +2698,16 @@
         <v>1.48</v>
       </c>
       <c r="H17" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="J17" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K17" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L17" t="n">
         <v>1.4</v>
@@ -2716,7 +2716,7 @@
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="O17" t="n">
         <v>1.3</v>
@@ -2734,7 +2734,7 @@
         <v>3.25</v>
       </c>
       <c r="T17" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="U17" t="n">
         <v>1.83</v>
@@ -2746,7 +2746,7 @@
         <v>3.05</v>
       </c>
       <c r="X17" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y17" t="n">
         <v>28</v>
@@ -2755,16 +2755,16 @@
         <v>80</v>
       </c>
       <c r="AA17" t="n">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="AB17" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AC17" t="n">
         <v>10.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="AE17" t="n">
         <v>160</v>
@@ -2779,16 +2779,16 @@
         <v>28</v>
       </c>
       <c r="AI17" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AJ17" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK17" t="n">
         <v>16</v>
       </c>
       <c r="AL17" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AM17" t="n">
         <v>190</v>
@@ -2797,7 +2797,7 @@
         <v>8</v>
       </c>
       <c r="AO17" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18">
@@ -2860,31 +2860,31 @@
         <v>2.36</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R18" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S18" t="n">
         <v>2.68</v>
       </c>
       <c r="T18" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U18" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V18" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="W18" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="X18" t="n">
         <v>22</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z18" t="n">
         <v>10.5</v>
@@ -2902,10 +2902,10 @@
         <v>9.6</v>
       </c>
       <c r="AE18" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="AG18" t="n">
         <v>28</v>
@@ -2914,13 +2914,13 @@
         <v>22</v>
       </c>
       <c r="AI18" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AJ18" t="n">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="AK18" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AL18" t="n">
         <v>90</v>
@@ -2929,7 +2929,7 @@
         <v>120</v>
       </c>
       <c r="AN18" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AO18" t="n">
         <v>6.6</v>
@@ -3097,13 +3097,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="G20" t="n">
         <v>1.42</v>
       </c>
       <c r="H20" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I20" t="n">
         <v>10</v>
@@ -3112,16 +3112,16 @@
         <v>5.3</v>
       </c>
       <c r="K20" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="L20" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M20" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="O20" t="n">
         <v>1.21</v>
@@ -3133,13 +3133,13 @@
         <v>1.63</v>
       </c>
       <c r="R20" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="S20" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="T20" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U20" t="n">
         <v>2</v>
@@ -3151,7 +3151,7 @@
         <v>3.35</v>
       </c>
       <c r="X20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y20" t="n">
         <v>36</v>
@@ -3160,19 +3160,19 @@
         <v>100</v>
       </c>
       <c r="AA20" t="n">
-        <v>320</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AE20" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
         <v>10.5</v>
@@ -3184,10 +3184,10 @@
         <v>30</v>
       </c>
       <c r="AI20" t="n">
-        <v>120</v>
+        <v>520</v>
       </c>
       <c r="AJ20" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AK20" t="n">
         <v>17.5</v>
@@ -3196,7 +3196,7 @@
         <v>40</v>
       </c>
       <c r="AM20" t="n">
-        <v>150</v>
+        <v>430</v>
       </c>
       <c r="AN20" t="n">
         <v>6.4</v>
@@ -3241,73 +3241,73 @@
         <v>2.7</v>
       </c>
       <c r="I21" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J21" t="n">
         <v>3.4</v>
       </c>
       <c r="K21" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L21" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O21" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P21" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="Q21" t="n">
         <v>1.96</v>
       </c>
       <c r="R21" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S21" t="n">
         <v>3.35</v>
       </c>
       <c r="T21" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U21" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V21" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="W21" t="n">
         <v>1.52</v>
       </c>
       <c r="X21" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y21" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z21" t="n">
         <v>20</v>
       </c>
       <c r="AA21" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AB21" t="n">
         <v>12.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD21" t="n">
         <v>13.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AF21" t="n">
         <v>20</v>
@@ -3319,22 +3319,22 @@
         <v>17.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AJ21" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AK21" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AL21" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AM21" t="n">
         <v>90</v>
       </c>
       <c r="AN21" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AO21" t="n">
         <v>30</v>
@@ -3370,22 +3370,22 @@
         <v>1.41</v>
       </c>
       <c r="G22" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="H22" t="n">
         <v>7.8</v>
       </c>
       <c r="I22" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J22" t="n">
         <v>4.9</v>
       </c>
       <c r="K22" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="L22" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M22" t="n">
         <v>1.03</v>
@@ -3400,7 +3400,7 @@
         <v>2.38</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R22" t="n">
         <v>1.54</v>
@@ -3409,49 +3409,49 @@
         <v>2.56</v>
       </c>
       <c r="T22" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U22" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="V22" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W22" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="X22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y22" t="n">
         <v>32</v>
       </c>
       <c r="Z22" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AA22" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="AB22" t="n">
         <v>10.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AE22" t="n">
         <v>140</v>
       </c>
       <c r="AF22" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG22" t="n">
         <v>11</v>
       </c>
       <c r="AH22" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="AI22" t="n">
         <v>120</v>
@@ -3460,7 +3460,7 @@
         <v>13.5</v>
       </c>
       <c r="AK22" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AL22" t="n">
         <v>36</v>
@@ -3469,7 +3469,7 @@
         <v>150</v>
       </c>
       <c r="AN22" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="AO22" t="n">
         <v>160</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO22"/>
+  <dimension ref="A1:AO25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,126 +653,126 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>00:10:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FC Juarez</t>
+          <t>Waterford</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Guadalajara</t>
+          <t>Cork City</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5.1</v>
+        <v>2.52</v>
       </c>
       <c r="G2" t="n">
-        <v>5.5</v>
+        <v>3.15</v>
       </c>
       <c r="H2" t="n">
-        <v>1.81</v>
+        <v>2.6</v>
       </c>
       <c r="I2" t="n">
-        <v>1.84</v>
+        <v>2.84</v>
       </c>
       <c r="J2" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="K2" t="n">
-        <v>3.85</v>
+        <v>980</v>
       </c>
       <c r="L2" t="n">
-        <v>1.47</v>
+        <v>1.03</v>
       </c>
       <c r="M2" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.4</v>
+        <v>1.02</v>
       </c>
       <c r="O2" t="n">
-        <v>1.4</v>
+        <v>1.02</v>
       </c>
       <c r="P2" t="n">
-        <v>1.81</v>
+        <v>1.03</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.2</v>
+        <v>1.02</v>
       </c>
       <c r="R2" t="n">
-        <v>1.29</v>
+        <v>1.02</v>
       </c>
       <c r="S2" t="n">
-        <v>4.1</v>
+        <v>1.03</v>
       </c>
       <c r="T2" t="n">
-        <v>2.04</v>
+        <v>1.01</v>
       </c>
       <c r="U2" t="n">
-        <v>1.89</v>
+        <v>1.02</v>
       </c>
       <c r="V2" t="n">
-        <v>2.18</v>
+        <v>1.02</v>
       </c>
       <c r="W2" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>970</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -937,64 +937,64 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.04</v>
+        <v>1.14</v>
       </c>
       <c r="G4" t="n">
-        <v>970</v>
+        <v>1.16</v>
       </c>
       <c r="H4" t="n">
-        <v>1.04</v>
+        <v>75</v>
       </c>
       <c r="I4" t="n">
-        <v>970</v>
+        <v>95</v>
       </c>
       <c r="J4" t="n">
-        <v>3.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>970</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>1.01</v>
       </c>
-      <c r="M4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.02</v>
-      </c>
       <c r="W4" t="n">
-        <v>1.02</v>
+        <v>7.2</v>
       </c>
       <c r="X4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
@@ -1003,13 +1003,13 @@
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
@@ -1018,28 +1018,28 @@
         <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>970</v>
+        <v>2.24</v>
       </c>
       <c r="AH4" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,126 +1058,126 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11:45:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al-Quadisiya (KSA)</t>
+          <t>Neuchatel Xamax</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al-Feiha</t>
+          <t>Servette FC U21</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="G5" t="n">
-        <v>1.49</v>
+        <v>1.02</v>
       </c>
       <c r="H5" t="n">
-        <v>7.6</v>
+        <v>75</v>
       </c>
       <c r="I5" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>4.5</v>
+        <v>50</v>
       </c>
       <c r="K5" t="n">
-        <v>5.2</v>
+        <v>800</v>
       </c>
       <c r="L5" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>2.92</v>
+        <v>50</v>
       </c>
       <c r="X5" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>880</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>480</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AO5" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1193,123 +1193,123 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Vojvodina</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>NK Maribor</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="G6" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J6" t="n">
         <v>4</v>
       </c>
-      <c r="H6" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.75</v>
-      </c>
       <c r="K6" t="n">
-        <v>970</v>
+        <v>5.1</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="M6" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>3.15</v>
+        <v>6.8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P6" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="R6" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="S6" t="n">
-        <v>1.81</v>
+        <v>2.1</v>
       </c>
       <c r="T6" t="n">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="U6" t="n">
-        <v>1.04</v>
+        <v>2.8</v>
       </c>
       <c r="V6" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="W6" t="n">
-        <v>1.38</v>
+        <v>1.84</v>
       </c>
       <c r="X6" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="Y6" t="n">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB6" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="AC6" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG6" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM6" t="n">
-        <v>580</v>
+        <v>980</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Korona Kielce</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>St Pauli</t>
+          <t>CSKA Sofia</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.93</v>
+        <v>3.05</v>
       </c>
       <c r="G7" t="n">
-        <v>1.95</v>
+        <v>3.65</v>
       </c>
       <c r="H7" t="n">
-        <v>4.5</v>
+        <v>2.08</v>
       </c>
       <c r="I7" t="n">
-        <v>4.6</v>
+        <v>2.34</v>
       </c>
       <c r="J7" t="n">
         <v>3.75</v>
       </c>
       <c r="K7" t="n">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>3.95</v>
+        <v>5.3</v>
       </c>
       <c r="O7" t="n">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="P7" t="n">
-        <v>1.99</v>
+        <v>2.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.95</v>
+        <v>1.54</v>
       </c>
       <c r="R7" t="n">
-        <v>1.39</v>
+        <v>1.65</v>
       </c>
       <c r="S7" t="n">
-        <v>3.4</v>
+        <v>2.34</v>
       </c>
       <c r="T7" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="U7" t="n">
-        <v>2.14</v>
+        <v>2.46</v>
       </c>
       <c r="V7" t="n">
-        <v>1.27</v>
+        <v>1.74</v>
       </c>
       <c r="W7" t="n">
-        <v>2.04</v>
+        <v>1.38</v>
       </c>
       <c r="X7" t="n">
-        <v>14.5</v>
+        <v>29</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Z7" t="n">
-        <v>34</v>
+        <v>19.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.199999999999999</v>
+        <v>22</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="AF7" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="AG7" t="n">
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>65</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>21</v>
-      </c>
       <c r="AK7" t="n">
-        <v>19.5</v>
+        <v>38</v>
       </c>
       <c r="AL7" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AM7" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="AN7" t="n">
-        <v>13.5</v>
+        <v>24</v>
       </c>
       <c r="AO7" t="n">
-        <v>65</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>11:45:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Al-Quadisiya (KSA)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Al-Feiha</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.35</v>
+        <v>1.46</v>
       </c>
       <c r="G8" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H8" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L8" t="n">
         <v>1.36</v>
-      </c>
-      <c r="H8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="I8" t="n">
-        <v>13</v>
-      </c>
-      <c r="J8" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="K8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.38</v>
       </c>
       <c r="M8" t="n">
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>3.95</v>
+        <v>4.4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="P8" t="n">
-        <v>1.98</v>
+        <v>2.16</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="R8" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="S8" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="T8" t="n">
-        <v>2.48</v>
+        <v>1.96</v>
       </c>
       <c r="U8" t="n">
-        <v>1.63</v>
+        <v>1.94</v>
       </c>
       <c r="V8" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="W8" t="n">
-        <v>3.75</v>
+        <v>3.05</v>
       </c>
       <c r="X8" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="Y8" t="n">
         <v>32</v>
       </c>
       <c r="Z8" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="AA8" t="n">
-        <v>590</v>
+        <v>290</v>
       </c>
       <c r="AB8" t="n">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD8" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="AE8" t="n">
-        <v>280</v>
+        <v>140</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.8</v>
+        <v>8.4</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AH8" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="AI8" t="n">
-        <v>240</v>
+        <v>290</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9.6</v>
+        <v>12.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL8" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AM8" t="n">
-        <v>290</v>
+        <v>160</v>
       </c>
       <c r="AN8" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="AO8" t="n">
-        <v>490</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Al-Shabab (KSA)</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>NEOM Sports Club</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="G9" t="n">
-        <v>3.05</v>
+        <v>970</v>
       </c>
       <c r="H9" t="n">
-        <v>2.54</v>
+        <v>2.3</v>
       </c>
       <c r="I9" t="n">
-        <v>2.84</v>
+        <v>970</v>
       </c>
       <c r="J9" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K9" t="n">
-        <v>3.75</v>
+        <v>4.8</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.18</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>3.95</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O9" t="n">
-        <v>1.28</v>
+        <v>1.08</v>
       </c>
       <c r="P9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S9" t="n">
         <v>2</v>
       </c>
-      <c r="Q9" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.1</v>
-      </c>
       <c r="T9" t="n">
-        <v>1.67</v>
+        <v>1.05</v>
       </c>
       <c r="U9" t="n">
-        <v>2.32</v>
+        <v>1.04</v>
       </c>
       <c r="V9" t="n">
-        <v>1.54</v>
+        <v>1.65</v>
       </c>
       <c r="W9" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="X9" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="Z9" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AA9" t="n">
-        <v>500</v>
+        <v>46</v>
       </c>
       <c r="AB9" t="n">
-        <v>13.5</v>
+        <v>36</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.6</v>
+        <v>14.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE9" t="n">
-        <v>180</v>
+        <v>23</v>
       </c>
       <c r="AF9" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="AG9" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>250</v>
+        <v>24</v>
       </c>
       <c r="AJ9" t="n">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="AK9" t="n">
-        <v>200</v>
+        <v>26</v>
       </c>
       <c r="AL9" t="n">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="AM9" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN9" t="n">
-        <v>26</v>
+        <v>10.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Al-Shabab (KSA)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Al-Taawoun Buraidah</t>
+          <t>NEOM Sports Club</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.67</v>
+        <v>3.05</v>
       </c>
       <c r="G10" t="n">
-        <v>1.79</v>
+        <v>3.2</v>
       </c>
       <c r="H10" t="n">
-        <v>5.2</v>
+        <v>2.44</v>
       </c>
       <c r="I10" t="n">
-        <v>6.4</v>
+        <v>2.52</v>
       </c>
       <c r="J10" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N10" t="n">
         <v>4</v>
       </c>
-      <c r="K10" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N10" t="n">
-        <v>4.6</v>
-      </c>
       <c r="O10" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P10" t="n">
-        <v>2.16</v>
+        <v>1.99</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.74</v>
+        <v>1.93</v>
       </c>
       <c r="R10" t="n">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="S10" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="T10" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="U10" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="V10" t="n">
-        <v>1.19</v>
+        <v>1.65</v>
       </c>
       <c r="W10" t="n">
-        <v>2.26</v>
+        <v>1.45</v>
       </c>
       <c r="X10" t="n">
-        <v>23</v>
+        <v>14.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AB10" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD10" t="n">
-        <v>23</v>
+        <v>11.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF10" t="n">
-        <v>11.5</v>
+        <v>22</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ10" t="n">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="AK10" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="AL10" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN10" t="n">
-        <v>9.4</v>
+        <v>500</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sion</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Al-Taawoun Buraidah</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="G11" t="n">
-        <v>1.51</v>
+        <v>1.64</v>
       </c>
       <c r="H11" t="n">
-        <v>7.2</v>
+        <v>5.8</v>
       </c>
       <c r="I11" t="n">
-        <v>7.8</v>
+        <v>6.2</v>
       </c>
       <c r="J11" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N11" t="n">
         <v>4.8</v>
       </c>
-      <c r="K11" t="n">
-        <v>5</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N11" t="n">
-        <v>5.3</v>
-      </c>
       <c r="O11" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="P11" t="n">
-        <v>2.46</v>
+        <v>2.28</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="R11" t="n">
-        <v>1.58</v>
+        <v>1.49</v>
       </c>
       <c r="S11" t="n">
-        <v>2.44</v>
+        <v>2.8</v>
       </c>
       <c r="T11" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="U11" t="n">
         <v>2.18</v>
       </c>
       <c r="V11" t="n">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="W11" t="n">
-        <v>2.96</v>
+        <v>2.56</v>
       </c>
       <c r="X11" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="Y11" t="n">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="Z11" t="n">
-        <v>220</v>
+        <v>55</v>
       </c>
       <c r="AA11" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD11" t="n">
-        <v>170</v>
+        <v>23</v>
       </c>
       <c r="AE11" t="n">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="AF11" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI11" t="n">
-        <v>240</v>
+        <v>75</v>
       </c>
       <c r="AJ11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK11" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="AM11" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>6.4</v>
+        <v>7.8</v>
       </c>
       <c r="AO11" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>St Pauli</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.14</v>
+        <v>1.92</v>
       </c>
       <c r="G12" t="n">
-        <v>2.24</v>
+        <v>1.93</v>
       </c>
       <c r="H12" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="I12" t="n">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="J12" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="K12" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L12" t="n">
-        <v>1.26</v>
+        <v>1.42</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>5.1</v>
+        <v>3.85</v>
       </c>
       <c r="O12" t="n">
-        <v>1.2</v>
+        <v>1.34</v>
       </c>
       <c r="P12" t="n">
-        <v>2.38</v>
+        <v>1.96</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.63</v>
+        <v>2.04</v>
       </c>
       <c r="R12" t="n">
-        <v>1.57</v>
+        <v>1.37</v>
       </c>
       <c r="S12" t="n">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="T12" t="n">
-        <v>1.6</v>
+        <v>1.88</v>
       </c>
       <c r="U12" t="n">
-        <v>2.54</v>
+        <v>2.08</v>
       </c>
       <c r="V12" t="n">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
       <c r="W12" t="n">
-        <v>1.8</v>
+        <v>2.08</v>
       </c>
       <c r="X12" t="n">
-        <v>22</v>
+        <v>14.5</v>
       </c>
       <c r="Y12" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH12" t="n">
         <v>19</v>
       </c>
-      <c r="Z12" t="n">
-        <v>85</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>440</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AI12" t="n">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AJ12" t="n">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="AK12" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="AM12" t="n">
-        <v>580</v>
+        <v>110</v>
       </c>
       <c r="AN12" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,126 +2138,126 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Mgladbach</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.96</v>
+        <v>1.36</v>
       </c>
       <c r="G13" t="n">
-        <v>1.98</v>
+        <v>1.37</v>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>11.5</v>
       </c>
       <c r="I13" t="n">
-        <v>4.1</v>
+        <v>12</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>5.4</v>
       </c>
       <c r="K13" t="n">
-        <v>4.1</v>
+        <v>5.5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>5.3</v>
+        <v>4.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>2.46</v>
+        <v>2.12</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.65</v>
+        <v>1.87</v>
       </c>
       <c r="R13" t="n">
-        <v>1.6</v>
+        <v>1.43</v>
       </c>
       <c r="S13" t="n">
-        <v>2.52</v>
+        <v>3.25</v>
       </c>
       <c r="T13" t="n">
-        <v>1.63</v>
+        <v>2.34</v>
       </c>
       <c r="U13" t="n">
-        <v>2.52</v>
+        <v>1.73</v>
       </c>
       <c r="V13" t="n">
-        <v>1.32</v>
+        <v>1.09</v>
       </c>
       <c r="W13" t="n">
-        <v>2.02</v>
+        <v>3.7</v>
       </c>
       <c r="X13" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="Z13" t="n">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="AA13" t="n">
-        <v>80</v>
+        <v>580</v>
       </c>
       <c r="AB13" t="n">
-        <v>13</v>
+        <v>7.4</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>16.5</v>
+        <v>42</v>
       </c>
       <c r="AE13" t="n">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="AF13" t="n">
-        <v>14</v>
+        <v>7.2</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="AI13" t="n">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="AJ13" t="n">
-        <v>23</v>
+        <v>10.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AL13" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="AM13" t="n">
-        <v>65</v>
+        <v>210</v>
       </c>
       <c r="AN13" t="n">
-        <v>8.800000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="AO13" t="n">
-        <v>30</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14">
@@ -2299,13 +2299,13 @@
         <v>1.27</v>
       </c>
       <c r="J14" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="K14" t="n">
         <v>8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M14" t="n">
         <v>1.01</v>
@@ -2323,25 +2323,25 @@
         <v>1.32</v>
       </c>
       <c r="R14" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="S14" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T14" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U14" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="V14" t="n">
         <v>4.7</v>
       </c>
       <c r="W14" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="X14" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Y14" t="n">
         <v>17.5</v>
@@ -2350,7 +2350,7 @@
         <v>12</v>
       </c>
       <c r="AA14" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AB14" t="n">
         <v>70</v>
@@ -2359,40 +2359,40 @@
         <v>19</v>
       </c>
       <c r="AD14" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE14" t="n">
         <v>12.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AG14" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AH14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI14" t="n">
         <v>24</v>
       </c>
       <c r="AJ14" t="n">
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="AK14" t="n">
         <v>140</v>
       </c>
       <c r="AL14" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AM14" t="n">
         <v>90</v>
       </c>
       <c r="AN14" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AO14" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="15">
@@ -2413,127 +2413,127 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Mgladbach</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.82</v>
+        <v>1.94</v>
       </c>
       <c r="G15" t="n">
-        <v>1.83</v>
+        <v>1.96</v>
       </c>
       <c r="H15" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="I15" t="n">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="J15" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
         <v>4.2</v>
       </c>
       <c r="L15" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="M15" t="n">
         <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="O15" t="n">
         <v>1.21</v>
       </c>
       <c r="P15" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R15" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="S15" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="T15" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="U15" t="n">
-        <v>2.44</v>
+        <v>2.6</v>
       </c>
       <c r="V15" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="W15" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="X15" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Y15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z15" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AA15" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AB15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC15" t="n">
         <v>9.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AE15" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AF15" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AG15" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AJ15" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AK15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL15" t="n">
         <v>25</v>
       </c>
       <c r="AM15" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AN15" t="n">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AO15" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.16</v>
+        <v>1.86</v>
       </c>
       <c r="G16" t="n">
-        <v>1.17</v>
+        <v>1.87</v>
       </c>
       <c r="H16" t="n">
-        <v>27</v>
+        <v>4.7</v>
       </c>
       <c r="I16" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N16" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W16" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="X16" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL16" t="n">
         <v>29</v>
       </c>
-      <c r="J16" t="n">
-        <v>9</v>
-      </c>
-      <c r="K16" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N16" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="W16" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="X16" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>70</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>340</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>22</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>100</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>65</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>490</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>65</v>
-      </c>
       <c r="AM16" t="n">
-        <v>530</v>
+        <v>80</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.46</v>
+        <v>2.08</v>
       </c>
       <c r="G17" t="n">
-        <v>1.48</v>
+        <v>2.1</v>
       </c>
       <c r="H17" t="n">
-        <v>9.199999999999999</v>
+        <v>3.85</v>
       </c>
       <c r="I17" t="n">
-        <v>9.6</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="K17" t="n">
-        <v>4.8</v>
+        <v>3.75</v>
       </c>
       <c r="L17" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M17" t="n">
         <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>3.95</v>
+        <v>4.6</v>
       </c>
       <c r="O17" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="P17" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="Q17" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W17" t="n">
         <v>1.9</v>
       </c>
-      <c r="R17" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W17" t="n">
-        <v>3.05</v>
-      </c>
       <c r="X17" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="Z17" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM17" t="n">
         <v>80</v>
       </c>
-      <c r="AA17" t="n">
-        <v>400</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>160</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>190</v>
-      </c>
       <c r="AN17" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AO17" t="n">
-        <v>220</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="F18" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="H18" t="n">
         <v>7.4</v>
       </c>
-      <c r="G18" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1.49</v>
-      </c>
       <c r="I18" t="n">
-        <v>1.5</v>
+        <v>8</v>
       </c>
       <c r="J18" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="K18" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="L18" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="M18" t="n">
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>4.9</v>
+        <v>6</v>
       </c>
       <c r="O18" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="P18" t="n">
-        <v>2.36</v>
+        <v>2.68</v>
       </c>
       <c r="Q18" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R18" t="n">
         <v>1.66</v>
       </c>
-      <c r="R18" t="n">
-        <v>1.54</v>
-      </c>
       <c r="S18" t="n">
-        <v>2.68</v>
+        <v>2.4</v>
       </c>
       <c r="T18" t="n">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="U18" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="V18" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="W18" t="n">
         <v>3</v>
       </c>
-      <c r="W18" t="n">
-        <v>1.15</v>
-      </c>
       <c r="X18" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.6</v>
+        <v>34</v>
       </c>
       <c r="Z18" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>230</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG18" t="n">
         <v>10.5</v>
       </c>
-      <c r="AA18" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>150</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>28</v>
-      </c>
       <c r="AH18" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="AJ18" t="n">
-        <v>230</v>
+        <v>14.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>100</v>
+        <v>13.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="AM18" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AN18" t="n">
-        <v>100</v>
+        <v>5.4</v>
       </c>
       <c r="AO18" t="n">
-        <v>6.6</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,123 +2948,123 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="F19" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H19" t="n">
+        <v>21</v>
+      </c>
+      <c r="I19" t="n">
+        <v>23</v>
+      </c>
+      <c r="J19" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="K19" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="V19" t="n">
         <v>1.04</v>
       </c>
-      <c r="G19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N19" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.01</v>
-      </c>
       <c r="W19" t="n">
-        <v>1.01</v>
+        <v>6</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AA19" t="n">
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AC19" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>510</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>3.75</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3073,7 +3073,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Cruz Azul</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.37</v>
+        <v>1.53</v>
       </c>
       <c r="G20" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+      <c r="I20" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J20" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N20" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R20" t="n">
         <v>1.42</v>
       </c>
-      <c r="H20" t="n">
+      <c r="S20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="X20" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>250</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF20" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="I20" t="n">
-        <v>10</v>
-      </c>
-      <c r="J20" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="K20" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N20" t="n">
-        <v>5</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W20" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="X20" t="n">
-        <v>28</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>100</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>40</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AG20" t="n">
-        <v>12</v>
+        <v>9.4</v>
       </c>
       <c r="AH20" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AI20" t="n">
-        <v>520</v>
+        <v>130</v>
       </c>
       <c r="AJ20" t="n">
         <v>14</v>
       </c>
       <c r="AK20" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AL20" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM20" t="n">
-        <v>430</v>
+        <v>580</v>
       </c>
       <c r="AN20" t="n">
-        <v>6.4</v>
+        <v>8.4</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Queretaro</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Tijuana</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.74</v>
+        <v>7</v>
       </c>
       <c r="G21" t="n">
-        <v>2.9</v>
+        <v>7.2</v>
       </c>
       <c r="H21" t="n">
-        <v>2.7</v>
+        <v>1.52</v>
       </c>
       <c r="I21" t="n">
-        <v>2.9</v>
+        <v>1.54</v>
       </c>
       <c r="J21" t="n">
-        <v>3.4</v>
+        <v>4.7</v>
       </c>
       <c r="K21" t="n">
-        <v>3.7</v>
+        <v>4.9</v>
       </c>
       <c r="L21" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>3.7</v>
+        <v>5.1</v>
       </c>
       <c r="O21" t="n">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="P21" t="n">
-        <v>1.96</v>
+        <v>2.38</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.96</v>
+        <v>1.7</v>
       </c>
       <c r="R21" t="n">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="S21" t="n">
-        <v>3.35</v>
+        <v>2.8</v>
       </c>
       <c r="T21" t="n">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="U21" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="V21" t="n">
-        <v>1.52</v>
+        <v>2.84</v>
       </c>
       <c r="W21" t="n">
-        <v>1.52</v>
+        <v>1.16</v>
       </c>
       <c r="X21" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AE21" t="n">
         <v>15</v>
       </c>
-      <c r="Y21" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>34</v>
-      </c>
       <c r="AF21" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AG21" t="n">
-        <v>13.5</v>
+        <v>25</v>
       </c>
       <c r="AH21" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AI21" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="AJ21" t="n">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="AK21" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="AL21" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="AM21" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AN21" t="n">
-        <v>30</v>
+        <v>320</v>
       </c>
       <c r="AO21" t="n">
-        <v>30</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Mexican Liga MX</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,126 +3353,531 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>22:05:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>CF America</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Atletico San Luis</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.41</v>
+        <v>1.62</v>
       </c>
       <c r="G22" t="n">
-        <v>1.47</v>
+        <v>1.65</v>
       </c>
       <c r="H22" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="I22" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J22" t="n">
-        <v>4.9</v>
+        <v>3.9</v>
       </c>
       <c r="K22" t="n">
-        <v>5.6</v>
+        <v>4.3</v>
       </c>
       <c r="L22" t="n">
-        <v>1.26</v>
+        <v>1.46</v>
       </c>
       <c r="M22" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="N22" t="n">
-        <v>4.8</v>
+        <v>3.3</v>
       </c>
       <c r="O22" t="n">
-        <v>1.21</v>
+        <v>1.38</v>
       </c>
       <c r="P22" t="n">
-        <v>2.38</v>
+        <v>1.78</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.63</v>
+        <v>2.16</v>
       </c>
       <c r="R22" t="n">
-        <v>1.54</v>
+        <v>1.29</v>
       </c>
       <c r="S22" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="T22" t="n">
-        <v>1.89</v>
+        <v>2.12</v>
       </c>
       <c r="U22" t="n">
-        <v>1.98</v>
+        <v>1.75</v>
       </c>
       <c r="V22" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="W22" t="n">
-        <v>3.1</v>
+        <v>2.52</v>
       </c>
       <c r="X22" t="n">
-        <v>24</v>
+        <v>13.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Z22" t="n">
-        <v>75</v>
+        <v>970</v>
       </c>
       <c r="AA22" t="n">
-        <v>310</v>
+        <v>900</v>
       </c>
       <c r="AB22" t="n">
-        <v>10.5</v>
+        <v>7.4</v>
       </c>
       <c r="AC22" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="AD22" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AE22" t="n">
-        <v>140</v>
+        <v>260</v>
       </c>
       <c r="AF22" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG22" t="n">
         <v>11</v>
       </c>
       <c r="AH22" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>290</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL22" t="n">
         <v>970</v>
       </c>
-      <c r="AI22" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK22" t="n">
+      <c r="AM22" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2026-01-14</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Cruz Azul</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Atlas</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="H23" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="I23" t="n">
+        <v>10</v>
+      </c>
+      <c r="J23" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K23" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N23" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="X23" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>190</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>350</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>180</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>290</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>430</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2026-01-14</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Queretaro</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Tijuana</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N24" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X24" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Mexican Liga MX</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2026-01-14</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>22:05:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>CF America</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Atletico San Luis</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+      <c r="I25" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="J25" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N25" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="W25" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="X25" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>280</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>970</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK25" t="n">
         <v>16</v>
       </c>
-      <c r="AL22" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM22" t="n">
+      <c r="AL25" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM25" t="n">
         <v>150</v>
       </c>
-      <c r="AN22" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>160</v>
+      <c r="AN25" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO25"/>
+  <dimension ref="A1:AO20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,75 +653,75 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Waterford</t>
+          <t>Korona Kielce</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Cork City</t>
+          <t>CSKA Sofia</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.52</v>
+        <v>1.04</v>
       </c>
       <c r="G2" t="n">
-        <v>3.15</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>2.6</v>
+        <v>1.04</v>
       </c>
       <c r="I2" t="n">
-        <v>2.84</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>3.4</v>
+        <v>1.01</v>
       </c>
       <c r="K2" t="n">
-        <v>980</v>
+        <v>800</v>
       </c>
       <c r="L2" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="O2" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.03</v>
+        <v>1.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.02</v>
+        <v>1.95</v>
       </c>
       <c r="R2" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="S2" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="T2" t="n">
         <v>1.01</v>
       </c>
       <c r="U2" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
         <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,36 +788,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>11:45:15</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Schalke 04 II</t>
+          <t>Al-Quadisiya (KSA)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Roda JC</t>
+          <t>Al-Feiha</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -832,82 +832,82 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -923,36 +923,36 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>09:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NK Istra</t>
+          <t>Sturm Graz</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>NK Radomlje</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.14</v>
+        <v>1.95</v>
       </c>
       <c r="G4" t="n">
-        <v>1.16</v>
+        <v>2.02</v>
       </c>
       <c r="H4" t="n">
-        <v>75</v>
+        <v>4.8</v>
       </c>
       <c r="I4" t="n">
-        <v>95</v>
+        <v>5.4</v>
       </c>
       <c r="J4" t="n">
-        <v>8.199999999999999</v>
+        <v>3.35</v>
       </c>
       <c r="K4" t="n">
-        <v>9.199999999999999</v>
+        <v>3.6</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>2.02</v>
+        <v>11</v>
       </c>
       <c r="S4" t="n">
-        <v>1.9</v>
+        <v>1.03</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="W4" t="n">
-        <v>7.2</v>
+        <v>1.98</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1018,28 +1018,28 @@
         <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>2.24</v>
+        <v>60</v>
       </c>
       <c r="AH4" t="n">
-        <v>13</v>
+        <v>750</v>
       </c>
       <c r="AI4" t="n">
-        <v>130</v>
+        <v>930</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>4.7</v>
+        <v>730</v>
       </c>
       <c r="AL4" t="n">
         <v>990</v>
       </c>
       <c r="AM4" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>12</v>
+        <v>930</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Neuchatel Xamax</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Servette FC U21</t>
+          <t>St Pauli</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="G5" t="n">
-        <v>1.02</v>
+        <v>1.93</v>
       </c>
       <c r="H5" t="n">
-        <v>75</v>
+        <v>4.5</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="J5" t="n">
-        <v>50</v>
+        <v>3.8</v>
       </c>
       <c r="K5" t="n">
-        <v>800</v>
+        <v>3.85</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="V5" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="W5" t="n">
-        <v>50</v>
+        <v>2.06</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN5" t="n">
-        <v>2</v>
+        <v>13.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Vojvodina</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>NK Maribor</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.06</v>
+        <v>1.35</v>
       </c>
       <c r="G6" t="n">
-        <v>2.18</v>
+        <v>1.36</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>11.5</v>
       </c>
       <c r="I6" t="n">
-        <v>3.8</v>
+        <v>12</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="K6" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.24</v>
+        <v>1.4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>6.8</v>
+        <v>4.3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="P6" t="n">
-        <v>3.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.44</v>
+        <v>1.9</v>
       </c>
       <c r="R6" t="n">
-        <v>1.88</v>
+        <v>1.41</v>
       </c>
       <c r="S6" t="n">
-        <v>2.1</v>
+        <v>3.35</v>
       </c>
       <c r="T6" t="n">
-        <v>1.5</v>
+        <v>2.34</v>
       </c>
       <c r="U6" t="n">
-        <v>2.8</v>
+        <v>1.73</v>
       </c>
       <c r="V6" t="n">
-        <v>1.37</v>
+        <v>1.09</v>
       </c>
       <c r="W6" t="n">
-        <v>1.84</v>
+        <v>3.75</v>
       </c>
       <c r="X6" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="Y6" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="Z6" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AA6" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>20</v>
+        <v>7.4</v>
       </c>
       <c r="AC6" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD6" t="n">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="AE6" t="n">
-        <v>980</v>
+        <v>230</v>
       </c>
       <c r="AF6" t="n">
-        <v>980</v>
+        <v>7</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AI6" t="n">
-        <v>980</v>
+        <v>200</v>
       </c>
       <c r="AJ6" t="n">
-        <v>980</v>
+        <v>10</v>
       </c>
       <c r="AK6" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="AL6" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
       <c r="AM6" t="n">
-        <v>980</v>
+        <v>240</v>
       </c>
       <c r="AN6" t="n">
-        <v>8.199999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,126 +1328,126 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>Al-Shabab (KSA)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CSKA Sofia</t>
+          <t>NEOM Sports Club</t>
         </is>
       </c>
       <c r="F7" t="n">
         <v>3.05</v>
       </c>
       <c r="G7" t="n">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
       <c r="H7" t="n">
-        <v>2.08</v>
+        <v>2.46</v>
       </c>
       <c r="I7" t="n">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="K7" t="n">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>5.3</v>
+        <v>4.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="P7" t="n">
-        <v>2.5</v>
+        <v>2.02</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.54</v>
+        <v>1.94</v>
       </c>
       <c r="R7" t="n">
-        <v>1.65</v>
+        <v>1.39</v>
       </c>
       <c r="S7" t="n">
-        <v>2.34</v>
+        <v>3.4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="U7" t="n">
-        <v>2.46</v>
+        <v>2.28</v>
       </c>
       <c r="V7" t="n">
-        <v>1.74</v>
+        <v>1.66</v>
       </c>
       <c r="W7" t="n">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="X7" t="n">
-        <v>29</v>
+        <v>14.5</v>
       </c>
       <c r="Y7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z7" t="n">
         <v>17</v>
       </c>
-      <c r="Z7" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AA7" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE7" t="n">
         <v>32</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AF7" t="n">
         <v>22</v>
       </c>
-      <c r="AC7" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD7" t="n">
+      <c r="AG7" t="n">
         <v>13.5</v>
       </c>
-      <c r="AE7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AH7" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AJ7" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AK7" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AL7" t="n">
         <v>42</v>
       </c>
       <c r="AM7" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AN7" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="AO7" t="n">
-        <v>11.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>11:45:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Al-Quadisiya (KSA)</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al-Feiha</t>
+          <t>Al-Taawoun Buraidah</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="G8" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="H8" t="n">
-        <v>8.4</v>
+        <v>6.4</v>
       </c>
       <c r="I8" t="n">
-        <v>9</v>
+        <v>6.6</v>
       </c>
       <c r="J8" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="K8" t="n">
+        <v>5</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N8" t="n">
         <v>5.1</v>
       </c>
-      <c r="L8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N8" t="n">
-        <v>4.4</v>
-      </c>
       <c r="O8" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>2.16</v>
+        <v>2.32</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.82</v>
+        <v>1.69</v>
       </c>
       <c r="R8" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="S8" t="n">
-        <v>3.1</v>
+        <v>2.78</v>
       </c>
       <c r="T8" t="n">
-        <v>1.96</v>
+        <v>1.79</v>
       </c>
       <c r="U8" t="n">
-        <v>1.94</v>
+        <v>2.1</v>
       </c>
       <c r="V8" t="n">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="W8" t="n">
-        <v>3.05</v>
+        <v>2.74</v>
       </c>
       <c r="X8" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Y8" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Z8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA8" t="n">
         <v>190</v>
       </c>
-      <c r="AA8" t="n">
-        <v>290</v>
-      </c>
       <c r="AB8" t="n">
-        <v>8.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AC8" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AE8" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.4</v>
+        <v>10.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>290</v>
+        <v>80</v>
       </c>
       <c r="AJ8" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM8" t="n">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="AN8" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AO8" t="n">
-        <v>180</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.82</v>
+        <v>1.46</v>
       </c>
       <c r="G9" t="n">
-        <v>970</v>
+        <v>1.48</v>
       </c>
       <c r="H9" t="n">
-        <v>2.3</v>
+        <v>7.8</v>
       </c>
       <c r="I9" t="n">
-        <v>970</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J9" t="n">
-        <v>3.75</v>
+        <v>5.1</v>
       </c>
       <c r="K9" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="L9" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6</v>
+      </c>
+      <c r="O9" t="n">
         <v>1.18</v>
       </c>
-      <c r="M9" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N9" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.08</v>
-      </c>
       <c r="P9" t="n">
-        <v>1.98</v>
+        <v>2.68</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.27</v>
+        <v>1.56</v>
       </c>
       <c r="R9" t="n">
-        <v>1.98</v>
+        <v>1.67</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="T9" t="n">
-        <v>1.05</v>
+        <v>1.8</v>
       </c>
       <c r="U9" t="n">
-        <v>1.04</v>
+        <v>2.18</v>
       </c>
       <c r="V9" t="n">
-        <v>1.65</v>
+        <v>1.13</v>
       </c>
       <c r="W9" t="n">
-        <v>1.46</v>
+        <v>3.05</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y9" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Z9" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="AA9" t="n">
-        <v>46</v>
+        <v>230</v>
       </c>
       <c r="AB9" t="n">
-        <v>36</v>
+        <v>11.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AD9" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="AE9" t="n">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="AF9" t="n">
-        <v>36</v>
+        <v>11.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>15.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>14.5</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>24</v>
+        <v>240</v>
       </c>
       <c r="AJ9" t="n">
-        <v>60</v>
+        <v>13.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>26</v>
+        <v>13.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AM9" t="n">
-        <v>580</v>
+        <v>95</v>
       </c>
       <c r="AN9" t="n">
-        <v>10.5</v>
+        <v>5.3</v>
       </c>
       <c r="AO9" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Al-Shabab (KSA)</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>NEOM Sports Club</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.05</v>
+        <v>2.08</v>
       </c>
       <c r="G10" t="n">
-        <v>3.2</v>
+        <v>2.12</v>
       </c>
       <c r="H10" t="n">
-        <v>2.44</v>
+        <v>3.85</v>
       </c>
       <c r="I10" t="n">
-        <v>2.52</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="K10" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L10" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="M10" t="n">
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P10" t="n">
-        <v>1.99</v>
+        <v>2.12</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="R10" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="S10" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="T10" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U10" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="V10" t="n">
-        <v>1.65</v>
+        <v>1.33</v>
       </c>
       <c r="W10" t="n">
-        <v>1.45</v>
+        <v>1.89</v>
       </c>
       <c r="X10" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="Y10" t="n">
-        <v>12</v>
+        <v>16.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AA10" t="n">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="AB10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN10" t="n">
         <v>13.5</v>
       </c>
-      <c r="AC10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>500</v>
-      </c>
       <c r="AO10" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,36 +1868,36 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Al-Taawoun Buraidah</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.61</v>
+        <v>1.87</v>
       </c>
       <c r="G11" t="n">
-        <v>1.64</v>
+        <v>1.88</v>
       </c>
       <c r="H11" t="n">
-        <v>5.8</v>
+        <v>4.6</v>
       </c>
       <c r="I11" t="n">
-        <v>6.2</v>
+        <v>4.7</v>
       </c>
       <c r="J11" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="L11" t="n">
         <v>1.35</v>
@@ -1909,85 +1909,85 @@
         <v>4.8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P11" t="n">
         <v>2.28</v>
       </c>
       <c r="Q11" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T11" t="n">
         <v>1.71</v>
       </c>
-      <c r="R11" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.81</v>
-      </c>
       <c r="U11" t="n">
-        <v>2.18</v>
+        <v>2.36</v>
       </c>
       <c r="V11" t="n">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="W11" t="n">
-        <v>2.56</v>
+        <v>2.12</v>
       </c>
       <c r="X11" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>24</v>
+        <v>18.5</v>
       </c>
       <c r="Z11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI11" t="n">
         <v>55</v>
       </c>
-      <c r="AA11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>190</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI11" t="n">
+      <c r="AJ11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM11" t="n">
         <v>75</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN11" t="n">
-        <v>7.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO11" t="n">
-        <v>120</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>St Pauli</t>
+          <t>Mgladbach</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="G12" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="H12" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="J12" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="K12" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="L12" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>3.85</v>
+        <v>5.7</v>
       </c>
       <c r="O12" t="n">
-        <v>1.34</v>
+        <v>1.2</v>
       </c>
       <c r="P12" t="n">
-        <v>1.96</v>
+        <v>2.58</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.04</v>
+        <v>1.61</v>
       </c>
       <c r="R12" t="n">
-        <v>1.37</v>
+        <v>1.63</v>
       </c>
       <c r="S12" t="n">
-        <v>3.6</v>
+        <v>2.54</v>
       </c>
       <c r="T12" t="n">
-        <v>1.88</v>
+        <v>1.59</v>
       </c>
       <c r="U12" t="n">
-        <v>2.08</v>
+        <v>2.62</v>
       </c>
       <c r="V12" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="W12" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="X12" t="n">
-        <v>14.5</v>
+        <v>23</v>
       </c>
       <c r="Y12" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="Z12" t="n">
         <v>32</v>
       </c>
       <c r="AA12" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AB12" t="n">
-        <v>8.6</v>
+        <v>13.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AE12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM12" t="n">
         <v>60</v>
       </c>
-      <c r="AF12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>110</v>
-      </c>
       <c r="AN12" t="n">
-        <v>13.5</v>
+        <v>9</v>
       </c>
       <c r="AO12" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.36</v>
+        <v>12.5</v>
       </c>
       <c r="G13" t="n">
-        <v>1.37</v>
+        <v>13</v>
       </c>
       <c r="H13" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="J13" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V13" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="X13" t="n">
+        <v>60</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z13" t="n">
         <v>11.5</v>
       </c>
-      <c r="I13" t="n">
+      <c r="AA13" t="n">
         <v>12</v>
       </c>
-      <c r="J13" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="K13" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N13" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W13" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="X13" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z13" t="n">
+      <c r="AB13" t="n">
+        <v>75</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>44</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>400</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>140</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN13" t="n">
         <v>110</v>
       </c>
-      <c r="AA13" t="n">
-        <v>580</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>42</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>210</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>180</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>210</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>6.4</v>
-      </c>
       <c r="AO13" t="n">
-        <v>330</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="F14" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>20</v>
+      </c>
+      <c r="I14" t="n">
+        <v>21</v>
+      </c>
+      <c r="J14" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="K14" t="n">
+        <v>9</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N14" t="n">
+        <v>6</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="W14" t="n">
+        <v>6</v>
+      </c>
+      <c r="X14" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>220</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>75</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>510</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AG14" t="n">
         <v>12</v>
       </c>
-      <c r="G14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="J14" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="AH14" t="n">
+        <v>48</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>300</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>8</v>
       </c>
-      <c r="L14" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N14" t="n">
-        <v>10</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="V14" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="X14" t="n">
-        <v>55</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>70</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>150</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>46</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>24</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>430</v>
-      </c>
       <c r="AK14" t="n">
-        <v>140</v>
+        <v>13.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AM14" t="n">
-        <v>90</v>
+        <v>400</v>
       </c>
       <c r="AN14" t="n">
-        <v>100</v>
+        <v>3.8</v>
       </c>
       <c r="AO14" t="n">
-        <v>2.92</v>
+        <v>900</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Mgladbach</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.94</v>
+        <v>1.5</v>
       </c>
       <c r="G15" t="n">
-        <v>1.96</v>
+        <v>1.51</v>
       </c>
       <c r="H15" t="n">
-        <v>4.1</v>
+        <v>8.4</v>
       </c>
       <c r="I15" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N15" t="n">
         <v>4.2</v>
       </c>
-      <c r="J15" t="n">
-        <v>4</v>
-      </c>
-      <c r="K15" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N15" t="n">
-        <v>5.7</v>
-      </c>
       <c r="O15" t="n">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="P15" t="n">
-        <v>2.52</v>
+        <v>2.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.63</v>
+        <v>1.88</v>
       </c>
       <c r="R15" t="n">
-        <v>1.61</v>
+        <v>1.41</v>
       </c>
       <c r="S15" t="n">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="T15" t="n">
-        <v>1.6</v>
+        <v>2.02</v>
       </c>
       <c r="U15" t="n">
-        <v>2.6</v>
+        <v>1.91</v>
       </c>
       <c r="V15" t="n">
-        <v>1.31</v>
+        <v>1.13</v>
       </c>
       <c r="W15" t="n">
-        <v>2.04</v>
+        <v>2.96</v>
       </c>
       <c r="X15" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="Y15" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Z15" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AA15" t="n">
-        <v>75</v>
+        <v>290</v>
       </c>
       <c r="AB15" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>13</v>
       </c>
-      <c r="AC15" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD15" t="n">
+      <c r="AK15" t="n">
         <v>16</v>
       </c>
-      <c r="AE15" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>42</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>17</v>
-      </c>
       <c r="AL15" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="AM15" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AN15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO15" t="n">
-        <v>32</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="F16" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="G16" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K16" t="n">
+        <v>5</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N16" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="T16" t="n">
         <v>1.86</v>
       </c>
-      <c r="G16" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="H16" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="I16" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J16" t="n">
-        <v>4</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N16" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S16" t="n">
+      <c r="U16" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V16" t="n">
         <v>2.96</v>
       </c>
-      <c r="T16" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.27</v>
-      </c>
       <c r="W16" t="n">
-        <v>2.16</v>
+        <v>1.15</v>
       </c>
       <c r="X16" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z16" t="n">
-        <v>36</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA16" t="n">
-        <v>100</v>
+        <v>13.5</v>
       </c>
       <c r="AB16" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC16" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC16" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="AD16" t="n">
-        <v>18</v>
+        <v>9.6</v>
       </c>
       <c r="AE16" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="AF16" t="n">
-        <v>12.5</v>
+        <v>65</v>
       </c>
       <c r="AG16" t="n">
-        <v>9.4</v>
+        <v>26</v>
       </c>
       <c r="AH16" t="n">
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="AI16" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AJ16" t="n">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="AK16" t="n">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="AL16" t="n">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="AM16" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AN16" t="n">
-        <v>9.800000000000001</v>
+        <v>140</v>
       </c>
       <c r="AO16" t="n">
-        <v>55</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.08</v>
+        <v>1.68</v>
       </c>
       <c r="G17" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H17" t="n">
-        <v>3.85</v>
+        <v>5.9</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>7.2</v>
       </c>
       <c r="J17" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K17" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="L17" t="n">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N17" t="n">
-        <v>4.6</v>
+        <v>3.25</v>
       </c>
       <c r="O17" t="n">
-        <v>1.26</v>
+        <v>1.38</v>
       </c>
       <c r="P17" t="n">
-        <v>2.16</v>
+        <v>1.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.82</v>
+        <v>2.18</v>
       </c>
       <c r="R17" t="n">
-        <v>1.47</v>
+        <v>1.27</v>
       </c>
       <c r="S17" t="n">
-        <v>3.05</v>
+        <v>4.1</v>
       </c>
       <c r="T17" t="n">
-        <v>1.7</v>
+        <v>2.06</v>
       </c>
       <c r="U17" t="n">
-        <v>2.34</v>
+        <v>1.78</v>
       </c>
       <c r="V17" t="n">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="W17" t="n">
-        <v>1.9</v>
+        <v>2.42</v>
       </c>
       <c r="X17" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>970</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>85</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>260</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>290</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>17.5</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>24</v>
       </c>
       <c r="AK17" t="n">
         <v>20</v>
       </c>
       <c r="AL17" t="n">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="AM17" t="n">
-        <v>80</v>
+        <v>580</v>
       </c>
       <c r="AN17" t="n">
         <v>13</v>
       </c>
       <c r="AO17" t="n">
-        <v>38</v>
+        <v>600</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Sion</t>
+          <t>Cruz Azul</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="G18" t="n">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="H18" t="n">
-        <v>7.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I18" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J18" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="K18" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="L18" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="M18" t="n">
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="O18" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="P18" t="n">
-        <v>2.68</v>
+        <v>2.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="R18" t="n">
-        <v>1.66</v>
+        <v>1.58</v>
       </c>
       <c r="S18" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="T18" t="n">
-        <v>1.79</v>
+        <v>1.97</v>
       </c>
       <c r="U18" t="n">
-        <v>2.18</v>
+        <v>1.93</v>
       </c>
       <c r="V18" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="W18" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="X18" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y18" t="n">
         <v>34</v>
       </c>
       <c r="Z18" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="AA18" t="n">
-        <v>230</v>
+        <v>320</v>
       </c>
       <c r="AB18" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AC18" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AE18" t="n">
         <v>150</v>
       </c>
       <c r="AF18" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>11.5</v>
       </c>
-      <c r="AG18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>240</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AK18" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AL18" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AM18" t="n">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="AN18" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="AO18" t="n">
-        <v>85</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Queretaro</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Tijuana</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.19</v>
+        <v>2.92</v>
       </c>
       <c r="G19" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
-        <v>21</v>
+        <v>2.68</v>
       </c>
       <c r="I19" t="n">
-        <v>23</v>
+        <v>2.72</v>
       </c>
       <c r="J19" t="n">
-        <v>8.4</v>
+        <v>3.35</v>
       </c>
       <c r="K19" t="n">
-        <v>8.6</v>
+        <v>3.5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.29</v>
+        <v>1.45</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>6</v>
+        <v>3.55</v>
       </c>
       <c r="O19" t="n">
-        <v>1.19</v>
+        <v>1.36</v>
       </c>
       <c r="P19" t="n">
-        <v>2.66</v>
+        <v>1.9</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.59</v>
+        <v>2.1</v>
       </c>
       <c r="R19" t="n">
-        <v>1.64</v>
+        <v>1.34</v>
       </c>
       <c r="S19" t="n">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="T19" t="n">
-        <v>2.5</v>
+        <v>1.79</v>
       </c>
       <c r="U19" t="n">
-        <v>1.63</v>
+        <v>2.14</v>
       </c>
       <c r="V19" t="n">
-        <v>1.04</v>
+        <v>1.58</v>
       </c>
       <c r="W19" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="X19" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="Y19" t="n">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="Z19" t="n">
-        <v>220</v>
+        <v>18.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AB19" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="AC19" t="n">
-        <v>19</v>
+        <v>7.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="AE19" t="n">
-        <v>510</v>
+        <v>34</v>
       </c>
       <c r="AF19" t="n">
-        <v>6.8</v>
+        <v>19.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH19" t="n">
-        <v>50</v>
+        <v>18.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>340</v>
+        <v>980</v>
       </c>
       <c r="AJ19" t="n">
-        <v>8</v>
+        <v>980</v>
       </c>
       <c r="AK19" t="n">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="AL19" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AM19" t="n">
-        <v>420</v>
+        <v>110</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.75</v>
+        <v>32</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,800 +3083,125 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>22:05:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>CF America</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Atletico San Luis</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="G20" t="n">
-        <v>1.54</v>
+        <v>1.47</v>
       </c>
       <c r="H20" t="n">
         <v>8</v>
       </c>
       <c r="I20" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="J20" t="n">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="K20" t="n">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="L20" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="O20" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P20" t="n">
-        <v>2.08</v>
+        <v>2.26</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="R20" t="n">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="S20" t="n">
-        <v>3.25</v>
+        <v>2.92</v>
       </c>
       <c r="T20" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U20" t="n">
         <v>1.96</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.94</v>
       </c>
       <c r="V20" t="n">
         <v>1.13</v>
       </c>
       <c r="W20" t="n">
-        <v>2.84</v>
+        <v>3.1</v>
       </c>
       <c r="X20" t="n">
-        <v>16.5</v>
+        <v>24</v>
       </c>
       <c r="Y20" t="n">
+        <v>980</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>280</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>980</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH20" t="n">
         <v>25</v>
       </c>
-      <c r="Z20" t="n">
-        <v>65</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>250</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE20" t="n">
+      <c r="AI20" t="n">
         <v>110</v>
       </c>
-      <c r="AF20" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>130</v>
-      </c>
       <c r="AJ20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK20" t="n">
         <v>16</v>
       </c>
       <c r="AL20" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM20" t="n">
-        <v>580</v>
+        <v>140</v>
       </c>
       <c r="AN20" t="n">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="AO20" t="n">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Scottish Premiership</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2026-01-14</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Falkirk</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Celtic</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>7</v>
-      </c>
-      <c r="G21" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="J21" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="K21" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N21" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V21" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="X21" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>180</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>85</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>320</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Friendly Matches</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2026-01-14</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>19:00:00</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Boca Juniors</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Millonarios</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="H22" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="I22" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K22" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N22" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S22" t="n">
-        <v>4</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="W22" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="X22" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>970</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>85</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>260</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>290</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>970</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Mexican Liga MX</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2026-01-14</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Cruz Azul</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Atlas</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="H23" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="I23" t="n">
-        <v>10</v>
-      </c>
-      <c r="J23" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="K23" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N23" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W23" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="X23" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>190</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>350</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>36</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>180</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>290</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>430</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Mexican Liga MX</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2026-01-14</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Queretaro</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Tijuana</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="G24" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N24" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="S24" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="U24" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="W24" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X24" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>27</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Mexican Liga MX</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2026-01-14</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>22:05:00</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>CF America</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Atletico San Luis</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="G25" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="H25" t="n">
-        <v>8</v>
-      </c>
-      <c r="I25" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="J25" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N25" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P25" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S25" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U25" t="n">
-        <v>2</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W25" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="X25" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>75</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>280</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>970</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AO25" t="n">
         <v>150</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO20"/>
+  <dimension ref="A1:AO17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,75 +653,75 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Korona Kielce</t>
+          <t>Wolfsburg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CSKA Sofia</t>
+          <t>St Pauli</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.04</v>
+        <v>1.31</v>
       </c>
       <c r="G2" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="H2" t="n">
+        <v>15</v>
+      </c>
+      <c r="I2" t="n">
+        <v>17</v>
+      </c>
+      <c r="J2" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="K2" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="W2" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="X2" t="n">
         <v>1000</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K2" t="n">
-        <v>800</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="X2" t="n">
-        <v>17.5</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
@@ -733,43 +733,43 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,123 +788,123 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11:45:15</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al-Quadisiya (KSA)</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al-Feiha</t>
+          <t>Parma</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="G3" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="H3" t="n">
-        <v>85</v>
+        <v>15.5</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="J3" t="n">
-        <v>200</v>
+        <v>4.1</v>
       </c>
       <c r="K3" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="P3" t="n">
-        <v>1.16</v>
+        <v>1.35</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.01</v>
+        <v>3.7</v>
       </c>
       <c r="R3" t="n">
-        <v>2.68</v>
+        <v>1.12</v>
       </c>
       <c r="S3" t="n">
-        <v>1.53</v>
+        <v>9</v>
       </c>
       <c r="T3" t="n">
-        <v>3.45</v>
+        <v>4.3</v>
       </c>
       <c r="U3" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="W3" t="n">
-        <v>160</v>
+        <v>3.25</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>2.82</v>
+        <v>12.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="AL3" t="n">
-        <v>75</v>
+        <v>230</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>14:30:11</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sturm Graz</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>Al-Taawoun Buraidah</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.95</v>
+        <v>1.79</v>
       </c>
       <c r="G4" t="n">
-        <v>2.02</v>
+        <v>1.82</v>
       </c>
       <c r="H4" t="n">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="I4" t="n">
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="J4" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K4" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="R4" t="n">
-        <v>11</v>
+        <v>1.14</v>
       </c>
       <c r="S4" t="n">
-        <v>1.03</v>
+        <v>7.6</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="V4" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="W4" t="n">
-        <v>1.98</v>
+        <v>2.22</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Z4" t="n">
         <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>270</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>5.3</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AG4" t="n">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="AH4" t="n">
-        <v>750</v>
+        <v>44</v>
       </c>
       <c r="AI4" t="n">
-        <v>930</v>
+        <v>320</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>730</v>
+        <v>32</v>
       </c>
       <c r="AL4" t="n">
-        <v>990</v>
+        <v>120</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>930</v>
+        <v>26</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>470</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:30:13</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Al-Shabab (KSA)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>St Pauli</t>
+          <t>NEOM Sports Club</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.92</v>
+        <v>2.66</v>
       </c>
       <c r="G5" t="n">
-        <v>1.93</v>
+        <v>2.92</v>
       </c>
       <c r="H5" t="n">
-        <v>4.5</v>
+        <v>3.15</v>
       </c>
       <c r="I5" t="n">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="K5" t="n">
-        <v>3.85</v>
+        <v>3.3</v>
       </c>
       <c r="L5" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.95</v>
+        <v>6</v>
       </c>
       <c r="Q5" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="R5" t="n">
         <v>2.04</v>
       </c>
-      <c r="R5" t="n">
-        <v>1.35</v>
-      </c>
       <c r="S5" t="n">
-        <v>3.7</v>
+        <v>1.83</v>
       </c>
       <c r="T5" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1.27</v>
+        <v>1.41</v>
       </c>
       <c r="W5" t="n">
-        <v>2.06</v>
+        <v>1.53</v>
       </c>
       <c r="X5" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK5" t="n">
         <v>15</v>
       </c>
-      <c r="Z5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ5" t="n">
+      <c r="AL5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN5" t="n">
         <v>21</v>
       </c>
-      <c r="AK5" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AO5" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.35</v>
+        <v>13.5</v>
       </c>
       <c r="G6" t="n">
-        <v>1.36</v>
+        <v>14</v>
       </c>
       <c r="H6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="J6" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="K6" t="n">
+        <v>8</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N6" t="n">
         <v>11.5</v>
       </c>
-      <c r="I6" t="n">
+      <c r="O6" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="X6" t="n">
+        <v>65</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z6" t="n">
         <v>12</v>
       </c>
-      <c r="J6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N6" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="X6" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>110</v>
-      </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.4</v>
+        <v>85</v>
       </c>
       <c r="AC6" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AD6" t="n">
         <v>12</v>
       </c>
-      <c r="AD6" t="n">
-        <v>44</v>
-      </c>
       <c r="AE6" t="n">
-        <v>230</v>
+        <v>12</v>
       </c>
       <c r="AF6" t="n">
-        <v>7</v>
+        <v>160</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="AH6" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AI6" t="n">
-        <v>200</v>
+        <v>24</v>
       </c>
       <c r="AJ6" t="n">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="AK6" t="n">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="AL6" t="n">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="AM6" t="n">
-        <v>240</v>
+        <v>85</v>
       </c>
       <c r="AN6" t="n">
-        <v>6.4</v>
+        <v>140</v>
       </c>
       <c r="AO6" t="n">
-        <v>330</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al-Shabab (KSA)</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>NEOM Sports Club</t>
+          <t>Mgladbach</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.05</v>
+        <v>1.98</v>
       </c>
       <c r="G7" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>2.46</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>2.5</v>
+        <v>4.1</v>
       </c>
       <c r="J7" t="n">
-        <v>3.55</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="L7" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>4.1</v>
+        <v>5.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="P7" t="n">
-        <v>2.02</v>
+        <v>2.64</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.94</v>
+        <v>1.59</v>
       </c>
       <c r="R7" t="n">
-        <v>1.39</v>
+        <v>1.65</v>
       </c>
       <c r="S7" t="n">
-        <v>3.4</v>
+        <v>2.48</v>
       </c>
       <c r="T7" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="U7" t="n">
-        <v>2.28</v>
+        <v>2.68</v>
       </c>
       <c r="V7" t="n">
-        <v>1.66</v>
+        <v>1.33</v>
       </c>
       <c r="W7" t="n">
-        <v>1.46</v>
+        <v>2</v>
       </c>
       <c r="X7" t="n">
-        <v>14.5</v>
+        <v>25</v>
       </c>
       <c r="Y7" t="n">
-        <v>11.5</v>
+        <v>22</v>
       </c>
       <c r="Z7" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="AA7" t="n">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="AB7" t="n">
         <v>13.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>8</v>
+        <v>9.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>11.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AF7" t="n">
-        <v>22</v>
+        <v>14.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK7" t="n">
         <v>17</v>
       </c>
-      <c r="AI7" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ7" t="n">
+      <c r="AL7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM7" t="n">
         <v>55</v>
       </c>
-      <c r="AK7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>85</v>
-      </c>
       <c r="AN7" t="n">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="AO7" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,126 +1463,126 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al-Taawoun Buraidah</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.55</v>
+        <v>1.86</v>
       </c>
       <c r="G8" t="n">
-        <v>1.57</v>
+        <v>1.87</v>
       </c>
       <c r="H8" t="n">
-        <v>6.4</v>
+        <v>4.6</v>
       </c>
       <c r="I8" t="n">
-        <v>6.6</v>
+        <v>4.7</v>
       </c>
       <c r="J8" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="R8" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S8" t="n">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="T8" t="n">
-        <v>1.79</v>
+        <v>1.7</v>
       </c>
       <c r="U8" t="n">
-        <v>2.1</v>
+        <v>2.36</v>
       </c>
       <c r="V8" t="n">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="W8" t="n">
-        <v>2.74</v>
+        <v>2.14</v>
       </c>
       <c r="X8" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Y8" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="Z8" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="AA8" t="n">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="AB8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC8" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD8" t="n">
-        <v>24</v>
+        <v>17.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="AF8" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AI8" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AJ8" t="n">
-        <v>14.5</v>
+        <v>20</v>
       </c>
       <c r="AK8" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL8" t="n">
         <v>29</v>
       </c>
       <c r="AM8" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AN8" t="n">
-        <v>7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO8" t="n">
-        <v>600</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
@@ -1603,121 +1603,121 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sion</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.46</v>
+        <v>2.06</v>
       </c>
       <c r="G9" t="n">
-        <v>1.48</v>
+        <v>2.1</v>
       </c>
       <c r="H9" t="n">
-        <v>7.8</v>
+        <v>3.9</v>
       </c>
       <c r="I9" t="n">
-        <v>8.199999999999999</v>
+        <v>4.1</v>
       </c>
       <c r="J9" t="n">
-        <v>5.1</v>
+        <v>3.7</v>
       </c>
       <c r="K9" t="n">
-        <v>5.3</v>
+        <v>3.8</v>
       </c>
       <c r="L9" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N9" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O9" t="n">
         <v>1.28</v>
       </c>
-      <c r="M9" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N9" t="n">
-        <v>6</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.18</v>
-      </c>
       <c r="P9" t="n">
-        <v>2.68</v>
+        <v>2.14</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.56</v>
+        <v>1.84</v>
       </c>
       <c r="R9" t="n">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="S9" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="T9" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="U9" t="n">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="V9" t="n">
-        <v>1.13</v>
+        <v>1.32</v>
       </c>
       <c r="W9" t="n">
-        <v>3.05</v>
+        <v>1.9</v>
       </c>
       <c r="X9" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="Y9" t="n">
-        <v>34</v>
+        <v>16.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="AA9" t="n">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="AB9" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC9" t="n">
-        <v>12</v>
+        <v>8.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="AE9" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="AF9" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG9" t="n">
         <v>10.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="AJ9" t="n">
-        <v>13.5</v>
+        <v>25</v>
       </c>
       <c r="AK9" t="n">
-        <v>13.5</v>
+        <v>20</v>
       </c>
       <c r="AL9" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AM9" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AN9" t="n">
-        <v>5.3</v>
+        <v>13</v>
       </c>
       <c r="AO9" t="n">
-        <v>90</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.08</v>
+        <v>1.46</v>
       </c>
       <c r="G10" t="n">
-        <v>2.12</v>
+        <v>1.48</v>
       </c>
       <c r="H10" t="n">
-        <v>3.85</v>
+        <v>7.6</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J10" t="n">
-        <v>3.7</v>
+        <v>5.1</v>
       </c>
       <c r="K10" t="n">
-        <v>3.75</v>
+        <v>5.3</v>
       </c>
       <c r="L10" t="n">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
-        <v>4.4</v>
+        <v>6.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="P10" t="n">
-        <v>2.12</v>
+        <v>2.78</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.85</v>
+        <v>1.54</v>
       </c>
       <c r="R10" t="n">
-        <v>1.45</v>
+        <v>1.72</v>
       </c>
       <c r="S10" t="n">
-        <v>3.1</v>
+        <v>2.32</v>
       </c>
       <c r="T10" t="n">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="U10" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="V10" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="W10" t="n">
-        <v>1.89</v>
+        <v>3.05</v>
       </c>
       <c r="X10" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.5</v>
+        <v>36</v>
       </c>
       <c r="Z10" t="n">
-        <v>30</v>
+        <v>190</v>
       </c>
       <c r="AA10" t="n">
-        <v>75</v>
+        <v>230</v>
       </c>
       <c r="AB10" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.6</v>
+        <v>12</v>
       </c>
       <c r="AD10" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="AE10" t="n">
-        <v>44</v>
+        <v>240</v>
       </c>
       <c r="AF10" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="AG10" t="n">
         <v>10.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AJ10" t="n">
-        <v>25</v>
+        <v>13.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>21</v>
+        <v>13.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AM10" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN10" t="n">
-        <v>13.5</v>
+        <v>5.1</v>
       </c>
       <c r="AO10" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.87</v>
+        <v>1.19</v>
       </c>
       <c r="G11" t="n">
-        <v>1.88</v>
+        <v>1.2</v>
       </c>
       <c r="H11" t="n">
-        <v>4.6</v>
+        <v>22</v>
       </c>
       <c r="I11" t="n">
-        <v>4.7</v>
+        <v>23</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>8.6</v>
       </c>
       <c r="K11" t="n">
-        <v>4.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L11" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>4.8</v>
+        <v>6.2</v>
       </c>
       <c r="O11" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="P11" t="n">
-        <v>2.28</v>
+        <v>2.72</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.76</v>
+        <v>1.57</v>
       </c>
       <c r="R11" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="S11" t="n">
-        <v>2.92</v>
+        <v>2.44</v>
       </c>
       <c r="T11" t="n">
-        <v>1.71</v>
+        <v>2.48</v>
       </c>
       <c r="U11" t="n">
-        <v>2.36</v>
+        <v>1.65</v>
       </c>
       <c r="V11" t="n">
-        <v>1.27</v>
+        <v>1.04</v>
       </c>
       <c r="W11" t="n">
-        <v>2.12</v>
+        <v>6</v>
       </c>
       <c r="X11" t="n">
-        <v>19.5</v>
+        <v>30</v>
       </c>
       <c r="Y11" t="n">
+        <v>65</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>230</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC11" t="n">
         <v>18.5</v>
       </c>
-      <c r="Z11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>95</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="AD11" t="n">
-        <v>17.5</v>
+        <v>80</v>
       </c>
       <c r="AE11" t="n">
-        <v>50</v>
+        <v>560</v>
       </c>
       <c r="AF11" t="n">
-        <v>12.5</v>
+        <v>7</v>
       </c>
       <c r="AG11" t="n">
-        <v>9.4</v>
+        <v>12</v>
       </c>
       <c r="AH11" t="n">
-        <v>16.5</v>
+        <v>48</v>
       </c>
       <c r="AI11" t="n">
+        <v>350</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AL11" t="n">
         <v>55</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>28</v>
-      </c>
       <c r="AM11" t="n">
-        <v>75</v>
+        <v>330</v>
       </c>
       <c r="AN11" t="n">
-        <v>9.800000000000001</v>
+        <v>3.75</v>
       </c>
       <c r="AO11" t="n">
-        <v>48</v>
+        <v>900</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Mgladbach</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.97</v>
+        <v>1.48</v>
       </c>
       <c r="G12" t="n">
-        <v>1.98</v>
+        <v>1.49</v>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
+        <v>8.4</v>
       </c>
       <c r="I12" t="n">
-        <v>4.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J12" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="K12" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="L12" t="n">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>5.7</v>
+        <v>4.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="P12" t="n">
-        <v>2.58</v>
+        <v>2.14</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.61</v>
+        <v>1.86</v>
       </c>
       <c r="R12" t="n">
-        <v>1.63</v>
+        <v>1.43</v>
       </c>
       <c r="S12" t="n">
-        <v>2.54</v>
+        <v>3.2</v>
       </c>
       <c r="T12" t="n">
-        <v>1.59</v>
+        <v>2.02</v>
       </c>
       <c r="U12" t="n">
-        <v>2.62</v>
+        <v>1.93</v>
       </c>
       <c r="V12" t="n">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="W12" t="n">
-        <v>2.02</v>
+        <v>3</v>
       </c>
       <c r="X12" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="Y12" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="Z12" t="n">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="AA12" t="n">
-        <v>75</v>
+        <v>270</v>
       </c>
       <c r="AB12" t="n">
-        <v>13.5</v>
+        <v>8</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="AE12" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="AF12" t="n">
-        <v>14.5</v>
+        <v>8.4</v>
       </c>
       <c r="AG12" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AH12" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AI12" t="n">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="AJ12" t="n">
-        <v>23</v>
+        <v>12.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AM12" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AN12" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="AO12" t="n">
-        <v>30</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>12.5</v>
+        <v>7.4</v>
       </c>
       <c r="G13" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N13" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V13" t="n">
+        <v>3</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="X13" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AA13" t="n">
         <v>13</v>
       </c>
-      <c r="H13" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="J13" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="K13" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V13" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="X13" t="n">
-        <v>60</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>12</v>
-      </c>
       <c r="AB13" t="n">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="AC13" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AD13" t="n">
-        <v>11.5</v>
+        <v>9.4</v>
       </c>
       <c r="AE13" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AF13" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="AG13" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="AH13" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AI13" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>400</v>
+        <v>220</v>
       </c>
       <c r="AK13" t="n">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="AL13" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AM13" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AN13" t="n">
-        <v>110</v>
+        <v>320</v>
       </c>
       <c r="AO13" t="n">
-        <v>2.9</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.19</v>
+        <v>1.66</v>
       </c>
       <c r="G14" t="n">
-        <v>1.2</v>
+        <v>1.72</v>
       </c>
       <c r="H14" t="n">
-        <v>20</v>
+        <v>5.8</v>
       </c>
       <c r="I14" t="n">
-        <v>21</v>
+        <v>6.8</v>
       </c>
       <c r="J14" t="n">
-        <v>8.6</v>
+        <v>3.9</v>
       </c>
       <c r="K14" t="n">
-        <v>9</v>
+        <v>4.3</v>
       </c>
       <c r="L14" t="n">
-        <v>1.29</v>
+        <v>1.45</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="P14" t="n">
-        <v>2.68</v>
+        <v>1.81</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.58</v>
+        <v>2.08</v>
       </c>
       <c r="R14" t="n">
-        <v>1.65</v>
+        <v>1.34</v>
       </c>
       <c r="S14" t="n">
-        <v>2.48</v>
+        <v>3.75</v>
       </c>
       <c r="T14" t="n">
-        <v>2.5</v>
+        <v>1.96</v>
       </c>
       <c r="U14" t="n">
-        <v>1.64</v>
+        <v>1.86</v>
       </c>
       <c r="V14" t="n">
-        <v>1.05</v>
+        <v>1.17</v>
       </c>
       <c r="W14" t="n">
-        <v>6</v>
+        <v>2.36</v>
       </c>
       <c r="X14" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="Y14" t="n">
-        <v>55</v>
+        <v>18.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>220</v>
+        <v>48</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AB14" t="n">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="AC14" t="n">
-        <v>18.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD14" t="n">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="AE14" t="n">
-        <v>510</v>
+        <v>110</v>
       </c>
       <c r="AF14" t="n">
-        <v>6.8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="AI14" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AJ14" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AK14" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>500</v>
+      </c>
+      <c r="AN14" t="n">
         <v>13.5</v>
       </c>
-      <c r="AL14" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>400</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>3.8</v>
-      </c>
       <c r="AO14" t="n">
-        <v>900</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Cruz Azul</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="G15" t="n">
-        <v>1.51</v>
+        <v>1.39</v>
       </c>
       <c r="H15" t="n">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="I15" t="n">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="J15" t="n">
-        <v>4.6</v>
+        <v>5.6</v>
       </c>
       <c r="K15" t="n">
-        <v>4.8</v>
+        <v>6</v>
       </c>
       <c r="L15" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>4.2</v>
+        <v>5.4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="P15" t="n">
-        <v>2.1</v>
+        <v>2.52</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.88</v>
+        <v>1.63</v>
       </c>
       <c r="R15" t="n">
-        <v>1.41</v>
+        <v>1.59</v>
       </c>
       <c r="S15" t="n">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="T15" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="U15" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="V15" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="W15" t="n">
-        <v>2.96</v>
+        <v>3.5</v>
       </c>
       <c r="X15" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="Y15" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>95</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>350</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH15" t="n">
         <v>26</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>290</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>25</v>
       </c>
       <c r="AI15" t="n">
         <v>120</v>
       </c>
       <c r="AJ15" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AL15" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM15" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN15" t="n">
-        <v>8</v>
+        <v>5.1</v>
       </c>
       <c r="AO15" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Queretaro</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Tijuana</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>7.4</v>
+        <v>2.92</v>
       </c>
       <c r="G16" t="n">
-        <v>7.6</v>
+        <v>3</v>
       </c>
       <c r="H16" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="W16" t="n">
         <v>1.5</v>
       </c>
-      <c r="I16" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="J16" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="K16" t="n">
-        <v>5</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N16" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.15</v>
-      </c>
       <c r="X16" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="Z16" t="n">
-        <v>9.800000000000001</v>
+        <v>18.5</v>
       </c>
       <c r="AA16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG16" t="n">
         <v>13.5</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AH16" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AO16" t="n">
         <v>28</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>240</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>95</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>85</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>140</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>6.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,531 +2678,126 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>22:05:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>CF America</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Atletico San Luis</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.68</v>
+        <v>1.44</v>
       </c>
       <c r="G17" t="n">
-        <v>1.7</v>
+        <v>1.48</v>
       </c>
       <c r="H17" t="n">
-        <v>5.9</v>
+        <v>8</v>
       </c>
       <c r="I17" t="n">
-        <v>7.2</v>
+        <v>8.6</v>
       </c>
       <c r="J17" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="K17" t="n">
-        <v>4.1</v>
+        <v>5.3</v>
       </c>
       <c r="L17" t="n">
-        <v>1.47</v>
+        <v>1.34</v>
       </c>
       <c r="M17" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>3.25</v>
+        <v>4.8</v>
       </c>
       <c r="O17" t="n">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="P17" t="n">
-        <v>1.75</v>
+        <v>2.28</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.18</v>
+        <v>1.74</v>
       </c>
       <c r="R17" t="n">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="S17" t="n">
-        <v>4.1</v>
+        <v>2.86</v>
       </c>
       <c r="T17" t="n">
-        <v>2.06</v>
+        <v>1.96</v>
       </c>
       <c r="U17" t="n">
-        <v>1.78</v>
+        <v>1.95</v>
       </c>
       <c r="V17" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="W17" t="n">
-        <v>2.42</v>
+        <v>3.1</v>
       </c>
       <c r="X17" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="Y17" t="n">
-        <v>18.5</v>
+        <v>28</v>
       </c>
       <c r="Z17" t="n">
-        <v>970</v>
+        <v>95</v>
       </c>
       <c r="AA17" t="n">
-        <v>900</v>
+        <v>280</v>
       </c>
       <c r="AB17" t="n">
-        <v>7.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.4</v>
+        <v>12</v>
       </c>
       <c r="AD17" t="n">
-        <v>85</v>
+        <v>980</v>
       </c>
       <c r="AE17" t="n">
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="AF17" t="n">
         <v>9.4</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH17" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="AI17" t="n">
-        <v>290</v>
+        <v>160</v>
       </c>
       <c r="AJ17" t="n">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="AK17" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AL17" t="n">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="AM17" t="n">
-        <v>580</v>
+        <v>140</v>
       </c>
       <c r="AN17" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AO17" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Mexican Liga MX</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2026-01-14</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Cruz Azul</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Atlas</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H18" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="I18" t="n">
-        <v>10</v>
-      </c>
-      <c r="J18" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="K18" t="n">
-        <v>6</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N18" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W18" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="X18" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>140</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>320</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>36</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>150</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Mexican Liga MX</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2026-01-14</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Queretaro</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Tijuana</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="G19" t="n">
-        <v>3</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N19" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X19" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>32</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Mexican Liga MX</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2026-01-14</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>22:05:00</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>CF America</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Atletico San Luis</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
-      </c>
-      <c r="I20" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="J20" t="n">
-        <v>5</v>
-      </c>
-      <c r="K20" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N20" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W20" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="X20" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>980</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>280</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO17"/>
+  <dimension ref="A1:AO16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -691,88 +691,88 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -802,112 +802,112 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.22</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -937,118 +937,118 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>2.44</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>2.22</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>470</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,36 +1058,36 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:30:13</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al-Shabab (KSA)</t>
+          <t>FC Koln</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>NEOM Sports Club</t>
+          <t>Bayern Munich</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.66</v>
+        <v>4.5</v>
       </c>
       <c r="G5" t="n">
-        <v>2.92</v>
+        <v>4.6</v>
       </c>
       <c r="H5" t="n">
-        <v>3.15</v>
+        <v>1.85</v>
       </c>
       <c r="I5" t="n">
-        <v>3.6</v>
+        <v>1.86</v>
       </c>
       <c r="J5" t="n">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="K5" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1096,34 +1096,34 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="P5" t="n">
-        <v>6</v>
+        <v>4.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="R5" t="n">
-        <v>2.04</v>
+        <v>2.28</v>
       </c>
       <c r="S5" t="n">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="V5" t="n">
-        <v>1.41</v>
+        <v>2.14</v>
       </c>
       <c r="W5" t="n">
-        <v>1.53</v>
+        <v>1.27</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1138,46 +1138,46 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AC5" t="n">
-        <v>6.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>8.4</v>
+        <v>6.8</v>
       </c>
       <c r="AE5" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AG5" t="n">
-        <v>6.4</v>
+        <v>19.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>7.2</v>
+        <v>10.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AK5" t="n">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="AL5" t="n">
-        <v>16.5</v>
+        <v>55</v>
       </c>
       <c r="AM5" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AN5" t="n">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="AO5" t="n">
-        <v>28</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="6">
@@ -1198,121 +1198,121 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FC Koln</t>
+          <t>Hoffenheim</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Bayern Munich</t>
+          <t>Mgladbach</t>
         </is>
       </c>
       <c r="F6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="H6" t="n">
+        <v>50</v>
+      </c>
+      <c r="I6" t="n">
+        <v>60</v>
+      </c>
+      <c r="J6" t="n">
         <v>13.5</v>
       </c>
-      <c r="G6" t="n">
+      <c r="K6" t="n">
         <v>14</v>
       </c>
-      <c r="H6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="J6" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AK6" t="n">
         <v>8</v>
       </c>
-      <c r="L6" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="V6" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="X6" t="n">
-        <v>65</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>85</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>160</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>46</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>24</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>500</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>150</v>
-      </c>
       <c r="AL6" t="n">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="AM6" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AN6" t="n">
-        <v>140</v>
+        <v>3.9</v>
       </c>
       <c r="AO6" t="n">
-        <v>2.82</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7">
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Hoffenheim</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Mgladbach</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>4.1</v>
+        <v>6.2</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="K7" t="n">
-        <v>4.1</v>
+        <v>3.35</v>
       </c>
       <c r="L7" t="n">
-        <v>1.3</v>
+        <v>6.8</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.17</v>
       </c>
       <c r="N7" t="n">
-        <v>5.8</v>
+        <v>2.18</v>
       </c>
       <c r="O7" t="n">
-        <v>1.2</v>
+        <v>1.83</v>
       </c>
       <c r="P7" t="n">
-        <v>2.64</v>
+        <v>1.34</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.59</v>
+        <v>3.85</v>
       </c>
       <c r="R7" t="n">
-        <v>1.65</v>
+        <v>1.12</v>
       </c>
       <c r="S7" t="n">
-        <v>2.48</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="T7" t="n">
-        <v>1.57</v>
+        <v>2.92</v>
       </c>
       <c r="U7" t="n">
-        <v>2.68</v>
+        <v>1.47</v>
       </c>
       <c r="V7" t="n">
-        <v>1.33</v>
+        <v>1.19</v>
       </c>
       <c r="W7" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="X7" t="n">
-        <v>25</v>
+        <v>6.6</v>
       </c>
       <c r="Y7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>270</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>230</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>350</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>22</v>
       </c>
-      <c r="Z7" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI7" t="n">
+      <c r="AK7" t="n">
         <v>40</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>17</v>
-      </c>
       <c r="AL7" t="n">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="AM7" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="AO7" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Swiss Super League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1468,121 +1468,121 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.86</v>
+        <v>4.5</v>
       </c>
       <c r="G8" t="n">
-        <v>1.87</v>
+        <v>4.7</v>
       </c>
       <c r="H8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="L8" t="n">
+        <v>11</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="S8" t="n">
+        <v>14</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X8" t="n">
         <v>4.6</v>
       </c>
-      <c r="I8" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N8" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W8" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="X8" t="n">
-        <v>19</v>
-      </c>
       <c r="Y8" t="n">
-        <v>19</v>
+        <v>5.2</v>
       </c>
       <c r="Z8" t="n">
-        <v>36</v>
+        <v>12.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="AB8" t="n">
-        <v>11</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="AF8" t="n">
-        <v>12.5</v>
+        <v>29</v>
       </c>
       <c r="AG8" t="n">
-        <v>9.4</v>
+        <v>29</v>
       </c>
       <c r="AH8" t="n">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="AI8" t="n">
-        <v>55</v>
+        <v>250</v>
       </c>
       <c r="AJ8" t="n">
-        <v>20</v>
+        <v>190</v>
       </c>
       <c r="AK8" t="n">
-        <v>16.5</v>
+        <v>190</v>
       </c>
       <c r="AL8" t="n">
-        <v>29</v>
+        <v>430</v>
       </c>
       <c r="AM8" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>9.800000000000001</v>
+        <v>480</v>
       </c>
       <c r="AO8" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Sion</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Winterthur</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.06</v>
+        <v>1.59</v>
       </c>
       <c r="G9" t="n">
-        <v>2.1</v>
+        <v>1.61</v>
       </c>
       <c r="H9" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="I9" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K9" t="n">
         <v>3.9</v>
       </c>
-      <c r="I9" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.8</v>
-      </c>
       <c r="L9" t="n">
-        <v>1.37</v>
+        <v>1.71</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="N9" t="n">
-        <v>4.4</v>
+        <v>2.48</v>
       </c>
       <c r="O9" t="n">
-        <v>1.28</v>
+        <v>1.64</v>
       </c>
       <c r="P9" t="n">
-        <v>2.14</v>
+        <v>1.43</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.84</v>
+        <v>3.2</v>
       </c>
       <c r="R9" t="n">
-        <v>1.44</v>
+        <v>1.14</v>
       </c>
       <c r="S9" t="n">
-        <v>3.1</v>
+        <v>7.8</v>
       </c>
       <c r="T9" t="n">
-        <v>1.72</v>
+        <v>3.15</v>
       </c>
       <c r="U9" t="n">
-        <v>2.32</v>
+        <v>1.42</v>
       </c>
       <c r="V9" t="n">
-        <v>1.32</v>
+        <v>1.13</v>
       </c>
       <c r="W9" t="n">
-        <v>1.9</v>
+        <v>2.62</v>
       </c>
       <c r="X9" t="n">
-        <v>17</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y9" t="n">
         <v>16.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="AA9" t="n">
-        <v>80</v>
+        <v>390</v>
       </c>
       <c r="AB9" t="n">
-        <v>11</v>
+        <v>5.3</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="AE9" t="n">
-        <v>44</v>
+        <v>280</v>
       </c>
       <c r="AF9" t="n">
-        <v>13.5</v>
+        <v>7</v>
       </c>
       <c r="AG9" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
-        <v>16.5</v>
+        <v>60</v>
       </c>
       <c r="AI9" t="n">
-        <v>50</v>
+        <v>390</v>
       </c>
       <c r="AJ9" t="n">
-        <v>25</v>
+        <v>14.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AL9" t="n">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="AM9" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>13</v>
+        <v>18.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Swiss Super League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sion</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Winterthur</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.46</v>
+        <v>1.29</v>
       </c>
       <c r="G10" t="n">
-        <v>1.48</v>
+        <v>1.32</v>
       </c>
       <c r="H10" t="n">
-        <v>7.6</v>
+        <v>13</v>
       </c>
       <c r="I10" t="n">
-        <v>8</v>
+        <v>17.5</v>
       </c>
       <c r="J10" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S10" t="n">
         <v>5.1</v>
       </c>
-      <c r="K10" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N10" t="n">
+      <c r="T10" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X10" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>750</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF10" t="n">
         <v>6.4</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W10" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="X10" t="n">
-        <v>28</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>190</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>230</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>240</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AG10" t="n">
-        <v>10.5</v>
+        <v>480</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN10" t="n">
         <v>75</v>
       </c>
-      <c r="AJ10" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>5.1</v>
-      </c>
       <c r="AO10" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Scottish Premiership</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Hearts</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>St Mirren</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.19</v>
+        <v>3.05</v>
       </c>
       <c r="G11" t="n">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="H11" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>23</v>
+        <v>3.05</v>
       </c>
       <c r="J11" t="n">
-        <v>8.6</v>
+        <v>2.82</v>
       </c>
       <c r="K11" t="n">
-        <v>8.800000000000001</v>
+        <v>2.88</v>
       </c>
       <c r="L11" t="n">
-        <v>1.28</v>
+        <v>2.18</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.18</v>
       </c>
       <c r="N11" t="n">
-        <v>6.2</v>
+        <v>2.28</v>
       </c>
       <c r="O11" t="n">
-        <v>1.18</v>
+        <v>1.74</v>
       </c>
       <c r="P11" t="n">
-        <v>2.72</v>
+        <v>1.39</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.57</v>
+        <v>3.45</v>
       </c>
       <c r="R11" t="n">
-        <v>1.67</v>
+        <v>1.12</v>
       </c>
       <c r="S11" t="n">
-        <v>2.44</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="T11" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="U11" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="V11" t="n">
-        <v>1.04</v>
+        <v>1.48</v>
       </c>
       <c r="W11" t="n">
-        <v>6</v>
+        <v>1.45</v>
       </c>
       <c r="X11" t="n">
-        <v>30</v>
+        <v>6.4</v>
       </c>
       <c r="Y11" t="n">
-        <v>65</v>
+        <v>7.2</v>
       </c>
       <c r="Z11" t="n">
-        <v>230</v>
+        <v>17</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB11" t="n">
-        <v>9.4</v>
+        <v>7.6</v>
       </c>
       <c r="AC11" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF11" t="n">
         <v>18.5</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AG11" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>80</v>
       </c>
-      <c r="AE11" t="n">
-        <v>560</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>48</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>350</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>8</v>
-      </c>
       <c r="AK11" t="n">
-        <v>13.5</v>
+        <v>70</v>
       </c>
       <c r="AL11" t="n">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="AM11" t="n">
-        <v>330</v>
+        <v>390</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.75</v>
+        <v>110</v>
       </c>
       <c r="AO11" t="n">
-        <v>900</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -2008,127 +2008,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Hearts</t>
+          <t>Falkirk</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>St Mirren</t>
+          <t>Celtic</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.48</v>
+        <v>6.4</v>
       </c>
       <c r="G12" t="n">
-        <v>1.49</v>
+        <v>7</v>
       </c>
       <c r="H12" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="X12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC12" t="n">
         <v>8.4</v>
       </c>
-      <c r="I12" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N12" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S12" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W12" t="n">
-        <v>3</v>
-      </c>
-      <c r="X12" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>270</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AD12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG12" t="n">
         <v>30</v>
       </c>
-      <c r="AE12" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>9.6</v>
-      </c>
       <c r="AH12" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AI12" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="AJ12" t="n">
-        <v>12.5</v>
+        <v>260</v>
       </c>
       <c r="AK12" t="n">
-        <v>15.5</v>
+        <v>170</v>
       </c>
       <c r="AL12" t="n">
-        <v>36</v>
+        <v>210</v>
       </c>
       <c r="AM12" t="n">
-        <v>150</v>
+        <v>340</v>
       </c>
       <c r="AN12" t="n">
-        <v>7.6</v>
+        <v>330</v>
       </c>
       <c r="AO12" t="n">
-        <v>180</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Scottish Premiership</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>19:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Falkirk</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Celtic</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>7.4</v>
+        <v>1.6</v>
       </c>
       <c r="G13" t="n">
-        <v>7.8</v>
+        <v>1.63</v>
       </c>
       <c r="H13" t="n">
-        <v>1.48</v>
+        <v>7</v>
       </c>
       <c r="I13" t="n">
-        <v>1.5</v>
+        <v>8</v>
       </c>
       <c r="J13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>5.1</v>
+        <v>4.3</v>
       </c>
       <c r="L13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R13" t="n">
         <v>1.33</v>
       </c>
-      <c r="M13" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N13" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.56</v>
-      </c>
       <c r="S13" t="n">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="T13" t="n">
-        <v>1.85</v>
+        <v>2.06</v>
       </c>
       <c r="U13" t="n">
-        <v>2.14</v>
+        <v>1.78</v>
       </c>
       <c r="V13" t="n">
-        <v>3</v>
+        <v>1.14</v>
       </c>
       <c r="W13" t="n">
-        <v>1.14</v>
+        <v>2.58</v>
       </c>
       <c r="X13" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="Y13" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="Z13" t="n">
-        <v>9.4</v>
+        <v>60</v>
       </c>
       <c r="AA13" t="n">
-        <v>13</v>
+        <v>900</v>
       </c>
       <c r="AB13" t="n">
-        <v>29</v>
+        <v>7.6</v>
       </c>
       <c r="AC13" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG13" t="n">
         <v>11</v>
       </c>
-      <c r="AD13" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>27</v>
-      </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AI13" t="n">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="AJ13" t="n">
-        <v>220</v>
+        <v>15</v>
       </c>
       <c r="AK13" t="n">
-        <v>230</v>
+        <v>17.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="AM13" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="AN13" t="n">
-        <v>320</v>
+        <v>10.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>6.2</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,126 +2273,126 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>19:00:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Boca Juniors</t>
+          <t>Cruz Azul</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.66</v>
+        <v>1.38</v>
       </c>
       <c r="G14" t="n">
-        <v>1.72</v>
+        <v>1.41</v>
       </c>
       <c r="H14" t="n">
-        <v>5.8</v>
+        <v>9.6</v>
       </c>
       <c r="I14" t="n">
-        <v>6.8</v>
+        <v>10.5</v>
       </c>
       <c r="J14" t="n">
-        <v>3.9</v>
+        <v>5.3</v>
       </c>
       <c r="K14" t="n">
-        <v>4.3</v>
+        <v>5.6</v>
       </c>
       <c r="L14" t="n">
-        <v>1.45</v>
+        <v>1.34</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W14" t="n">
         <v>3.4</v>
       </c>
-      <c r="O14" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W14" t="n">
-        <v>2.36</v>
-      </c>
       <c r="X14" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Y14" t="n">
-        <v>18.5</v>
+        <v>32</v>
       </c>
       <c r="Z14" t="n">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AA14" t="n">
-        <v>200</v>
+        <v>380</v>
       </c>
       <c r="AB14" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.199999999999999</v>
+        <v>12</v>
       </c>
       <c r="AD14" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="AE14" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>11</v>
       </c>
-      <c r="AH14" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>290</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>18</v>
-      </c>
       <c r="AK14" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="AL14" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AM14" t="n">
-        <v>500</v>
+        <v>170</v>
       </c>
       <c r="AN14" t="n">
-        <v>13.5</v>
+        <v>6.2</v>
       </c>
       <c r="AO14" t="n">
-        <v>150</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15">
@@ -2408,126 +2408,126 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Cruz Azul</t>
+          <t>Queretaro</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>Tijuana</t>
         </is>
       </c>
       <c r="F15" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O15" t="n">
         <v>1.37</v>
       </c>
-      <c r="G15" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="H15" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="J15" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="K15" t="n">
-        <v>6</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N15" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.2</v>
-      </c>
       <c r="P15" t="n">
-        <v>2.52</v>
+        <v>1.86</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.63</v>
+        <v>2.1</v>
       </c>
       <c r="R15" t="n">
-        <v>1.59</v>
+        <v>1.34</v>
       </c>
       <c r="S15" t="n">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="T15" t="n">
-        <v>1.97</v>
+        <v>1.8</v>
       </c>
       <c r="U15" t="n">
-        <v>1.93</v>
+        <v>2.14</v>
       </c>
       <c r="V15" t="n">
-        <v>1.11</v>
+        <v>1.58</v>
       </c>
       <c r="W15" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="X15" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Y15" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>44</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE15" t="n">
         <v>34</v>
       </c>
-      <c r="Z15" t="n">
-        <v>95</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>350</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD15" t="n">
+      <c r="AF15" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK15" t="n">
         <v>36</v>
       </c>
-      <c r="AE15" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>14</v>
-      </c>
       <c r="AL15" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AM15" t="n">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="AN15" t="n">
-        <v>5.1</v>
+        <v>32</v>
       </c>
       <c r="AO15" t="n">
-        <v>160</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
@@ -2543,261 +2543,126 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:05:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Queretaro</t>
+          <t>CF America</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Tijuana</t>
+          <t>Atletico San Luis</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.92</v>
+        <v>1.45</v>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>1.48</v>
       </c>
       <c r="H16" t="n">
-        <v>2.68</v>
+        <v>8</v>
       </c>
       <c r="I16" t="n">
-        <v>2.72</v>
+        <v>8.4</v>
       </c>
       <c r="J16" t="n">
-        <v>3.35</v>
+        <v>5</v>
       </c>
       <c r="K16" t="n">
-        <v>3.5</v>
+        <v>5.3</v>
       </c>
       <c r="L16" t="n">
-        <v>1.46</v>
+        <v>1.34</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>3.55</v>
+        <v>4.8</v>
       </c>
       <c r="O16" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="P16" t="n">
-        <v>1.89</v>
+        <v>2.28</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.08</v>
+        <v>1.75</v>
       </c>
       <c r="R16" t="n">
-        <v>1.34</v>
+        <v>1.51</v>
       </c>
       <c r="S16" t="n">
-        <v>3.75</v>
+        <v>2.88</v>
       </c>
       <c r="T16" t="n">
-        <v>1.8</v>
+        <v>1.94</v>
       </c>
       <c r="U16" t="n">
-        <v>2.14</v>
+        <v>1.96</v>
       </c>
       <c r="V16" t="n">
-        <v>1.58</v>
+        <v>1.13</v>
       </c>
       <c r="W16" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="X16" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>280</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>48</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>13</v>
       </c>
-      <c r="Y16" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>70</v>
-      </c>
       <c r="AK16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL16" t="n">
         <v>36</v>
       </c>
-      <c r="AL16" t="n">
-        <v>980</v>
-      </c>
       <c r="AM16" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="AN16" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="AO16" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Mexican Liga MX</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2026-01-14</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>22:05:00</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>CF America</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Atletico San Luis</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-      <c r="I17" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="J17" t="n">
-        <v>5</v>
-      </c>
-      <c r="K17" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N17" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W17" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="X17" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>95</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>280</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO8"/>
+  <dimension ref="A1:AO4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Wolfsburg</t>
+          <t>Cruz Azul</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>St Pauli</t>
+          <t>Atlas</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -697,88 +697,88 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Queretaro</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Parma</t>
+          <t>Tijuana</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Mexican Liga MX</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,666 +923,126 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:30:11</t>
+          <t>22:05:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>CF America</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al-Taawoun Buraidah</t>
+          <t>Atletico San Luis</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Friendly Matches</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2026-01-14</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>19:00:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Boca Juniors</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Millonarios</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="H5" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="I5" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S5" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W5" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="X5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>480</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>42</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>300</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>46</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>310</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>25</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>550</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>470</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>14</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Mexican Liga MX</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2026-01-14</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Cruz Azul</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Atlas</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H6" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="I6" t="n">
-        <v>10</v>
-      </c>
-      <c r="J6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N6" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="X6" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>100</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>380</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>38</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>180</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>140</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Mexican Liga MX</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2026-01-14</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Queretaro</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Tijuana</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X7" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>44</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM7" t="n">
         <v>160</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>36</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Mexican Liga MX</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2026-01-14</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>22:05:00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>CF America</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Atletico San Luis</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-      <c r="I8" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="K8" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N8" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W8" t="n">
-        <v>3</v>
-      </c>
-      <c r="X8" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>75</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>280</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>30</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-01-14.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-01-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="A1:AO3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Cruz Azul</t>
+          <t>Queretaro</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Atlas</t>
+          <t>Tijuana</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.02</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>1.03</v>
+        <v>290</v>
       </c>
       <c r="H2" t="n">
-        <v>90</v>
+        <v>1.05</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>1.06</v>
       </c>
       <c r="J2" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="K2" t="n">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -697,29 +697,29 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.56</v>
+        <v>1.83</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.62</v>
+        <v>2.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.32</v>
+        <v>1.12</v>
       </c>
       <c r="S2" t="n">
-        <v>3.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="T2" t="n">
-        <v>3.7</v>
+        <v>1.39</v>
       </c>
       <c r="U2" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
+        <v>18</v>
+      </c>
+      <c r="W2" t="n">
         <v>1.01</v>
       </c>
-      <c r="W2" t="n">
-        <v>40</v>
-      </c>
       <c r="X2" t="n">
         <v>1000</v>
       </c>
@@ -739,28 +739,28 @@
         <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.68</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -788,261 +788,126 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:05:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Queretaro</t>
+          <t>CF America</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Tijuana</t>
+          <t>Atletico San Luis</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.94</v>
+        <v>22</v>
       </c>
       <c r="G3" t="n">
-        <v>3.05</v>
+        <v>24</v>
       </c>
       <c r="H3" t="n">
-        <v>2.66</v>
+        <v>1.31</v>
       </c>
       <c r="I3" t="n">
-        <v>2.72</v>
+        <v>1.34</v>
       </c>
       <c r="J3" t="n">
-        <v>3.35</v>
+        <v>4.9</v>
       </c>
       <c r="K3" t="n">
-        <v>3.45</v>
+        <v>5.1</v>
       </c>
       <c r="L3" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3.45</v>
+        <v>1.22</v>
       </c>
       <c r="O3" t="n">
-        <v>1.39</v>
+        <v>1.68</v>
       </c>
       <c r="P3" t="n">
-        <v>1.8</v>
+        <v>1.26</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.18</v>
+        <v>4.6</v>
       </c>
       <c r="R3" t="n">
-        <v>1.31</v>
+        <v>1.06</v>
       </c>
       <c r="S3" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="T3" t="n">
-        <v>1.85</v>
+        <v>2.6</v>
       </c>
       <c r="U3" t="n">
-        <v>2.06</v>
+        <v>1.54</v>
       </c>
       <c r="V3" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.49</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.5</v>
+        <v>2.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>17</v>
+        <v>5.9</v>
       </c>
       <c r="AA3" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>12.5</v>
+        <v>990</v>
       </c>
       <c r="AE3" t="n">
-        <v>32</v>
+        <v>990</v>
       </c>
       <c r="AF3" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>19</v>
+        <v>990</v>
       </c>
       <c r="AI3" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Mexican Liga MX</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2026-01-14</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>22:05:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>CF America</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Atletico San Luis</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N4" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="X4" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>290</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
